--- a/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
+++ b/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\Sem 1\ELEN4002 Capstone Project\Code\Team-Riot\DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3DFEFA-1878-4AB7-9E08-9A1962095CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts and Phrases" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
     <sheet name="Sheet14" sheetId="13" r:id="rId13"/>
     <sheet name="Sheet13" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1368,9 +1374,6 @@
     <t>church, congregation, believers, temple, mosque, synagoge</t>
   </si>
   <si>
-    <t>Afrikaans Phrases</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gather, Memorandum, group, sing, dance, dancing, toyi, </t>
   </si>
   <si>
@@ -1419,9 +1422,6 @@
     <t>Municipality</t>
   </si>
   <si>
-    <t>Conditional Phrases</t>
-  </si>
-  <si>
     <t>School, university, students</t>
   </si>
   <si>
@@ -1489,12 +1489,18 @@
   </si>
   <si>
     <t>Ratepayers, taxpayers, association</t>
+  </si>
+  <si>
+    <t>Conditional_Phrases</t>
+  </si>
+  <si>
+    <t>Afrikaans_Phrases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1646,7 +1652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1678,27 +1684,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1720,9 +1724,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -2019,10 +2023,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70F9-435D-B91D-956BD6A1779C}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -2036,6 +2037,9 @@
                   </a:ln>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70F9-435D-B91D-956BD6A1779C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2210,9 +2214,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -2371,10 +2375,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1830-499C-B75A-8A42411C7321}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -2388,6 +2389,9 @@
                   </a:ln>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1830-499C-B75A-8A42411C7321}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2578,9 +2582,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -2626,9 +2630,12 @@
             <c:strRef>
               <c:f>'Tactics '!$B$28:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Based on categories Frequency</c:v>
+                  <c:v>Based on categories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frequency</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2745,10 +2752,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0EEE-4E95-851E-ED57878EF202}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -2762,6 +2766,9 @@
                   </a:ln>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0EEE-4E95-851E-ED57878EF202}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2952,9 +2959,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -3013,7 +3020,7 @@
                 <a:srgbClr val="4285F4"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-A1B3-4A06-AC9E-7098D9650375}"/>
               </c:ext>
@@ -3027,7 +3034,7 @@
                 <a:srgbClr val="DB4437"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-A1B3-4A06-AC9E-7098D9650375}"/>
               </c:ext>
@@ -3041,7 +3048,7 @@
                 <a:srgbClr val="F4B400"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-A1B3-4A06-AC9E-7098D9650375}"/>
               </c:ext>
@@ -3055,7 +3062,7 @@
                 <a:srgbClr val="0F9D58"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-A1B3-4A06-AC9E-7098D9650375}"/>
               </c:ext>
@@ -3069,7 +3076,7 @@
                 <a:srgbClr val="FF6D00"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-A1B3-4A06-AC9E-7098D9650375}"/>
               </c:ext>
@@ -3083,7 +3090,7 @@
                 <a:srgbClr val="46BDC6"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-A1B3-4A06-AC9E-7098D9650375}"/>
               </c:ext>
@@ -3097,7 +3104,7 @@
                 <a:srgbClr val="AB30C4"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000D-A1B3-4A06-AC9E-7098D9650375}"/>
               </c:ext>
@@ -3162,7 +3169,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-A1B3-4A06-AC9E-7098D9650375}"/>
             </c:ext>
@@ -3212,9 +3219,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -3319,10 +3326,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B4C2-4D5B-A3D2-9D7507208A60}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -3336,6 +3340,9 @@
                   </a:ln>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4C2-4D5B-A3D2-9D7507208A60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3541,7 +3548,7 @@
         <xdr:cNvPr id="2" name="Chart 1" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3577,7 +3584,7 @@
         <xdr:cNvPr id="2" name="Chart 2" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3613,7 +3620,7 @@
         <xdr:cNvPr id="3" name="Chart 3" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3649,7 +3656,7 @@
         <xdr:cNvPr id="4" name="Chart 4" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,7 +3692,7 @@
         <xdr:cNvPr id="5" name="Chart 5" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3995,51 +4002,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="26"/>
-    <col min="2" max="2" width="28.140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="79.5703125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="77.140625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="60.5703125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="79.5703125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="77.140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="60.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>459</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4050,7 +4056,7 @@
       <c r="B2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="24" t="s">
@@ -4067,10 +4073,10 @@
       <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
@@ -4085,10 +4091,10 @@
       <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="24" t="s">
         <v>15</v>
       </c>
@@ -4103,10 +4109,10 @@
       <c r="B5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="24" t="s">
         <v>18</v>
       </c>
@@ -4121,10 +4127,10 @@
       <c r="B6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="24" t="s">
         <v>21</v>
       </c>
@@ -4139,10 +4145,10 @@
       <c r="B7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="24" t="s">
         <v>24</v>
       </c>
@@ -4157,11 +4163,11 @@
       <c r="B8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>464</v>
+      <c r="C8" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>462</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>26</v>
@@ -4177,11 +4183,11 @@
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>465</v>
+      <c r="C9" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>463</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>28</v>
@@ -4197,11 +4203,11 @@
       <c r="B10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>461</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>466</v>
+      <c r="C10" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>464</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>30</v>
@@ -4217,11 +4223,11 @@
       <c r="B11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>462</v>
+      <c r="C11" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>460</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="25" t="s">
@@ -4235,10 +4241,10 @@
       <c r="B12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="24" t="s">
         <v>34</v>
       </c>
@@ -4253,10 +4259,10 @@
       <c r="B13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="24" t="s">
         <v>37</v>
       </c>
@@ -4271,10 +4277,10 @@
       <c r="B14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="24" t="s">
         <v>40</v>
       </c>
@@ -4289,10 +4295,10 @@
       <c r="B15" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="30"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="24" t="s">
         <v>8</v>
       </c>
@@ -4307,11 +4313,11 @@
       <c r="B16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>468</v>
+      <c r="C16" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>466</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>44</v>
@@ -4327,11 +4333,11 @@
       <c r="B17" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>469</v>
+      <c r="D17" s="29" t="s">
+        <v>467</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>46</v>
@@ -4347,10 +4353,10 @@
       <c r="B18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="D18" s="30"/>
+      <c r="C18" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="D18" s="29"/>
       <c r="E18" s="24" t="s">
         <v>8</v>
       </c>
@@ -4365,10 +4371,10 @@
       <c r="B19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="D19" s="30"/>
+      <c r="C19" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="D19" s="29"/>
       <c r="E19" s="24" t="s">
         <v>49</v>
       </c>
@@ -4383,10 +4389,10 @@
       <c r="B20" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="D20" s="30"/>
+      <c r="C20" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="D20" s="29"/>
       <c r="E20" s="24" t="s">
         <v>51</v>
       </c>
@@ -4401,10 +4407,10 @@
       <c r="B21" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="30"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="24" t="s">
         <v>54</v>
       </c>
@@ -4419,11 +4425,11 @@
       <c r="B22" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>458</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>463</v>
+      <c r="C22" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>461</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>56</v>
@@ -4439,10 +4445,10 @@
       <c r="B23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="24" t="s">
         <v>8</v>
       </c>
@@ -4457,10 +4463,10 @@
       <c r="B24" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="24" t="s">
         <v>61</v>
       </c>
@@ -4475,10 +4481,10 @@
       <c r="B25" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="30"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="24" t="s">
         <v>64</v>
       </c>
@@ -4493,11 +4499,11 @@
       <c r="B26" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>471</v>
+      <c r="C26" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>469</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>66</v>
@@ -4513,10 +4519,10 @@
       <c r="B27" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="30"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="24" t="s">
         <v>69</v>
       </c>
@@ -4531,10 +4537,10 @@
       <c r="B28" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="D28" s="30"/>
+      <c r="C28" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="D28" s="29"/>
       <c r="E28" s="24" t="s">
         <v>71</v>
       </c>
@@ -4549,10 +4555,10 @@
       <c r="B29" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="30"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="24" t="s">
         <v>74</v>
       </c>
@@ -4567,10 +4573,10 @@
       <c r="B30" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="30"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="24" t="s">
         <v>77</v>
       </c>
@@ -4585,10 +4591,10 @@
       <c r="B31" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="30"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="24" t="s">
         <v>80</v>
       </c>
@@ -4603,10 +4609,10 @@
       <c r="B32" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="D32" s="30"/>
+      <c r="C32" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="D32" s="29"/>
       <c r="E32" s="24" t="s">
         <v>8</v>
       </c>
@@ -4621,10 +4627,10 @@
       <c r="B33" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="30"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="24" t="s">
         <v>84</v>
       </c>
@@ -4639,11 +4645,11 @@
       <c r="B34" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>473</v>
+      <c r="C34" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>471</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>86</v>
@@ -4659,11 +4665,11 @@
       <c r="B35" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>482</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>481</v>
+      <c r="C35" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>479</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>88</v>
@@ -4679,10 +4685,10 @@
       <c r="B36" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="30"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="24" t="s">
         <v>91</v>
       </c>
@@ -4697,11 +4703,11 @@
       <c r="B37" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>475</v>
+      <c r="C37" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>473</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>93</v>
@@ -4780,7 +4786,7 @@
         <v>105</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="24" t="s">
@@ -4834,10 +4840,10 @@
         <v>113</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>114</v>
@@ -4944,7 +4950,7 @@
         <v>130</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="24" t="s">
@@ -4954,11 +4960,6 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="F52" s="27"/>
-    </row>
     <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
         <v>132</v>
@@ -4966,10 +4967,10 @@
       <c r="B53" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="30"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="24" t="s">
         <v>135</v>
       </c>
@@ -4984,10 +4985,10 @@
       <c r="B54" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D54" s="30"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="24" t="s">
         <v>139</v>
       </c>
@@ -5002,10 +5003,10 @@
       <c r="B55" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="D55" s="30"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="24" t="s">
         <v>141</v>
       </c>
@@ -5020,10 +5021,10 @@
       <c r="B56" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="29" t="s">
         <v>364</v>
       </c>
       <c r="E56" s="24" t="s">
@@ -5040,10 +5041,10 @@
       <c r="B57" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D57" s="30"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="24" t="s">
         <v>146</v>
       </c>
@@ -5058,10 +5059,10 @@
       <c r="B58" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="30"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="24" t="s">
         <v>149</v>
       </c>
@@ -5076,10 +5077,10 @@
       <c r="B59" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="D59" s="30"/>
+      <c r="D59" s="29"/>
       <c r="E59" s="24" t="s">
         <v>151</v>
       </c>
@@ -5094,10 +5095,10 @@
       <c r="B60" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D60" s="30"/>
+      <c r="D60" s="29"/>
       <c r="E60" s="24" t="s">
         <v>154</v>
       </c>
@@ -5112,10 +5113,10 @@
       <c r="B61" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="D61" s="30"/>
+      <c r="D61" s="29"/>
       <c r="E61" s="24" t="s">
         <v>157</v>
       </c>
@@ -5130,11 +5131,11 @@
       <c r="B62" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="31" t="s">
+      <c r="D62" s="29"/>
+      <c r="E62" s="1" t="s">
         <v>160</v>
       </c>
       <c r="F62" s="25" t="s">
@@ -5148,10 +5149,10 @@
       <c r="B63" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C63" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="D63" s="30"/>
+      <c r="C63" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="D63" s="29"/>
       <c r="E63" s="24" t="s">
         <v>162</v>
       </c>
@@ -5166,10 +5167,10 @@
       <c r="B64" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D64" s="30"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="24" t="s">
         <v>165</v>
       </c>
@@ -5220,10 +5221,10 @@
       <c r="B68" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="D68" s="30"/>
+      <c r="D68" s="29"/>
       <c r="E68" s="24" t="s">
         <v>8</v>
       </c>
@@ -5238,10 +5239,10 @@
       <c r="B69" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="D69" s="30"/>
+      <c r="D69" s="29"/>
       <c r="E69" s="24" t="s">
         <v>178</v>
       </c>
@@ -5285,7 +5286,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="23"/>
       <c r="B72" s="24"/>
       <c r="C72" s="25"/>
@@ -5300,10 +5301,10 @@
       <c r="B73" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="C73" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D73" s="30"/>
+      <c r="D73" s="29"/>
       <c r="E73" s="24" t="s">
         <v>187</v>
       </c>
@@ -5373,7 +5374,7 @@
         <v>182</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="24" t="s">
@@ -5434,10 +5435,10 @@
       <c r="B81" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="C81" s="30" t="s">
-        <v>452</v>
-      </c>
-      <c r="D81" s="30"/>
+      <c r="C81" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="D81" s="29"/>
       <c r="E81" s="24" t="s">
         <v>207</v>
       </c>
@@ -5452,11 +5453,11 @@
       <c r="B82" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C82" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>479</v>
+      <c r="C82" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>477</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>210</v>
@@ -5472,10 +5473,10 @@
       <c r="B83" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C83" s="30" t="s">
-        <v>453</v>
-      </c>
-      <c r="D83" s="30"/>
+      <c r="C83" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="D83" s="29"/>
       <c r="E83" s="24" t="s">
         <v>212</v>
       </c>
@@ -5498,11 +5499,11 @@
       <c r="B85" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D85" s="30" t="s">
-        <v>480</v>
+      <c r="D85" s="29" t="s">
+        <v>478</v>
       </c>
       <c r="E85" s="24" t="s">
         <v>215</v>
@@ -5518,10 +5519,10 @@
       <c r="B86" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D86" s="30"/>
+      <c r="D86" s="29"/>
       <c r="E86" s="24" t="s">
         <v>219</v>
       </c>
@@ -5544,10 +5545,10 @@
       <c r="B88" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D88" s="30"/>
+      <c r="D88" s="29"/>
       <c r="E88" s="24" t="s">
         <v>223</v>
       </c>
@@ -5562,10 +5563,10 @@
       <c r="B89" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="C89" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="D89" s="30"/>
+      <c r="C89" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="D89" s="29"/>
       <c r="E89" s="24" t="s">
         <v>226</v>
       </c>
@@ -5588,14 +5589,14 @@
       <c r="B91" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="C91" s="30" t="s">
+      <c r="C91" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="D91" s="30"/>
+      <c r="D91" s="29"/>
       <c r="E91" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="F91" s="30" t="s">
+      <c r="F91" s="29" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5606,14 +5607,14 @@
       <c r="B92" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="C92" s="30" t="s">
-        <v>455</v>
-      </c>
-      <c r="D92" s="30"/>
+      <c r="C92" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="D92" s="29"/>
       <c r="E92" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="F92" s="30" t="s">
+      <c r="F92" s="29" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5624,14 +5625,14 @@
       <c r="B93" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="D93" s="30"/>
-      <c r="E93" s="31" t="s">
+      <c r="D93" s="29"/>
+      <c r="E93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F93" s="30" t="s">
+      <c r="F93" s="29" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5642,14 +5643,14 @@
       <c r="B94" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="D94" s="30"/>
-      <c r="E94" s="31" t="s">
+      <c r="D94" s="29"/>
+      <c r="E94" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F94" s="30" t="s">
+      <c r="F94" s="29" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5660,14 +5661,14 @@
       <c r="B95" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="D95" s="30"/>
+      <c r="D95" s="29"/>
       <c r="E95" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="F95" s="30" t="s">
+      <c r="F95" s="29" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5678,14 +5679,14 @@
       <c r="B96" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="D96" s="30"/>
+      <c r="D96" s="29"/>
       <c r="E96" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="F96" s="30" t="s">
+      <c r="F96" s="29" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5696,14 +5697,14 @@
       <c r="B97" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="D97" s="30"/>
+      <c r="D97" s="29"/>
       <c r="E97" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="F97" s="30" t="s">
+      <c r="F97" s="29" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5714,14 +5715,14 @@
       <c r="B98" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="D98" s="30"/>
+      <c r="D98" s="29"/>
       <c r="E98" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="F98" s="30" t="s">
+      <c r="F98" s="29" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5732,14 +5733,14 @@
       <c r="B99" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="D99" s="30"/>
+      <c r="D99" s="29"/>
       <c r="E99" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="F99" s="30" t="s">
+      <c r="F99" s="29" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5750,14 +5751,14 @@
       <c r="B100" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="C100" s="30" t="s">
+      <c r="C100" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="D100" s="30"/>
+      <c r="D100" s="29"/>
       <c r="E100" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="F100" s="30" t="s">
+      <c r="F100" s="29" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5768,2682 +5769,2682 @@
       <c r="B101" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="C101" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="D101" s="30"/>
+      <c r="D101" s="29"/>
       <c r="E101" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="F101" s="30" t="s">
+      <c r="F101" s="29" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="23"/>
-      <c r="F102" s="32"/>
+      <c r="F102" s="30"/>
     </row>
     <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F103" s="32"/>
+      <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F104" s="32"/>
+      <c r="F104" s="30"/>
     </row>
     <row r="105" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="23"/>
-      <c r="F105" s="32"/>
+      <c r="F105" s="30"/>
     </row>
     <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F106" s="32"/>
+      <c r="F106" s="30"/>
     </row>
     <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F107" s="32"/>
+      <c r="F107" s="30"/>
     </row>
     <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F108" s="32"/>
+      <c r="F108" s="30"/>
     </row>
     <row r="109" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="23"/>
-      <c r="F109" s="32"/>
+      <c r="F109" s="30"/>
     </row>
     <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F110" s="32"/>
+      <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F111" s="32"/>
+      <c r="F111" s="30"/>
     </row>
     <row r="112" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="23"/>
-      <c r="F112" s="32"/>
+      <c r="F112" s="30"/>
     </row>
     <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F113" s="32"/>
+      <c r="F113" s="30"/>
     </row>
     <row r="114" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="23"/>
-      <c r="F114" s="32"/>
+      <c r="F114" s="30"/>
     </row>
     <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="33"/>
-      <c r="F115" s="32"/>
+      <c r="A115" s="31"/>
+      <c r="F115" s="30"/>
     </row>
     <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F116" s="32"/>
+      <c r="F116" s="30"/>
     </row>
     <row r="117" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="23"/>
-      <c r="F117" s="32"/>
+      <c r="F117" s="30"/>
     </row>
     <row r="118" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F118" s="32"/>
+      <c r="F118" s="30"/>
     </row>
     <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F119" s="32"/>
+      <c r="F119" s="30"/>
     </row>
     <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F120" s="32"/>
+      <c r="F120" s="30"/>
     </row>
     <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F121" s="32"/>
+      <c r="F121" s="30"/>
     </row>
     <row r="122" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F122" s="32"/>
+      <c r="F122" s="30"/>
     </row>
     <row r="123" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="23"/>
-      <c r="F123" s="32"/>
+      <c r="F123" s="30"/>
     </row>
     <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F124" s="32"/>
+      <c r="F124" s="30"/>
     </row>
     <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F125" s="32"/>
+      <c r="F125" s="30"/>
     </row>
     <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F126" s="32"/>
+      <c r="F126" s="30"/>
     </row>
     <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F127" s="32"/>
+      <c r="F127" s="30"/>
     </row>
     <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F128" s="32"/>
+      <c r="F128" s="30"/>
     </row>
     <row r="129" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F129" s="32"/>
+      <c r="F129" s="30"/>
     </row>
     <row r="130" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F130" s="32"/>
+      <c r="F130" s="30"/>
     </row>
     <row r="131" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F131" s="32"/>
+      <c r="F131" s="30"/>
     </row>
     <row r="132" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F132" s="32"/>
+      <c r="F132" s="30"/>
     </row>
     <row r="133" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F133" s="32"/>
+      <c r="F133" s="30"/>
     </row>
     <row r="134" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F134" s="32"/>
+      <c r="F134" s="30"/>
     </row>
     <row r="135" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F135" s="32"/>
+      <c r="F135" s="30"/>
     </row>
     <row r="136" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F136" s="32"/>
+      <c r="F136" s="30"/>
     </row>
     <row r="137" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F137" s="32"/>
+      <c r="F137" s="30"/>
     </row>
     <row r="138" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F138" s="32"/>
+      <c r="F138" s="30"/>
     </row>
     <row r="139" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F139" s="32"/>
+      <c r="F139" s="30"/>
     </row>
     <row r="140" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F140" s="32"/>
+      <c r="F140" s="30"/>
     </row>
     <row r="141" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F141" s="32"/>
+      <c r="F141" s="30"/>
     </row>
     <row r="142" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F142" s="32"/>
+      <c r="F142" s="30"/>
     </row>
     <row r="143" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F143" s="32"/>
+      <c r="F143" s="30"/>
     </row>
     <row r="144" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F144" s="32"/>
+      <c r="F144" s="30"/>
     </row>
     <row r="145" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F145" s="32"/>
+      <c r="F145" s="30"/>
     </row>
     <row r="146" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F146" s="32"/>
+      <c r="F146" s="30"/>
     </row>
     <row r="147" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F147" s="32"/>
+      <c r="F147" s="30"/>
     </row>
     <row r="148" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F148" s="32"/>
+      <c r="F148" s="30"/>
     </row>
     <row r="149" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F149" s="32"/>
+      <c r="F149" s="30"/>
     </row>
     <row r="150" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F150" s="32"/>
+      <c r="F150" s="30"/>
     </row>
     <row r="151" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F151" s="32"/>
+      <c r="F151" s="30"/>
     </row>
     <row r="152" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F152" s="32"/>
+      <c r="F152" s="30"/>
     </row>
     <row r="153" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F153" s="32"/>
+      <c r="F153" s="30"/>
     </row>
     <row r="154" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F154" s="32"/>
+      <c r="F154" s="30"/>
     </row>
     <row r="155" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F155" s="32"/>
+      <c r="F155" s="30"/>
     </row>
     <row r="156" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F156" s="32"/>
+      <c r="F156" s="30"/>
     </row>
     <row r="157" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F157" s="32"/>
+      <c r="F157" s="30"/>
     </row>
     <row r="158" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F158" s="32"/>
+      <c r="F158" s="30"/>
     </row>
     <row r="159" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F159" s="32"/>
+      <c r="F159" s="30"/>
     </row>
     <row r="160" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F160" s="32"/>
+      <c r="F160" s="30"/>
     </row>
     <row r="161" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F161" s="32"/>
+      <c r="F161" s="30"/>
     </row>
     <row r="162" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F162" s="32"/>
+      <c r="F162" s="30"/>
     </row>
     <row r="163" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F163" s="32"/>
+      <c r="F163" s="30"/>
     </row>
     <row r="164" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F164" s="32"/>
+      <c r="F164" s="30"/>
     </row>
     <row r="165" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F165" s="32"/>
+      <c r="F165" s="30"/>
     </row>
     <row r="166" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F166" s="32"/>
+      <c r="F166" s="30"/>
     </row>
     <row r="167" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F167" s="32"/>
+      <c r="F167" s="30"/>
     </row>
     <row r="168" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F168" s="32"/>
+      <c r="F168" s="30"/>
     </row>
     <row r="169" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F169" s="32"/>
+      <c r="F169" s="30"/>
     </row>
     <row r="170" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F170" s="32"/>
+      <c r="F170" s="30"/>
     </row>
     <row r="171" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F171" s="32"/>
+      <c r="F171" s="30"/>
     </row>
     <row r="172" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F172" s="32"/>
+      <c r="F172" s="30"/>
     </row>
     <row r="173" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F173" s="32"/>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F174" s="32"/>
+      <c r="F174" s="30"/>
     </row>
     <row r="175" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F175" s="32"/>
+      <c r="F175" s="30"/>
     </row>
     <row r="176" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F176" s="32"/>
+      <c r="F176" s="30"/>
     </row>
     <row r="177" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F177" s="32"/>
+      <c r="F177" s="30"/>
     </row>
     <row r="178" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F178" s="32"/>
+      <c r="F178" s="30"/>
     </row>
     <row r="179" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F179" s="32"/>
+      <c r="F179" s="30"/>
     </row>
     <row r="180" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F180" s="32"/>
+      <c r="F180" s="30"/>
     </row>
     <row r="181" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F181" s="32"/>
+      <c r="F181" s="30"/>
     </row>
     <row r="182" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F182" s="32"/>
+      <c r="F182" s="30"/>
     </row>
     <row r="183" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F183" s="32"/>
+      <c r="F183" s="30"/>
     </row>
     <row r="184" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F184" s="32"/>
+      <c r="F184" s="30"/>
     </row>
     <row r="185" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F185" s="32"/>
+      <c r="F185" s="30"/>
     </row>
     <row r="186" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F186" s="32"/>
+      <c r="F186" s="30"/>
     </row>
     <row r="187" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F187" s="32"/>
+      <c r="F187" s="30"/>
     </row>
     <row r="188" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F188" s="32"/>
+      <c r="F188" s="30"/>
     </row>
     <row r="189" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F189" s="32"/>
+      <c r="F189" s="30"/>
     </row>
     <row r="190" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F190" s="32"/>
+      <c r="F190" s="30"/>
     </row>
     <row r="191" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F191" s="32"/>
+      <c r="F191" s="30"/>
     </row>
     <row r="192" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F192" s="32"/>
+      <c r="F192" s="30"/>
     </row>
     <row r="193" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F193" s="32"/>
+      <c r="F193" s="30"/>
     </row>
     <row r="194" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F194" s="32"/>
+      <c r="F194" s="30"/>
     </row>
     <row r="195" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F195" s="32"/>
+      <c r="F195" s="30"/>
     </row>
     <row r="196" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F196" s="32"/>
+      <c r="F196" s="30"/>
     </row>
     <row r="197" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F197" s="32"/>
+      <c r="F197" s="30"/>
     </row>
     <row r="198" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F198" s="32"/>
+      <c r="F198" s="30"/>
     </row>
     <row r="199" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F199" s="32"/>
+      <c r="F199" s="30"/>
     </row>
     <row r="200" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F200" s="32"/>
+      <c r="F200" s="30"/>
     </row>
     <row r="201" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F201" s="32"/>
+      <c r="F201" s="30"/>
     </row>
     <row r="202" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F202" s="32"/>
+      <c r="F202" s="30"/>
     </row>
     <row r="203" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F203" s="32"/>
+      <c r="F203" s="30"/>
     </row>
     <row r="204" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F204" s="32"/>
+      <c r="F204" s="30"/>
     </row>
     <row r="205" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F205" s="32"/>
+      <c r="F205" s="30"/>
     </row>
     <row r="206" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F206" s="32"/>
+      <c r="F206" s="30"/>
     </row>
     <row r="207" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F207" s="32"/>
+      <c r="F207" s="30"/>
     </row>
     <row r="208" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F208" s="32"/>
+      <c r="F208" s="30"/>
     </row>
     <row r="209" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F209" s="32"/>
+      <c r="F209" s="30"/>
     </row>
     <row r="210" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F210" s="32"/>
+      <c r="F210" s="30"/>
     </row>
     <row r="211" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F211" s="32"/>
+      <c r="F211" s="30"/>
     </row>
     <row r="212" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F212" s="32"/>
+      <c r="F212" s="30"/>
     </row>
     <row r="213" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F213" s="32"/>
+      <c r="F213" s="30"/>
     </row>
     <row r="214" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F214" s="32"/>
+      <c r="F214" s="30"/>
     </row>
     <row r="215" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F215" s="32"/>
+      <c r="F215" s="30"/>
     </row>
     <row r="216" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F216" s="32"/>
+      <c r="F216" s="30"/>
     </row>
     <row r="217" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F217" s="32"/>
+      <c r="F217" s="30"/>
     </row>
     <row r="218" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F218" s="32"/>
+      <c r="F218" s="30"/>
     </row>
     <row r="219" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F219" s="32"/>
+      <c r="F219" s="30"/>
     </row>
     <row r="220" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F220" s="32"/>
+      <c r="F220" s="30"/>
     </row>
     <row r="221" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F221" s="32"/>
+      <c r="F221" s="30"/>
     </row>
     <row r="222" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F222" s="32"/>
+      <c r="F222" s="30"/>
     </row>
     <row r="223" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F223" s="32"/>
+      <c r="F223" s="30"/>
     </row>
     <row r="224" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F224" s="32"/>
+      <c r="F224" s="30"/>
     </row>
     <row r="225" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F225" s="32"/>
+      <c r="F225" s="30"/>
     </row>
     <row r="226" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F226" s="32"/>
+      <c r="F226" s="30"/>
     </row>
     <row r="227" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F227" s="32"/>
+      <c r="F227" s="30"/>
     </row>
     <row r="228" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F228" s="32"/>
+      <c r="F228" s="30"/>
     </row>
     <row r="229" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F229" s="32"/>
+      <c r="F229" s="30"/>
     </row>
     <row r="230" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F230" s="32"/>
+      <c r="F230" s="30"/>
     </row>
     <row r="231" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F231" s="32"/>
+      <c r="F231" s="30"/>
     </row>
     <row r="232" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F232" s="32"/>
+      <c r="F232" s="30"/>
     </row>
     <row r="233" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F233" s="32"/>
+      <c r="F233" s="30"/>
     </row>
     <row r="234" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F234" s="32"/>
+      <c r="F234" s="30"/>
     </row>
     <row r="235" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F235" s="32"/>
+      <c r="F235" s="30"/>
     </row>
     <row r="236" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F236" s="32"/>
+      <c r="F236" s="30"/>
     </row>
     <row r="237" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F237" s="32"/>
+      <c r="F237" s="30"/>
     </row>
     <row r="238" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F238" s="32"/>
+      <c r="F238" s="30"/>
     </row>
     <row r="239" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F239" s="32"/>
+      <c r="F239" s="30"/>
     </row>
     <row r="240" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F240" s="32"/>
+      <c r="F240" s="30"/>
     </row>
     <row r="241" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F241" s="32"/>
+      <c r="F241" s="30"/>
     </row>
     <row r="242" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F242" s="32"/>
+      <c r="F242" s="30"/>
     </row>
     <row r="243" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F243" s="32"/>
+      <c r="F243" s="30"/>
     </row>
     <row r="244" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F244" s="32"/>
+      <c r="F244" s="30"/>
     </row>
     <row r="245" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F245" s="32"/>
+      <c r="F245" s="30"/>
     </row>
     <row r="246" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F246" s="32"/>
+      <c r="F246" s="30"/>
     </row>
     <row r="247" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F247" s="32"/>
+      <c r="F247" s="30"/>
     </row>
     <row r="248" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F248" s="32"/>
+      <c r="F248" s="30"/>
     </row>
     <row r="249" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F249" s="32"/>
+      <c r="F249" s="30"/>
     </row>
     <row r="250" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F250" s="32"/>
+      <c r="F250" s="30"/>
     </row>
     <row r="251" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F251" s="32"/>
+      <c r="F251" s="30"/>
     </row>
     <row r="252" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F252" s="32"/>
+      <c r="F252" s="30"/>
     </row>
     <row r="253" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F253" s="32"/>
+      <c r="F253" s="30"/>
     </row>
     <row r="254" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F254" s="32"/>
+      <c r="F254" s="30"/>
     </row>
     <row r="255" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F255" s="32"/>
+      <c r="F255" s="30"/>
     </row>
     <row r="256" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F256" s="32"/>
+      <c r="F256" s="30"/>
     </row>
     <row r="257" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F257" s="32"/>
+      <c r="F257" s="30"/>
     </row>
     <row r="258" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F258" s="32"/>
+      <c r="F258" s="30"/>
     </row>
     <row r="259" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F259" s="32"/>
+      <c r="F259" s="30"/>
     </row>
     <row r="260" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F260" s="32"/>
+      <c r="F260" s="30"/>
     </row>
     <row r="261" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F261" s="32"/>
+      <c r="F261" s="30"/>
     </row>
     <row r="262" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F262" s="32"/>
+      <c r="F262" s="30"/>
     </row>
     <row r="263" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F263" s="32"/>
+      <c r="F263" s="30"/>
     </row>
     <row r="264" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F264" s="32"/>
+      <c r="F264" s="30"/>
     </row>
     <row r="265" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F265" s="32"/>
+      <c r="F265" s="30"/>
     </row>
     <row r="266" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F266" s="32"/>
+      <c r="F266" s="30"/>
     </row>
     <row r="267" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F267" s="32"/>
+      <c r="F267" s="30"/>
     </row>
     <row r="268" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F268" s="32"/>
+      <c r="F268" s="30"/>
     </row>
     <row r="269" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F269" s="32"/>
+      <c r="F269" s="30"/>
     </row>
     <row r="270" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F270" s="32"/>
+      <c r="F270" s="30"/>
     </row>
     <row r="271" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F271" s="32"/>
+      <c r="F271" s="30"/>
     </row>
     <row r="272" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F272" s="32"/>
+      <c r="F272" s="30"/>
     </row>
     <row r="273" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F273" s="32"/>
+      <c r="F273" s="30"/>
     </row>
     <row r="274" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F274" s="32"/>
+      <c r="F274" s="30"/>
     </row>
     <row r="275" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F275" s="32"/>
+      <c r="F275" s="30"/>
     </row>
     <row r="276" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F276" s="32"/>
+      <c r="F276" s="30"/>
     </row>
     <row r="277" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F277" s="32"/>
+      <c r="F277" s="30"/>
     </row>
     <row r="278" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F278" s="32"/>
+      <c r="F278" s="30"/>
     </row>
     <row r="279" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F279" s="32"/>
+      <c r="F279" s="30"/>
     </row>
     <row r="280" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F280" s="32"/>
+      <c r="F280" s="30"/>
     </row>
     <row r="281" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F281" s="32"/>
+      <c r="F281" s="30"/>
     </row>
     <row r="282" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F282" s="32"/>
+      <c r="F282" s="30"/>
     </row>
     <row r="283" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F283" s="32"/>
+      <c r="F283" s="30"/>
     </row>
     <row r="284" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F284" s="32"/>
+      <c r="F284" s="30"/>
     </row>
     <row r="285" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F285" s="32"/>
+      <c r="F285" s="30"/>
     </row>
     <row r="286" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F286" s="32"/>
+      <c r="F286" s="30"/>
     </row>
     <row r="287" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F287" s="32"/>
+      <c r="F287" s="30"/>
     </row>
     <row r="288" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F288" s="32"/>
+      <c r="F288" s="30"/>
     </row>
     <row r="289" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F289" s="32"/>
+      <c r="F289" s="30"/>
     </row>
     <row r="290" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F290" s="32"/>
+      <c r="F290" s="30"/>
     </row>
     <row r="291" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F291" s="32"/>
+      <c r="F291" s="30"/>
     </row>
     <row r="292" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F292" s="32"/>
+      <c r="F292" s="30"/>
     </row>
     <row r="293" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F293" s="32"/>
+      <c r="F293" s="30"/>
     </row>
     <row r="294" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F294" s="32"/>
+      <c r="F294" s="30"/>
     </row>
     <row r="295" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F295" s="32"/>
+      <c r="F295" s="30"/>
     </row>
     <row r="296" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F296" s="32"/>
+      <c r="F296" s="30"/>
     </row>
     <row r="297" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F297" s="32"/>
+      <c r="F297" s="30"/>
     </row>
     <row r="298" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F298" s="32"/>
+      <c r="F298" s="30"/>
     </row>
     <row r="299" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F299" s="32"/>
+      <c r="F299" s="30"/>
     </row>
     <row r="300" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F300" s="32"/>
+      <c r="F300" s="30"/>
     </row>
     <row r="301" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F301" s="32"/>
+      <c r="F301" s="30"/>
     </row>
     <row r="302" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F302" s="32"/>
+      <c r="F302" s="30"/>
     </row>
     <row r="303" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F303" s="32"/>
+      <c r="F303" s="30"/>
     </row>
     <row r="304" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F304" s="32"/>
+      <c r="F304" s="30"/>
     </row>
     <row r="305" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F305" s="32"/>
+      <c r="F305" s="30"/>
     </row>
     <row r="306" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F306" s="32"/>
+      <c r="F306" s="30"/>
     </row>
     <row r="307" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F307" s="32"/>
+      <c r="F307" s="30"/>
     </row>
     <row r="308" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F308" s="32"/>
+      <c r="F308" s="30"/>
     </row>
     <row r="309" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F309" s="32"/>
+      <c r="F309" s="30"/>
     </row>
     <row r="310" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F310" s="32"/>
+      <c r="F310" s="30"/>
     </row>
     <row r="311" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F311" s="32"/>
+      <c r="F311" s="30"/>
     </row>
     <row r="312" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F312" s="32"/>
+      <c r="F312" s="30"/>
     </row>
     <row r="313" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F313" s="32"/>
+      <c r="F313" s="30"/>
     </row>
     <row r="314" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F314" s="32"/>
+      <c r="F314" s="30"/>
     </row>
     <row r="315" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F315" s="32"/>
+      <c r="F315" s="30"/>
     </row>
     <row r="316" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F316" s="32"/>
+      <c r="F316" s="30"/>
     </row>
     <row r="317" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F317" s="32"/>
+      <c r="F317" s="30"/>
     </row>
     <row r="318" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F318" s="32"/>
+      <c r="F318" s="30"/>
     </row>
     <row r="319" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F319" s="32"/>
+      <c r="F319" s="30"/>
     </row>
     <row r="320" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F320" s="32"/>
+      <c r="F320" s="30"/>
     </row>
     <row r="321" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F321" s="32"/>
+      <c r="F321" s="30"/>
     </row>
     <row r="322" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F322" s="32"/>
+      <c r="F322" s="30"/>
     </row>
     <row r="323" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F323" s="32"/>
+      <c r="F323" s="30"/>
     </row>
     <row r="324" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F324" s="32"/>
+      <c r="F324" s="30"/>
     </row>
     <row r="325" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F325" s="32"/>
+      <c r="F325" s="30"/>
     </row>
     <row r="326" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F326" s="32"/>
+      <c r="F326" s="30"/>
     </row>
     <row r="327" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F327" s="32"/>
+      <c r="F327" s="30"/>
     </row>
     <row r="328" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F328" s="32"/>
+      <c r="F328" s="30"/>
     </row>
     <row r="329" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F329" s="32"/>
+      <c r="F329" s="30"/>
     </row>
     <row r="330" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F330" s="32"/>
+      <c r="F330" s="30"/>
     </row>
     <row r="331" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F331" s="32"/>
+      <c r="F331" s="30"/>
     </row>
     <row r="332" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F332" s="32"/>
+      <c r="F332" s="30"/>
     </row>
     <row r="333" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F333" s="32"/>
+      <c r="F333" s="30"/>
     </row>
     <row r="334" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F334" s="32"/>
+      <c r="F334" s="30"/>
     </row>
     <row r="335" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F335" s="32"/>
+      <c r="F335" s="30"/>
     </row>
     <row r="336" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F336" s="32"/>
+      <c r="F336" s="30"/>
     </row>
     <row r="337" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F337" s="32"/>
+      <c r="F337" s="30"/>
     </row>
     <row r="338" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F338" s="32"/>
+      <c r="F338" s="30"/>
     </row>
     <row r="339" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F339" s="32"/>
+      <c r="F339" s="30"/>
     </row>
     <row r="340" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F340" s="32"/>
+      <c r="F340" s="30"/>
     </row>
     <row r="341" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F341" s="32"/>
+      <c r="F341" s="30"/>
     </row>
     <row r="342" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F342" s="32"/>
+      <c r="F342" s="30"/>
     </row>
     <row r="343" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F343" s="32"/>
+      <c r="F343" s="30"/>
     </row>
     <row r="344" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F344" s="32"/>
+      <c r="F344" s="30"/>
     </row>
     <row r="345" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F345" s="32"/>
+      <c r="F345" s="30"/>
     </row>
     <row r="346" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F346" s="32"/>
+      <c r="F346" s="30"/>
     </row>
     <row r="347" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F347" s="32"/>
+      <c r="F347" s="30"/>
     </row>
     <row r="348" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F348" s="32"/>
+      <c r="F348" s="30"/>
     </row>
     <row r="349" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F349" s="32"/>
+      <c r="F349" s="30"/>
     </row>
     <row r="350" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F350" s="32"/>
+      <c r="F350" s="30"/>
     </row>
     <row r="351" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F351" s="32"/>
+      <c r="F351" s="30"/>
     </row>
     <row r="352" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F352" s="32"/>
+      <c r="F352" s="30"/>
     </row>
     <row r="353" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F353" s="32"/>
+      <c r="F353" s="30"/>
     </row>
     <row r="354" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F354" s="32"/>
+      <c r="F354" s="30"/>
     </row>
     <row r="355" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F355" s="32"/>
+      <c r="F355" s="30"/>
     </row>
     <row r="356" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F356" s="32"/>
+      <c r="F356" s="30"/>
     </row>
     <row r="357" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F357" s="32"/>
+      <c r="F357" s="30"/>
     </row>
     <row r="358" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F358" s="32"/>
+      <c r="F358" s="30"/>
     </row>
     <row r="359" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F359" s="32"/>
+      <c r="F359" s="30"/>
     </row>
     <row r="360" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F360" s="32"/>
+      <c r="F360" s="30"/>
     </row>
     <row r="361" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F361" s="32"/>
+      <c r="F361" s="30"/>
     </row>
     <row r="362" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F362" s="32"/>
+      <c r="F362" s="30"/>
     </row>
     <row r="363" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F363" s="32"/>
+      <c r="F363" s="30"/>
     </row>
     <row r="364" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F364" s="32"/>
+      <c r="F364" s="30"/>
     </row>
     <row r="365" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F365" s="32"/>
+      <c r="F365" s="30"/>
     </row>
     <row r="366" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F366" s="32"/>
+      <c r="F366" s="30"/>
     </row>
     <row r="367" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F367" s="32"/>
+      <c r="F367" s="30"/>
     </row>
     <row r="368" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F368" s="32"/>
+      <c r="F368" s="30"/>
     </row>
     <row r="369" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F369" s="32"/>
+      <c r="F369" s="30"/>
     </row>
     <row r="370" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F370" s="32"/>
+      <c r="F370" s="30"/>
     </row>
     <row r="371" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F371" s="32"/>
+      <c r="F371" s="30"/>
     </row>
     <row r="372" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F372" s="32"/>
+      <c r="F372" s="30"/>
     </row>
     <row r="373" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F373" s="32"/>
+      <c r="F373" s="30"/>
     </row>
     <row r="374" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F374" s="32"/>
+      <c r="F374" s="30"/>
     </row>
     <row r="375" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F375" s="32"/>
+      <c r="F375" s="30"/>
     </row>
     <row r="376" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F376" s="32"/>
+      <c r="F376" s="30"/>
     </row>
     <row r="377" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F377" s="32"/>
+      <c r="F377" s="30"/>
     </row>
     <row r="378" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F378" s="32"/>
+      <c r="F378" s="30"/>
     </row>
     <row r="379" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F379" s="32"/>
+      <c r="F379" s="30"/>
     </row>
     <row r="380" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F380" s="32"/>
+      <c r="F380" s="30"/>
     </row>
     <row r="381" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F381" s="32"/>
+      <c r="F381" s="30"/>
     </row>
     <row r="382" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F382" s="32"/>
+      <c r="F382" s="30"/>
     </row>
     <row r="383" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F383" s="32"/>
+      <c r="F383" s="30"/>
     </row>
     <row r="384" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F384" s="32"/>
+      <c r="F384" s="30"/>
     </row>
     <row r="385" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F385" s="32"/>
+      <c r="F385" s="30"/>
     </row>
     <row r="386" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F386" s="32"/>
+      <c r="F386" s="30"/>
     </row>
     <row r="387" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F387" s="32"/>
+      <c r="F387" s="30"/>
     </row>
     <row r="388" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F388" s="32"/>
+      <c r="F388" s="30"/>
     </row>
     <row r="389" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F389" s="32"/>
+      <c r="F389" s="30"/>
     </row>
     <row r="390" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F390" s="32"/>
+      <c r="F390" s="30"/>
     </row>
     <row r="391" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F391" s="32"/>
+      <c r="F391" s="30"/>
     </row>
     <row r="392" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F392" s="32"/>
+      <c r="F392" s="30"/>
     </row>
     <row r="393" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F393" s="32"/>
+      <c r="F393" s="30"/>
     </row>
     <row r="394" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F394" s="32"/>
+      <c r="F394" s="30"/>
     </row>
     <row r="395" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F395" s="32"/>
+      <c r="F395" s="30"/>
     </row>
     <row r="396" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F396" s="32"/>
+      <c r="F396" s="30"/>
     </row>
     <row r="397" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F397" s="32"/>
+      <c r="F397" s="30"/>
     </row>
     <row r="398" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F398" s="32"/>
+      <c r="F398" s="30"/>
     </row>
     <row r="399" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F399" s="32"/>
+      <c r="F399" s="30"/>
     </row>
     <row r="400" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F400" s="32"/>
+      <c r="F400" s="30"/>
     </row>
     <row r="401" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F401" s="32"/>
+      <c r="F401" s="30"/>
     </row>
     <row r="402" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F402" s="32"/>
+      <c r="F402" s="30"/>
     </row>
     <row r="403" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F403" s="32"/>
+      <c r="F403" s="30"/>
     </row>
     <row r="404" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F404" s="32"/>
+      <c r="F404" s="30"/>
     </row>
     <row r="405" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F405" s="32"/>
+      <c r="F405" s="30"/>
     </row>
     <row r="406" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F406" s="32"/>
+      <c r="F406" s="30"/>
     </row>
     <row r="407" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F407" s="32"/>
+      <c r="F407" s="30"/>
     </row>
     <row r="408" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F408" s="32"/>
+      <c r="F408" s="30"/>
     </row>
     <row r="409" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F409" s="32"/>
+      <c r="F409" s="30"/>
     </row>
     <row r="410" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F410" s="32"/>
+      <c r="F410" s="30"/>
     </row>
     <row r="411" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F411" s="32"/>
+      <c r="F411" s="30"/>
     </row>
     <row r="412" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F412" s="32"/>
+      <c r="F412" s="30"/>
     </row>
     <row r="413" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F413" s="32"/>
+      <c r="F413" s="30"/>
     </row>
     <row r="414" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F414" s="32"/>
+      <c r="F414" s="30"/>
     </row>
     <row r="415" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F415" s="32"/>
+      <c r="F415" s="30"/>
     </row>
     <row r="416" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F416" s="32"/>
+      <c r="F416" s="30"/>
     </row>
     <row r="417" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F417" s="32"/>
+      <c r="F417" s="30"/>
     </row>
     <row r="418" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F418" s="32"/>
+      <c r="F418" s="30"/>
     </row>
     <row r="419" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F419" s="32"/>
+      <c r="F419" s="30"/>
     </row>
     <row r="420" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F420" s="32"/>
+      <c r="F420" s="30"/>
     </row>
     <row r="421" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F421" s="32"/>
+      <c r="F421" s="30"/>
     </row>
     <row r="422" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F422" s="32"/>
+      <c r="F422" s="30"/>
     </row>
     <row r="423" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F423" s="32"/>
+      <c r="F423" s="30"/>
     </row>
     <row r="424" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F424" s="32"/>
+      <c r="F424" s="30"/>
     </row>
     <row r="425" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F425" s="32"/>
+      <c r="F425" s="30"/>
     </row>
     <row r="426" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F426" s="32"/>
+      <c r="F426" s="30"/>
     </row>
     <row r="427" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F427" s="32"/>
+      <c r="F427" s="30"/>
     </row>
     <row r="428" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F428" s="32"/>
+      <c r="F428" s="30"/>
     </row>
     <row r="429" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F429" s="32"/>
+      <c r="F429" s="30"/>
     </row>
     <row r="430" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F430" s="32"/>
+      <c r="F430" s="30"/>
     </row>
     <row r="431" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F431" s="32"/>
+      <c r="F431" s="30"/>
     </row>
     <row r="432" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F432" s="32"/>
+      <c r="F432" s="30"/>
     </row>
     <row r="433" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F433" s="32"/>
+      <c r="F433" s="30"/>
     </row>
     <row r="434" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F434" s="32"/>
+      <c r="F434" s="30"/>
     </row>
     <row r="435" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F435" s="32"/>
+      <c r="F435" s="30"/>
     </row>
     <row r="436" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F436" s="32"/>
+      <c r="F436" s="30"/>
     </row>
     <row r="437" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F437" s="32"/>
+      <c r="F437" s="30"/>
     </row>
     <row r="438" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F438" s="32"/>
+      <c r="F438" s="30"/>
     </row>
     <row r="439" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F439" s="32"/>
+      <c r="F439" s="30"/>
     </row>
     <row r="440" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F440" s="32"/>
+      <c r="F440" s="30"/>
     </row>
     <row r="441" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F441" s="32"/>
+      <c r="F441" s="30"/>
     </row>
     <row r="442" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F442" s="32"/>
+      <c r="F442" s="30"/>
     </row>
     <row r="443" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F443" s="32"/>
+      <c r="F443" s="30"/>
     </row>
     <row r="444" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F444" s="32"/>
+      <c r="F444" s="30"/>
     </row>
     <row r="445" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F445" s="32"/>
+      <c r="F445" s="30"/>
     </row>
     <row r="446" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F446" s="32"/>
+      <c r="F446" s="30"/>
     </row>
     <row r="447" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F447" s="32"/>
+      <c r="F447" s="30"/>
     </row>
     <row r="448" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F448" s="32"/>
+      <c r="F448" s="30"/>
     </row>
     <row r="449" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F449" s="32"/>
+      <c r="F449" s="30"/>
     </row>
     <row r="450" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F450" s="32"/>
+      <c r="F450" s="30"/>
     </row>
     <row r="451" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F451" s="32"/>
+      <c r="F451" s="30"/>
     </row>
     <row r="452" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F452" s="32"/>
+      <c r="F452" s="30"/>
     </row>
     <row r="453" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F453" s="32"/>
+      <c r="F453" s="30"/>
     </row>
     <row r="454" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F454" s="32"/>
+      <c r="F454" s="30"/>
     </row>
     <row r="455" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F455" s="32"/>
+      <c r="F455" s="30"/>
     </row>
     <row r="456" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F456" s="32"/>
+      <c r="F456" s="30"/>
     </row>
     <row r="457" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F457" s="32"/>
+      <c r="F457" s="30"/>
     </row>
     <row r="458" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F458" s="32"/>
+      <c r="F458" s="30"/>
     </row>
     <row r="459" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F459" s="32"/>
+      <c r="F459" s="30"/>
     </row>
     <row r="460" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F460" s="32"/>
+      <c r="F460" s="30"/>
     </row>
     <row r="461" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F461" s="32"/>
+      <c r="F461" s="30"/>
     </row>
     <row r="462" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F462" s="32"/>
+      <c r="F462" s="30"/>
     </row>
     <row r="463" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F463" s="32"/>
+      <c r="F463" s="30"/>
     </row>
     <row r="464" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F464" s="32"/>
+      <c r="F464" s="30"/>
     </row>
     <row r="465" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F465" s="32"/>
+      <c r="F465" s="30"/>
     </row>
     <row r="466" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F466" s="32"/>
+      <c r="F466" s="30"/>
     </row>
     <row r="467" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F467" s="32"/>
+      <c r="F467" s="30"/>
     </row>
     <row r="468" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F468" s="32"/>
+      <c r="F468" s="30"/>
     </row>
     <row r="469" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F469" s="32"/>
+      <c r="F469" s="30"/>
     </row>
     <row r="470" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F470" s="32"/>
+      <c r="F470" s="30"/>
     </row>
     <row r="471" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F471" s="32"/>
+      <c r="F471" s="30"/>
     </row>
     <row r="472" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F472" s="32"/>
+      <c r="F472" s="30"/>
     </row>
     <row r="473" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F473" s="32"/>
+      <c r="F473" s="30"/>
     </row>
     <row r="474" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F474" s="32"/>
+      <c r="F474" s="30"/>
     </row>
     <row r="475" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F475" s="32"/>
+      <c r="F475" s="30"/>
     </row>
     <row r="476" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F476" s="32"/>
+      <c r="F476" s="30"/>
     </row>
     <row r="477" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F477" s="32"/>
+      <c r="F477" s="30"/>
     </row>
     <row r="478" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F478" s="32"/>
+      <c r="F478" s="30"/>
     </row>
     <row r="479" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F479" s="32"/>
+      <c r="F479" s="30"/>
     </row>
     <row r="480" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F480" s="32"/>
+      <c r="F480" s="30"/>
     </row>
     <row r="481" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F481" s="32"/>
+      <c r="F481" s="30"/>
     </row>
     <row r="482" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F482" s="32"/>
+      <c r="F482" s="30"/>
     </row>
     <row r="483" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F483" s="32"/>
+      <c r="F483" s="30"/>
     </row>
     <row r="484" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F484" s="32"/>
+      <c r="F484" s="30"/>
     </row>
     <row r="485" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F485" s="32"/>
+      <c r="F485" s="30"/>
     </row>
     <row r="486" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F486" s="32"/>
+      <c r="F486" s="30"/>
     </row>
     <row r="487" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F487" s="32"/>
+      <c r="F487" s="30"/>
     </row>
     <row r="488" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F488" s="32"/>
+      <c r="F488" s="30"/>
     </row>
     <row r="489" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F489" s="32"/>
+      <c r="F489" s="30"/>
     </row>
     <row r="490" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F490" s="32"/>
+      <c r="F490" s="30"/>
     </row>
     <row r="491" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F491" s="32"/>
+      <c r="F491" s="30"/>
     </row>
     <row r="492" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F492" s="32"/>
+      <c r="F492" s="30"/>
     </row>
     <row r="493" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F493" s="32"/>
+      <c r="F493" s="30"/>
     </row>
     <row r="494" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F494" s="32"/>
+      <c r="F494" s="30"/>
     </row>
     <row r="495" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F495" s="32"/>
+      <c r="F495" s="30"/>
     </row>
     <row r="496" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F496" s="32"/>
+      <c r="F496" s="30"/>
     </row>
     <row r="497" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F497" s="32"/>
+      <c r="F497" s="30"/>
     </row>
     <row r="498" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F498" s="32"/>
+      <c r="F498" s="30"/>
     </row>
     <row r="499" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F499" s="32"/>
+      <c r="F499" s="30"/>
     </row>
     <row r="500" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F500" s="32"/>
+      <c r="F500" s="30"/>
     </row>
     <row r="501" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F501" s="32"/>
+      <c r="F501" s="30"/>
     </row>
     <row r="502" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F502" s="32"/>
+      <c r="F502" s="30"/>
     </row>
     <row r="503" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F503" s="32"/>
+      <c r="F503" s="30"/>
     </row>
     <row r="504" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F504" s="32"/>
+      <c r="F504" s="30"/>
     </row>
     <row r="505" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F505" s="32"/>
+      <c r="F505" s="30"/>
     </row>
     <row r="506" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F506" s="32"/>
+      <c r="F506" s="30"/>
     </row>
     <row r="507" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F507" s="32"/>
+      <c r="F507" s="30"/>
     </row>
     <row r="508" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F508" s="32"/>
+      <c r="F508" s="30"/>
     </row>
     <row r="509" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F509" s="32"/>
+      <c r="F509" s="30"/>
     </row>
     <row r="510" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F510" s="32"/>
+      <c r="F510" s="30"/>
     </row>
     <row r="511" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F511" s="32"/>
+      <c r="F511" s="30"/>
     </row>
     <row r="512" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F512" s="32"/>
+      <c r="F512" s="30"/>
     </row>
     <row r="513" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F513" s="32"/>
+      <c r="F513" s="30"/>
     </row>
     <row r="514" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F514" s="32"/>
+      <c r="F514" s="30"/>
     </row>
     <row r="515" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F515" s="32"/>
+      <c r="F515" s="30"/>
     </row>
     <row r="516" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F516" s="32"/>
+      <c r="F516" s="30"/>
     </row>
     <row r="517" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F517" s="32"/>
+      <c r="F517" s="30"/>
     </row>
     <row r="518" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F518" s="32"/>
+      <c r="F518" s="30"/>
     </row>
     <row r="519" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F519" s="32"/>
+      <c r="F519" s="30"/>
     </row>
     <row r="520" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F520" s="32"/>
+      <c r="F520" s="30"/>
     </row>
     <row r="521" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F521" s="32"/>
+      <c r="F521" s="30"/>
     </row>
     <row r="522" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F522" s="32"/>
+      <c r="F522" s="30"/>
     </row>
     <row r="523" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F523" s="32"/>
+      <c r="F523" s="30"/>
     </row>
     <row r="524" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F524" s="32"/>
+      <c r="F524" s="30"/>
     </row>
     <row r="525" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F525" s="32"/>
+      <c r="F525" s="30"/>
     </row>
     <row r="526" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F526" s="32"/>
+      <c r="F526" s="30"/>
     </row>
     <row r="527" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F527" s="32"/>
+      <c r="F527" s="30"/>
     </row>
     <row r="528" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F528" s="32"/>
+      <c r="F528" s="30"/>
     </row>
     <row r="529" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F529" s="32"/>
+      <c r="F529" s="30"/>
     </row>
     <row r="530" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F530" s="32"/>
+      <c r="F530" s="30"/>
     </row>
     <row r="531" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F531" s="32"/>
+      <c r="F531" s="30"/>
     </row>
     <row r="532" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F532" s="32"/>
+      <c r="F532" s="30"/>
     </row>
     <row r="533" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F533" s="32"/>
+      <c r="F533" s="30"/>
     </row>
     <row r="534" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F534" s="32"/>
+      <c r="F534" s="30"/>
     </row>
     <row r="535" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F535" s="32"/>
+      <c r="F535" s="30"/>
     </row>
     <row r="536" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F536" s="32"/>
+      <c r="F536" s="30"/>
     </row>
     <row r="537" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F537" s="32"/>
+      <c r="F537" s="30"/>
     </row>
     <row r="538" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F538" s="32"/>
+      <c r="F538" s="30"/>
     </row>
     <row r="539" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F539" s="32"/>
+      <c r="F539" s="30"/>
     </row>
     <row r="540" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F540" s="32"/>
+      <c r="F540" s="30"/>
     </row>
     <row r="541" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F541" s="32"/>
+      <c r="F541" s="30"/>
     </row>
     <row r="542" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F542" s="32"/>
+      <c r="F542" s="30"/>
     </row>
     <row r="543" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F543" s="32"/>
+      <c r="F543" s="30"/>
     </row>
     <row r="544" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F544" s="32"/>
+      <c r="F544" s="30"/>
     </row>
     <row r="545" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F545" s="32"/>
+      <c r="F545" s="30"/>
     </row>
     <row r="546" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F546" s="32"/>
+      <c r="F546" s="30"/>
     </row>
     <row r="547" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F547" s="32"/>
+      <c r="F547" s="30"/>
     </row>
     <row r="548" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F548" s="32"/>
+      <c r="F548" s="30"/>
     </row>
     <row r="549" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F549" s="32"/>
+      <c r="F549" s="30"/>
     </row>
     <row r="550" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F550" s="32"/>
+      <c r="F550" s="30"/>
     </row>
     <row r="551" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F551" s="32"/>
+      <c r="F551" s="30"/>
     </row>
     <row r="552" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F552" s="32"/>
+      <c r="F552" s="30"/>
     </row>
     <row r="553" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F553" s="32"/>
+      <c r="F553" s="30"/>
     </row>
     <row r="554" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F554" s="32"/>
+      <c r="F554" s="30"/>
     </row>
     <row r="555" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F555" s="32"/>
+      <c r="F555" s="30"/>
     </row>
     <row r="556" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F556" s="32"/>
+      <c r="F556" s="30"/>
     </row>
     <row r="557" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F557" s="32"/>
+      <c r="F557" s="30"/>
     </row>
     <row r="558" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F558" s="32"/>
+      <c r="F558" s="30"/>
     </row>
     <row r="559" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F559" s="32"/>
+      <c r="F559" s="30"/>
     </row>
     <row r="560" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F560" s="32"/>
+      <c r="F560" s="30"/>
     </row>
     <row r="561" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F561" s="32"/>
+      <c r="F561" s="30"/>
     </row>
     <row r="562" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F562" s="32"/>
+      <c r="F562" s="30"/>
     </row>
     <row r="563" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F563" s="32"/>
+      <c r="F563" s="30"/>
     </row>
     <row r="564" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F564" s="32"/>
+      <c r="F564" s="30"/>
     </row>
     <row r="565" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F565" s="32"/>
+      <c r="F565" s="30"/>
     </row>
     <row r="566" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F566" s="32"/>
+      <c r="F566" s="30"/>
     </row>
     <row r="567" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F567" s="32"/>
+      <c r="F567" s="30"/>
     </row>
     <row r="568" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F568" s="32"/>
+      <c r="F568" s="30"/>
     </row>
     <row r="569" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F569" s="32"/>
+      <c r="F569" s="30"/>
     </row>
     <row r="570" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F570" s="32"/>
+      <c r="F570" s="30"/>
     </row>
     <row r="571" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F571" s="32"/>
+      <c r="F571" s="30"/>
     </row>
     <row r="572" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F572" s="32"/>
+      <c r="F572" s="30"/>
     </row>
     <row r="573" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F573" s="32"/>
+      <c r="F573" s="30"/>
     </row>
     <row r="574" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F574" s="32"/>
+      <c r="F574" s="30"/>
     </row>
     <row r="575" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F575" s="32"/>
+      <c r="F575" s="30"/>
     </row>
     <row r="576" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F576" s="32"/>
+      <c r="F576" s="30"/>
     </row>
     <row r="577" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F577" s="32"/>
+      <c r="F577" s="30"/>
     </row>
     <row r="578" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F578" s="32"/>
+      <c r="F578" s="30"/>
     </row>
     <row r="579" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F579" s="32"/>
+      <c r="F579" s="30"/>
     </row>
     <row r="580" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F580" s="32"/>
+      <c r="F580" s="30"/>
     </row>
     <row r="581" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F581" s="32"/>
+      <c r="F581" s="30"/>
     </row>
     <row r="582" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F582" s="32"/>
+      <c r="F582" s="30"/>
     </row>
     <row r="583" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F583" s="32"/>
+      <c r="F583" s="30"/>
     </row>
     <row r="584" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F584" s="32"/>
+      <c r="F584" s="30"/>
     </row>
     <row r="585" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F585" s="32"/>
+      <c r="F585" s="30"/>
     </row>
     <row r="586" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F586" s="32"/>
+      <c r="F586" s="30"/>
     </row>
     <row r="587" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F587" s="32"/>
+      <c r="F587" s="30"/>
     </row>
     <row r="588" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F588" s="32"/>
+      <c r="F588" s="30"/>
     </row>
     <row r="589" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F589" s="32"/>
+      <c r="F589" s="30"/>
     </row>
     <row r="590" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F590" s="32"/>
+      <c r="F590" s="30"/>
     </row>
     <row r="591" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F591" s="32"/>
+      <c r="F591" s="30"/>
     </row>
     <row r="592" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F592" s="32"/>
+      <c r="F592" s="30"/>
     </row>
     <row r="593" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F593" s="32"/>
+      <c r="F593" s="30"/>
     </row>
     <row r="594" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F594" s="32"/>
+      <c r="F594" s="30"/>
     </row>
     <row r="595" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F595" s="32"/>
+      <c r="F595" s="30"/>
     </row>
     <row r="596" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F596" s="32"/>
+      <c r="F596" s="30"/>
     </row>
     <row r="597" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F597" s="32"/>
+      <c r="F597" s="30"/>
     </row>
     <row r="598" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F598" s="32"/>
+      <c r="F598" s="30"/>
     </row>
     <row r="599" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F599" s="32"/>
+      <c r="F599" s="30"/>
     </row>
     <row r="600" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F600" s="32"/>
+      <c r="F600" s="30"/>
     </row>
     <row r="601" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F601" s="32"/>
+      <c r="F601" s="30"/>
     </row>
     <row r="602" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F602" s="32"/>
+      <c r="F602" s="30"/>
     </row>
     <row r="603" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F603" s="32"/>
+      <c r="F603" s="30"/>
     </row>
     <row r="604" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F604" s="32"/>
+      <c r="F604" s="30"/>
     </row>
     <row r="605" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F605" s="32"/>
+      <c r="F605" s="30"/>
     </row>
     <row r="606" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F606" s="32"/>
+      <c r="F606" s="30"/>
     </row>
     <row r="607" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F607" s="32"/>
+      <c r="F607" s="30"/>
     </row>
     <row r="608" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F608" s="32"/>
+      <c r="F608" s="30"/>
     </row>
     <row r="609" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F609" s="32"/>
+      <c r="F609" s="30"/>
     </row>
     <row r="610" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F610" s="32"/>
+      <c r="F610" s="30"/>
     </row>
     <row r="611" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F611" s="32"/>
+      <c r="F611" s="30"/>
     </row>
     <row r="612" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F612" s="32"/>
+      <c r="F612" s="30"/>
     </row>
     <row r="613" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F613" s="32"/>
+      <c r="F613" s="30"/>
     </row>
     <row r="614" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F614" s="32"/>
+      <c r="F614" s="30"/>
     </row>
     <row r="615" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F615" s="32"/>
+      <c r="F615" s="30"/>
     </row>
     <row r="616" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F616" s="32"/>
+      <c r="F616" s="30"/>
     </row>
     <row r="617" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F617" s="32"/>
+      <c r="F617" s="30"/>
     </row>
     <row r="618" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F618" s="32"/>
+      <c r="F618" s="30"/>
     </row>
     <row r="619" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F619" s="32"/>
+      <c r="F619" s="30"/>
     </row>
     <row r="620" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F620" s="32"/>
+      <c r="F620" s="30"/>
     </row>
     <row r="621" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F621" s="32"/>
+      <c r="F621" s="30"/>
     </row>
     <row r="622" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F622" s="32"/>
+      <c r="F622" s="30"/>
     </row>
     <row r="623" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F623" s="32"/>
+      <c r="F623" s="30"/>
     </row>
     <row r="624" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F624" s="32"/>
+      <c r="F624" s="30"/>
     </row>
     <row r="625" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F625" s="32"/>
+      <c r="F625" s="30"/>
     </row>
     <row r="626" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F626" s="32"/>
+      <c r="F626" s="30"/>
     </row>
     <row r="627" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F627" s="32"/>
+      <c r="F627" s="30"/>
     </row>
     <row r="628" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F628" s="32"/>
+      <c r="F628" s="30"/>
     </row>
     <row r="629" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F629" s="32"/>
+      <c r="F629" s="30"/>
     </row>
     <row r="630" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F630" s="32"/>
+      <c r="F630" s="30"/>
     </row>
     <row r="631" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F631" s="32"/>
+      <c r="F631" s="30"/>
     </row>
     <row r="632" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F632" s="32"/>
+      <c r="F632" s="30"/>
     </row>
     <row r="633" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F633" s="32"/>
+      <c r="F633" s="30"/>
     </row>
     <row r="634" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F634" s="32"/>
+      <c r="F634" s="30"/>
     </row>
     <row r="635" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F635" s="32"/>
+      <c r="F635" s="30"/>
     </row>
     <row r="636" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F636" s="32"/>
+      <c r="F636" s="30"/>
     </row>
     <row r="637" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F637" s="32"/>
+      <c r="F637" s="30"/>
     </row>
     <row r="638" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F638" s="32"/>
+      <c r="F638" s="30"/>
     </row>
     <row r="639" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F639" s="32"/>
+      <c r="F639" s="30"/>
     </row>
     <row r="640" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F640" s="32"/>
+      <c r="F640" s="30"/>
     </row>
     <row r="641" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F641" s="32"/>
+      <c r="F641" s="30"/>
     </row>
     <row r="642" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F642" s="32"/>
+      <c r="F642" s="30"/>
     </row>
     <row r="643" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F643" s="32"/>
+      <c r="F643" s="30"/>
     </row>
     <row r="644" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F644" s="32"/>
+      <c r="F644" s="30"/>
     </row>
     <row r="645" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F645" s="32"/>
+      <c r="F645" s="30"/>
     </row>
     <row r="646" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F646" s="32"/>
+      <c r="F646" s="30"/>
     </row>
     <row r="647" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F647" s="32"/>
+      <c r="F647" s="30"/>
     </row>
     <row r="648" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F648" s="32"/>
+      <c r="F648" s="30"/>
     </row>
     <row r="649" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F649" s="32"/>
+      <c r="F649" s="30"/>
     </row>
     <row r="650" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F650" s="32"/>
+      <c r="F650" s="30"/>
     </row>
     <row r="651" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F651" s="32"/>
+      <c r="F651" s="30"/>
     </row>
     <row r="652" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F652" s="32"/>
+      <c r="F652" s="30"/>
     </row>
     <row r="653" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F653" s="32"/>
+      <c r="F653" s="30"/>
     </row>
     <row r="654" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F654" s="32"/>
+      <c r="F654" s="30"/>
     </row>
     <row r="655" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F655" s="32"/>
+      <c r="F655" s="30"/>
     </row>
     <row r="656" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F656" s="32"/>
+      <c r="F656" s="30"/>
     </row>
     <row r="657" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F657" s="32"/>
+      <c r="F657" s="30"/>
     </row>
     <row r="658" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F658" s="32"/>
+      <c r="F658" s="30"/>
     </row>
     <row r="659" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F659" s="32"/>
+      <c r="F659" s="30"/>
     </row>
     <row r="660" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F660" s="32"/>
+      <c r="F660" s="30"/>
     </row>
     <row r="661" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F661" s="32"/>
+      <c r="F661" s="30"/>
     </row>
     <row r="662" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F662" s="32"/>
+      <c r="F662" s="30"/>
     </row>
     <row r="663" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F663" s="32"/>
+      <c r="F663" s="30"/>
     </row>
     <row r="664" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F664" s="32"/>
+      <c r="F664" s="30"/>
     </row>
     <row r="665" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F665" s="32"/>
+      <c r="F665" s="30"/>
     </row>
     <row r="666" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F666" s="32"/>
+      <c r="F666" s="30"/>
     </row>
     <row r="667" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F667" s="32"/>
+      <c r="F667" s="30"/>
     </row>
     <row r="668" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F668" s="32"/>
+      <c r="F668" s="30"/>
     </row>
     <row r="669" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F669" s="32"/>
+      <c r="F669" s="30"/>
     </row>
     <row r="670" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F670" s="32"/>
+      <c r="F670" s="30"/>
     </row>
     <row r="671" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F671" s="32"/>
+      <c r="F671" s="30"/>
     </row>
     <row r="672" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F672" s="32"/>
+      <c r="F672" s="30"/>
     </row>
     <row r="673" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F673" s="32"/>
+      <c r="F673" s="30"/>
     </row>
     <row r="674" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F674" s="32"/>
+      <c r="F674" s="30"/>
     </row>
     <row r="675" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F675" s="32"/>
+      <c r="F675" s="30"/>
     </row>
     <row r="676" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F676" s="32"/>
+      <c r="F676" s="30"/>
     </row>
     <row r="677" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F677" s="32"/>
+      <c r="F677" s="30"/>
     </row>
     <row r="678" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F678" s="32"/>
+      <c r="F678" s="30"/>
     </row>
     <row r="679" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F679" s="32"/>
+      <c r="F679" s="30"/>
     </row>
     <row r="680" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F680" s="32"/>
+      <c r="F680" s="30"/>
     </row>
     <row r="681" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F681" s="32"/>
+      <c r="F681" s="30"/>
     </row>
     <row r="682" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F682" s="32"/>
+      <c r="F682" s="30"/>
     </row>
     <row r="683" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F683" s="32"/>
+      <c r="F683" s="30"/>
     </row>
     <row r="684" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F684" s="32"/>
+      <c r="F684" s="30"/>
     </row>
     <row r="685" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F685" s="32"/>
+      <c r="F685" s="30"/>
     </row>
     <row r="686" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F686" s="32"/>
+      <c r="F686" s="30"/>
     </row>
     <row r="687" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F687" s="32"/>
+      <c r="F687" s="30"/>
     </row>
     <row r="688" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F688" s="32"/>
+      <c r="F688" s="30"/>
     </row>
     <row r="689" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F689" s="32"/>
+      <c r="F689" s="30"/>
     </row>
     <row r="690" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F690" s="32"/>
+      <c r="F690" s="30"/>
     </row>
     <row r="691" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F691" s="32"/>
+      <c r="F691" s="30"/>
     </row>
     <row r="692" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F692" s="32"/>
+      <c r="F692" s="30"/>
     </row>
     <row r="693" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F693" s="32"/>
+      <c r="F693" s="30"/>
     </row>
     <row r="694" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F694" s="32"/>
+      <c r="F694" s="30"/>
     </row>
     <row r="695" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F695" s="32"/>
+      <c r="F695" s="30"/>
     </row>
     <row r="696" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F696" s="32"/>
+      <c r="F696" s="30"/>
     </row>
     <row r="697" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F697" s="32"/>
+      <c r="F697" s="30"/>
     </row>
     <row r="698" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F698" s="32"/>
+      <c r="F698" s="30"/>
     </row>
     <row r="699" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F699" s="32"/>
+      <c r="F699" s="30"/>
     </row>
     <row r="700" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F700" s="32"/>
+      <c r="F700" s="30"/>
     </row>
     <row r="701" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F701" s="32"/>
+      <c r="F701" s="30"/>
     </row>
     <row r="702" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F702" s="32"/>
+      <c r="F702" s="30"/>
     </row>
     <row r="703" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F703" s="32"/>
+      <c r="F703" s="30"/>
     </row>
     <row r="704" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F704" s="32"/>
+      <c r="F704" s="30"/>
     </row>
     <row r="705" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F705" s="32"/>
+      <c r="F705" s="30"/>
     </row>
     <row r="706" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F706" s="32"/>
+      <c r="F706" s="30"/>
     </row>
     <row r="707" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F707" s="32"/>
+      <c r="F707" s="30"/>
     </row>
     <row r="708" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F708" s="32"/>
+      <c r="F708" s="30"/>
     </row>
     <row r="709" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F709" s="32"/>
+      <c r="F709" s="30"/>
     </row>
     <row r="710" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F710" s="32"/>
+      <c r="F710" s="30"/>
     </row>
     <row r="711" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F711" s="32"/>
+      <c r="F711" s="30"/>
     </row>
     <row r="712" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F712" s="32"/>
+      <c r="F712" s="30"/>
     </row>
     <row r="713" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F713" s="32"/>
+      <c r="F713" s="30"/>
     </row>
     <row r="714" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F714" s="32"/>
+      <c r="F714" s="30"/>
     </row>
     <row r="715" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F715" s="32"/>
+      <c r="F715" s="30"/>
     </row>
     <row r="716" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F716" s="32"/>
+      <c r="F716" s="30"/>
     </row>
     <row r="717" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F717" s="32"/>
+      <c r="F717" s="30"/>
     </row>
     <row r="718" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F718" s="32"/>
+      <c r="F718" s="30"/>
     </row>
     <row r="719" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F719" s="32"/>
+      <c r="F719" s="30"/>
     </row>
     <row r="720" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F720" s="32"/>
+      <c r="F720" s="30"/>
     </row>
     <row r="721" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F721" s="32"/>
+      <c r="F721" s="30"/>
     </row>
     <row r="722" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F722" s="32"/>
+      <c r="F722" s="30"/>
     </row>
     <row r="723" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F723" s="32"/>
+      <c r="F723" s="30"/>
     </row>
     <row r="724" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F724" s="32"/>
+      <c r="F724" s="30"/>
     </row>
     <row r="725" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F725" s="32"/>
+      <c r="F725" s="30"/>
     </row>
     <row r="726" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F726" s="32"/>
+      <c r="F726" s="30"/>
     </row>
     <row r="727" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F727" s="32"/>
+      <c r="F727" s="30"/>
     </row>
     <row r="728" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F728" s="32"/>
+      <c r="F728" s="30"/>
     </row>
     <row r="729" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F729" s="32"/>
+      <c r="F729" s="30"/>
     </row>
     <row r="730" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F730" s="32"/>
+      <c r="F730" s="30"/>
     </row>
     <row r="731" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F731" s="32"/>
+      <c r="F731" s="30"/>
     </row>
     <row r="732" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F732" s="32"/>
+      <c r="F732" s="30"/>
     </row>
     <row r="733" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F733" s="32"/>
+      <c r="F733" s="30"/>
     </row>
     <row r="734" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F734" s="32"/>
+      <c r="F734" s="30"/>
     </row>
     <row r="735" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F735" s="32"/>
+      <c r="F735" s="30"/>
     </row>
     <row r="736" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F736" s="32"/>
+      <c r="F736" s="30"/>
     </row>
     <row r="737" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F737" s="32"/>
+      <c r="F737" s="30"/>
     </row>
     <row r="738" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F738" s="32"/>
+      <c r="F738" s="30"/>
     </row>
     <row r="739" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F739" s="32"/>
+      <c r="F739" s="30"/>
     </row>
     <row r="740" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F740" s="32"/>
+      <c r="F740" s="30"/>
     </row>
     <row r="741" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F741" s="32"/>
+      <c r="F741" s="30"/>
     </row>
     <row r="742" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F742" s="32"/>
+      <c r="F742" s="30"/>
     </row>
     <row r="743" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F743" s="32"/>
+      <c r="F743" s="30"/>
     </row>
     <row r="744" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F744" s="32"/>
+      <c r="F744" s="30"/>
     </row>
     <row r="745" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F745" s="32"/>
+      <c r="F745" s="30"/>
     </row>
     <row r="746" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F746" s="32"/>
+      <c r="F746" s="30"/>
     </row>
     <row r="747" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F747" s="32"/>
+      <c r="F747" s="30"/>
     </row>
     <row r="748" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F748" s="32"/>
+      <c r="F748" s="30"/>
     </row>
     <row r="749" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F749" s="32"/>
+      <c r="F749" s="30"/>
     </row>
     <row r="750" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F750" s="32"/>
+      <c r="F750" s="30"/>
     </row>
     <row r="751" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F751" s="32"/>
+      <c r="F751" s="30"/>
     </row>
     <row r="752" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F752" s="32"/>
+      <c r="F752" s="30"/>
     </row>
     <row r="753" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F753" s="32"/>
+      <c r="F753" s="30"/>
     </row>
     <row r="754" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F754" s="32"/>
+      <c r="F754" s="30"/>
     </row>
     <row r="755" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F755" s="32"/>
+      <c r="F755" s="30"/>
     </row>
     <row r="756" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F756" s="32"/>
+      <c r="F756" s="30"/>
     </row>
     <row r="757" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F757" s="32"/>
+      <c r="F757" s="30"/>
     </row>
     <row r="758" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F758" s="32"/>
+      <c r="F758" s="30"/>
     </row>
     <row r="759" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F759" s="32"/>
+      <c r="F759" s="30"/>
     </row>
     <row r="760" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F760" s="32"/>
+      <c r="F760" s="30"/>
     </row>
     <row r="761" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F761" s="32"/>
+      <c r="F761" s="30"/>
     </row>
     <row r="762" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F762" s="32"/>
+      <c r="F762" s="30"/>
     </row>
     <row r="763" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F763" s="32"/>
+      <c r="F763" s="30"/>
     </row>
     <row r="764" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F764" s="32"/>
+      <c r="F764" s="30"/>
     </row>
     <row r="765" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F765" s="32"/>
+      <c r="F765" s="30"/>
     </row>
     <row r="766" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F766" s="32"/>
+      <c r="F766" s="30"/>
     </row>
     <row r="767" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F767" s="32"/>
+      <c r="F767" s="30"/>
     </row>
     <row r="768" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F768" s="32"/>
+      <c r="F768" s="30"/>
     </row>
     <row r="769" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F769" s="32"/>
+      <c r="F769" s="30"/>
     </row>
     <row r="770" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F770" s="32"/>
+      <c r="F770" s="30"/>
     </row>
     <row r="771" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F771" s="32"/>
+      <c r="F771" s="30"/>
     </row>
     <row r="772" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F772" s="32"/>
+      <c r="F772" s="30"/>
     </row>
     <row r="773" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F773" s="32"/>
+      <c r="F773" s="30"/>
     </row>
     <row r="774" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F774" s="32"/>
+      <c r="F774" s="30"/>
     </row>
     <row r="775" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F775" s="32"/>
+      <c r="F775" s="30"/>
     </row>
     <row r="776" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F776" s="32"/>
+      <c r="F776" s="30"/>
     </row>
     <row r="777" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F777" s="32"/>
+      <c r="F777" s="30"/>
     </row>
     <row r="778" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F778" s="32"/>
+      <c r="F778" s="30"/>
     </row>
     <row r="779" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F779" s="32"/>
+      <c r="F779" s="30"/>
     </row>
     <row r="780" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F780" s="32"/>
+      <c r="F780" s="30"/>
     </row>
     <row r="781" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F781" s="32"/>
+      <c r="F781" s="30"/>
     </row>
     <row r="782" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F782" s="32"/>
+      <c r="F782" s="30"/>
     </row>
     <row r="783" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F783" s="32"/>
+      <c r="F783" s="30"/>
     </row>
     <row r="784" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F784" s="32"/>
+      <c r="F784" s="30"/>
     </row>
     <row r="785" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F785" s="32"/>
+      <c r="F785" s="30"/>
     </row>
     <row r="786" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F786" s="32"/>
+      <c r="F786" s="30"/>
     </row>
     <row r="787" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F787" s="32"/>
+      <c r="F787" s="30"/>
     </row>
     <row r="788" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F788" s="32"/>
+      <c r="F788" s="30"/>
     </row>
     <row r="789" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F789" s="32"/>
+      <c r="F789" s="30"/>
     </row>
     <row r="790" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F790" s="32"/>
+      <c r="F790" s="30"/>
     </row>
     <row r="791" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F791" s="32"/>
+      <c r="F791" s="30"/>
     </row>
     <row r="792" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F792" s="32"/>
+      <c r="F792" s="30"/>
     </row>
     <row r="793" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F793" s="32"/>
+      <c r="F793" s="30"/>
     </row>
     <row r="794" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F794" s="32"/>
+      <c r="F794" s="30"/>
     </row>
     <row r="795" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F795" s="32"/>
+      <c r="F795" s="30"/>
     </row>
     <row r="796" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F796" s="32"/>
+      <c r="F796" s="30"/>
     </row>
     <row r="797" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F797" s="32"/>
+      <c r="F797" s="30"/>
     </row>
     <row r="798" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F798" s="32"/>
+      <c r="F798" s="30"/>
     </row>
     <row r="799" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F799" s="32"/>
+      <c r="F799" s="30"/>
     </row>
     <row r="800" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F800" s="32"/>
+      <c r="F800" s="30"/>
     </row>
     <row r="801" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F801" s="32"/>
+      <c r="F801" s="30"/>
     </row>
     <row r="802" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F802" s="32"/>
+      <c r="F802" s="30"/>
     </row>
     <row r="803" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F803" s="32"/>
+      <c r="F803" s="30"/>
     </row>
     <row r="804" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F804" s="32"/>
+      <c r="F804" s="30"/>
     </row>
     <row r="805" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F805" s="32"/>
+      <c r="F805" s="30"/>
     </row>
     <row r="806" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F806" s="32"/>
+      <c r="F806" s="30"/>
     </row>
     <row r="807" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F807" s="32"/>
+      <c r="F807" s="30"/>
     </row>
     <row r="808" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F808" s="32"/>
+      <c r="F808" s="30"/>
     </row>
     <row r="809" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F809" s="32"/>
+      <c r="F809" s="30"/>
     </row>
     <row r="810" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F810" s="32"/>
+      <c r="F810" s="30"/>
     </row>
     <row r="811" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F811" s="32"/>
+      <c r="F811" s="30"/>
     </row>
     <row r="812" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F812" s="32"/>
+      <c r="F812" s="30"/>
     </row>
     <row r="813" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F813" s="32"/>
+      <c r="F813" s="30"/>
     </row>
     <row r="814" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F814" s="32"/>
+      <c r="F814" s="30"/>
     </row>
     <row r="815" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F815" s="32"/>
+      <c r="F815" s="30"/>
     </row>
     <row r="816" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F816" s="32"/>
+      <c r="F816" s="30"/>
     </row>
     <row r="817" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F817" s="32"/>
+      <c r="F817" s="30"/>
     </row>
     <row r="818" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F818" s="32"/>
+      <c r="F818" s="30"/>
     </row>
     <row r="819" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F819" s="32"/>
+      <c r="F819" s="30"/>
     </row>
     <row r="820" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F820" s="32"/>
+      <c r="F820" s="30"/>
     </row>
     <row r="821" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F821" s="32"/>
+      <c r="F821" s="30"/>
     </row>
     <row r="822" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F822" s="32"/>
+      <c r="F822" s="30"/>
     </row>
     <row r="823" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F823" s="32"/>
+      <c r="F823" s="30"/>
     </row>
     <row r="824" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F824" s="32"/>
+      <c r="F824" s="30"/>
     </row>
     <row r="825" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F825" s="32"/>
+      <c r="F825" s="30"/>
     </row>
     <row r="826" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F826" s="32"/>
+      <c r="F826" s="30"/>
     </row>
     <row r="827" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F827" s="32"/>
+      <c r="F827" s="30"/>
     </row>
     <row r="828" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F828" s="32"/>
+      <c r="F828" s="30"/>
     </row>
     <row r="829" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F829" s="32"/>
+      <c r="F829" s="30"/>
     </row>
     <row r="830" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F830" s="32"/>
+      <c r="F830" s="30"/>
     </row>
     <row r="831" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F831" s="32"/>
+      <c r="F831" s="30"/>
     </row>
     <row r="832" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F832" s="32"/>
+      <c r="F832" s="30"/>
     </row>
     <row r="833" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F833" s="32"/>
+      <c r="F833" s="30"/>
     </row>
     <row r="834" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F834" s="32"/>
+      <c r="F834" s="30"/>
     </row>
     <row r="835" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F835" s="32"/>
+      <c r="F835" s="30"/>
     </row>
     <row r="836" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F836" s="32"/>
+      <c r="F836" s="30"/>
     </row>
     <row r="837" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F837" s="32"/>
+      <c r="F837" s="30"/>
     </row>
     <row r="838" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F838" s="32"/>
+      <c r="F838" s="30"/>
     </row>
     <row r="839" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F839" s="32"/>
+      <c r="F839" s="30"/>
     </row>
     <row r="840" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F840" s="32"/>
+      <c r="F840" s="30"/>
     </row>
     <row r="841" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F841" s="32"/>
+      <c r="F841" s="30"/>
     </row>
     <row r="842" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F842" s="32"/>
+      <c r="F842" s="30"/>
     </row>
     <row r="843" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F843" s="32"/>
+      <c r="F843" s="30"/>
     </row>
     <row r="844" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F844" s="32"/>
+      <c r="F844" s="30"/>
     </row>
     <row r="845" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F845" s="32"/>
+      <c r="F845" s="30"/>
     </row>
     <row r="846" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F846" s="32"/>
+      <c r="F846" s="30"/>
     </row>
     <row r="847" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F847" s="32"/>
+      <c r="F847" s="30"/>
     </row>
     <row r="848" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F848" s="32"/>
+      <c r="F848" s="30"/>
     </row>
     <row r="849" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F849" s="32"/>
+      <c r="F849" s="30"/>
     </row>
     <row r="850" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F850" s="32"/>
+      <c r="F850" s="30"/>
     </row>
     <row r="851" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F851" s="32"/>
+      <c r="F851" s="30"/>
     </row>
     <row r="852" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F852" s="32"/>
+      <c r="F852" s="30"/>
     </row>
     <row r="853" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F853" s="32"/>
+      <c r="F853" s="30"/>
     </row>
     <row r="854" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F854" s="32"/>
+      <c r="F854" s="30"/>
     </row>
     <row r="855" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F855" s="32"/>
+      <c r="F855" s="30"/>
     </row>
     <row r="856" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F856" s="32"/>
+      <c r="F856" s="30"/>
     </row>
     <row r="857" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F857" s="32"/>
+      <c r="F857" s="30"/>
     </row>
     <row r="858" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F858" s="32"/>
+      <c r="F858" s="30"/>
     </row>
     <row r="859" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F859" s="32"/>
+      <c r="F859" s="30"/>
     </row>
     <row r="860" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F860" s="32"/>
+      <c r="F860" s="30"/>
     </row>
     <row r="861" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F861" s="32"/>
+      <c r="F861" s="30"/>
     </row>
     <row r="862" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F862" s="32"/>
+      <c r="F862" s="30"/>
     </row>
     <row r="863" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F863" s="32"/>
+      <c r="F863" s="30"/>
     </row>
     <row r="864" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F864" s="32"/>
+      <c r="F864" s="30"/>
     </row>
     <row r="865" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F865" s="32"/>
+      <c r="F865" s="30"/>
     </row>
     <row r="866" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F866" s="32"/>
+      <c r="F866" s="30"/>
     </row>
     <row r="867" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F867" s="32"/>
+      <c r="F867" s="30"/>
     </row>
     <row r="868" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F868" s="32"/>
+      <c r="F868" s="30"/>
     </row>
     <row r="869" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F869" s="32"/>
+      <c r="F869" s="30"/>
     </row>
     <row r="870" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F870" s="32"/>
+      <c r="F870" s="30"/>
     </row>
     <row r="871" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F871" s="32"/>
+      <c r="F871" s="30"/>
     </row>
     <row r="872" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F872" s="32"/>
+      <c r="F872" s="30"/>
     </row>
     <row r="873" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F873" s="32"/>
+      <c r="F873" s="30"/>
     </row>
     <row r="874" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F874" s="32"/>
+      <c r="F874" s="30"/>
     </row>
     <row r="875" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F875" s="32"/>
+      <c r="F875" s="30"/>
     </row>
     <row r="876" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F876" s="32"/>
+      <c r="F876" s="30"/>
     </row>
     <row r="877" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F877" s="32"/>
+      <c r="F877" s="30"/>
     </row>
     <row r="878" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F878" s="32"/>
+      <c r="F878" s="30"/>
     </row>
     <row r="879" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F879" s="32"/>
+      <c r="F879" s="30"/>
     </row>
     <row r="880" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F880" s="32"/>
+      <c r="F880" s="30"/>
     </row>
     <row r="881" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F881" s="32"/>
+      <c r="F881" s="30"/>
     </row>
     <row r="882" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F882" s="32"/>
+      <c r="F882" s="30"/>
     </row>
     <row r="883" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F883" s="32"/>
+      <c r="F883" s="30"/>
     </row>
     <row r="884" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F884" s="32"/>
+      <c r="F884" s="30"/>
     </row>
     <row r="885" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F885" s="32"/>
+      <c r="F885" s="30"/>
     </row>
     <row r="886" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F886" s="32"/>
+      <c r="F886" s="30"/>
     </row>
     <row r="887" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F887" s="32"/>
+      <c r="F887" s="30"/>
     </row>
     <row r="888" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F888" s="32"/>
+      <c r="F888" s="30"/>
     </row>
     <row r="889" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F889" s="32"/>
+      <c r="F889" s="30"/>
     </row>
     <row r="890" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F890" s="32"/>
+      <c r="F890" s="30"/>
     </row>
     <row r="891" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F891" s="32"/>
+      <c r="F891" s="30"/>
     </row>
     <row r="892" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F892" s="32"/>
+      <c r="F892" s="30"/>
     </row>
     <row r="893" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F893" s="32"/>
+      <c r="F893" s="30"/>
     </row>
     <row r="894" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F894" s="32"/>
+      <c r="F894" s="30"/>
     </row>
     <row r="895" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F895" s="32"/>
+      <c r="F895" s="30"/>
     </row>
     <row r="896" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F896" s="32"/>
+      <c r="F896" s="30"/>
     </row>
     <row r="897" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F897" s="32"/>
+      <c r="F897" s="30"/>
     </row>
     <row r="898" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F898" s="32"/>
+      <c r="F898" s="30"/>
     </row>
     <row r="899" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F899" s="32"/>
+      <c r="F899" s="30"/>
     </row>
     <row r="900" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F900" s="32"/>
+      <c r="F900" s="30"/>
     </row>
     <row r="901" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F901" s="32"/>
+      <c r="F901" s="30"/>
     </row>
     <row r="902" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F902" s="32"/>
+      <c r="F902" s="30"/>
     </row>
     <row r="903" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F903" s="32"/>
+      <c r="F903" s="30"/>
     </row>
     <row r="904" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F904" s="32"/>
+      <c r="F904" s="30"/>
     </row>
     <row r="905" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F905" s="32"/>
+      <c r="F905" s="30"/>
     </row>
     <row r="906" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F906" s="32"/>
+      <c r="F906" s="30"/>
     </row>
     <row r="907" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F907" s="32"/>
+      <c r="F907" s="30"/>
     </row>
     <row r="908" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F908" s="32"/>
+      <c r="F908" s="30"/>
     </row>
     <row r="909" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F909" s="32"/>
+      <c r="F909" s="30"/>
     </row>
     <row r="910" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F910" s="32"/>
+      <c r="F910" s="30"/>
     </row>
     <row r="911" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F911" s="32"/>
+      <c r="F911" s="30"/>
     </row>
     <row r="912" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F912" s="32"/>
+      <c r="F912" s="30"/>
     </row>
     <row r="913" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F913" s="32"/>
+      <c r="F913" s="30"/>
     </row>
     <row r="914" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F914" s="32"/>
+      <c r="F914" s="30"/>
     </row>
     <row r="915" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F915" s="32"/>
+      <c r="F915" s="30"/>
     </row>
     <row r="916" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F916" s="32"/>
+      <c r="F916" s="30"/>
     </row>
     <row r="917" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F917" s="32"/>
+      <c r="F917" s="30"/>
     </row>
     <row r="918" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F918" s="32"/>
+      <c r="F918" s="30"/>
     </row>
     <row r="919" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F919" s="32"/>
+      <c r="F919" s="30"/>
     </row>
     <row r="920" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F920" s="32"/>
+      <c r="F920" s="30"/>
     </row>
     <row r="921" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F921" s="32"/>
+      <c r="F921" s="30"/>
     </row>
     <row r="922" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F922" s="32"/>
+      <c r="F922" s="30"/>
     </row>
     <row r="923" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F923" s="32"/>
+      <c r="F923" s="30"/>
     </row>
     <row r="924" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F924" s="32"/>
+      <c r="F924" s="30"/>
     </row>
     <row r="925" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F925" s="32"/>
+      <c r="F925" s="30"/>
     </row>
     <row r="926" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F926" s="32"/>
+      <c r="F926" s="30"/>
     </row>
     <row r="927" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F927" s="32"/>
+      <c r="F927" s="30"/>
     </row>
     <row r="928" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F928" s="32"/>
+      <c r="F928" s="30"/>
     </row>
     <row r="929" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F929" s="32"/>
+      <c r="F929" s="30"/>
     </row>
     <row r="930" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F930" s="32"/>
+      <c r="F930" s="30"/>
     </row>
     <row r="931" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F931" s="32"/>
+      <c r="F931" s="30"/>
     </row>
     <row r="932" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F932" s="32"/>
+      <c r="F932" s="30"/>
     </row>
     <row r="933" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F933" s="32"/>
+      <c r="F933" s="30"/>
     </row>
     <row r="934" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F934" s="32"/>
+      <c r="F934" s="30"/>
     </row>
     <row r="935" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F935" s="32"/>
+      <c r="F935" s="30"/>
     </row>
     <row r="936" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F936" s="32"/>
+      <c r="F936" s="30"/>
     </row>
     <row r="937" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F937" s="32"/>
+      <c r="F937" s="30"/>
     </row>
     <row r="938" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F938" s="32"/>
+      <c r="F938" s="30"/>
     </row>
     <row r="939" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F939" s="32"/>
+      <c r="F939" s="30"/>
     </row>
     <row r="940" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F940" s="32"/>
+      <c r="F940" s="30"/>
     </row>
     <row r="941" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F941" s="32"/>
+      <c r="F941" s="30"/>
     </row>
     <row r="942" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F942" s="32"/>
+      <c r="F942" s="30"/>
     </row>
     <row r="943" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F943" s="32"/>
+      <c r="F943" s="30"/>
     </row>
     <row r="944" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F944" s="32"/>
+      <c r="F944" s="30"/>
     </row>
     <row r="945" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F945" s="32"/>
+      <c r="F945" s="30"/>
     </row>
     <row r="946" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F946" s="32"/>
+      <c r="F946" s="30"/>
     </row>
     <row r="947" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F947" s="32"/>
+      <c r="F947" s="30"/>
     </row>
     <row r="948" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F948" s="32"/>
+      <c r="F948" s="30"/>
     </row>
     <row r="949" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F949" s="32"/>
+      <c r="F949" s="30"/>
     </row>
     <row r="950" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F950" s="32"/>
+      <c r="F950" s="30"/>
     </row>
     <row r="951" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F951" s="32"/>
+      <c r="F951" s="30"/>
     </row>
     <row r="952" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F952" s="32"/>
+      <c r="F952" s="30"/>
     </row>
     <row r="953" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F953" s="32"/>
+      <c r="F953" s="30"/>
     </row>
     <row r="954" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F954" s="32"/>
+      <c r="F954" s="30"/>
     </row>
     <row r="955" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F955" s="32"/>
+      <c r="F955" s="30"/>
     </row>
     <row r="956" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F956" s="32"/>
+      <c r="F956" s="30"/>
     </row>
     <row r="957" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F957" s="32"/>
+      <c r="F957" s="30"/>
     </row>
     <row r="958" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F958" s="32"/>
+      <c r="F958" s="30"/>
     </row>
     <row r="959" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F959" s="32"/>
+      <c r="F959" s="30"/>
     </row>
     <row r="960" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F960" s="32"/>
+      <c r="F960" s="30"/>
     </row>
     <row r="961" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F961" s="32"/>
+      <c r="F961" s="30"/>
     </row>
     <row r="962" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F962" s="32"/>
+      <c r="F962" s="30"/>
     </row>
     <row r="963" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F963" s="32"/>
+      <c r="F963" s="30"/>
     </row>
     <row r="964" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F964" s="32"/>
+      <c r="F964" s="30"/>
     </row>
     <row r="965" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F965" s="32"/>
+      <c r="F965" s="30"/>
     </row>
     <row r="966" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F966" s="32"/>
+      <c r="F966" s="30"/>
     </row>
     <row r="967" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F967" s="32"/>
+      <c r="F967" s="30"/>
     </row>
     <row r="968" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F968" s="32"/>
+      <c r="F968" s="30"/>
     </row>
     <row r="969" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F969" s="32"/>
+      <c r="F969" s="30"/>
     </row>
     <row r="970" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F970" s="32"/>
+      <c r="F970" s="30"/>
     </row>
     <row r="971" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F971" s="32"/>
+      <c r="F971" s="30"/>
     </row>
     <row r="972" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F972" s="32"/>
+      <c r="F972" s="30"/>
     </row>
     <row r="973" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F973" s="32"/>
+      <c r="F973" s="30"/>
     </row>
     <row r="974" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F974" s="32"/>
+      <c r="F974" s="30"/>
     </row>
     <row r="975" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F975" s="32"/>
+      <c r="F975" s="30"/>
     </row>
     <row r="976" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F976" s="32"/>
+      <c r="F976" s="30"/>
     </row>
     <row r="977" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F977" s="32"/>
+      <c r="F977" s="30"/>
     </row>
     <row r="978" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F978" s="32"/>
+      <c r="F978" s="30"/>
     </row>
     <row r="979" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F979" s="32"/>
+      <c r="F979" s="30"/>
     </row>
     <row r="980" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F980" s="32"/>
+      <c r="F980" s="30"/>
     </row>
     <row r="981" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F981" s="32"/>
+      <c r="F981" s="30"/>
     </row>
     <row r="982" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F982" s="32"/>
+      <c r="F982" s="30"/>
     </row>
     <row r="983" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F983" s="32"/>
+      <c r="F983" s="30"/>
     </row>
     <row r="984" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F984" s="32"/>
+      <c r="F984" s="30"/>
     </row>
     <row r="985" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F985" s="32"/>
+      <c r="F985" s="30"/>
     </row>
     <row r="986" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F986" s="32"/>
+      <c r="F986" s="30"/>
     </row>
     <row r="987" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F987" s="32"/>
+      <c r="F987" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8452,7 +8453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF6B26B"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9360,7 +9361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF6B26B"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10248,7 +10249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10269,7 +10270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10284,7 +10285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10316,7 +10317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10407,7 +10408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10732,7 +10733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF4C1130"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10861,7 +10862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF6B26B"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11195,7 +11196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF6B26B"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13274,7 +13275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF6B26B"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13407,7 +13408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF6B26B"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13844,7 +13845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF6B26B"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
+++ b/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\Sem 1\ELEN4002 Capstone Project\Code\Team-Riot\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3DFEFA-1878-4AB7-9E08-9A1962095CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FD2A24-BD12-4EC6-9126-E5BFED01452A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts and Phrases" sheetId="1" r:id="rId1"/>
@@ -1473,9 +1473,6 @@
     <t>Disconnected, power is down, electricity is down, power</t>
   </si>
   <si>
-    <t>cut, electricity AND cut, water, prepaid , loadshedding, blackout, watershedding</t>
-  </si>
-  <si>
     <t xml:space="preserve">Throw, Threw, Attack, attacked </t>
   </si>
   <si>
@@ -1495,6 +1492,9 @@
   </si>
   <si>
     <t>Afrikaans_Phrases</t>
+  </si>
+  <si>
+    <t>cut, electricity, water, prepaid , loadshedding, blackout, watershedding</t>
   </si>
 </sst>
 </file>
@@ -4016,8 +4016,8 @@
   </sheetPr>
   <dimension ref="A1:F987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4040,10 +4040,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>481</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>482</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>3</v>
@@ -4666,10 +4666,10 @@
         <v>87</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>88</v>
@@ -4843,7 +4843,7 @@
         <v>474</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>114</v>
@@ -5454,10 +5454,10 @@
         <v>209</v>
       </c>
       <c r="C82" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="D82" s="29" t="s">
         <v>476</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>477</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>210</v>
@@ -5503,7 +5503,7 @@
         <v>65</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E85" s="24" t="s">
         <v>215</v>

--- a/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
+++ b/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\Sem 1\ELEN4002 Capstone Project\Code\Team-Riot\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FD2A24-BD12-4EC6-9126-E5BFED01452A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6909657C-631B-4FCE-9D95-3EA1BED82CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4016,8 +4016,8 @@
   </sheetPr>
   <dimension ref="A1:F987"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
+++ b/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\Sem 1\ELEN4002 Capstone Project\Code\Team-Riot\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6909657C-631B-4FCE-9D95-3EA1BED82CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522336D6-CEEF-4B97-B173-CF31A363C59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts and Phrases" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="482">
   <si>
     <t>Label</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Capitalism</t>
   </si>
   <si>
-    <t>Capitalism, neoliberalism, privatisation, privatise</t>
-  </si>
-  <si>
     <t>Kapitalisme, privatisasie, privatiseer, neoliberalisme</t>
   </si>
   <si>
@@ -81,45 +78,30 @@
     <t>Values</t>
   </si>
   <si>
-    <t>Abuse, against xenophobia,</t>
-  </si>
-  <si>
     <t>mishandeling, teen xenofobie</t>
   </si>
   <si>
     <t>Conditions</t>
   </si>
   <si>
-    <t>poverty, unemployment, jobs,</t>
-  </si>
-  <si>
     <t>armoede, werkloosheid, werke</t>
   </si>
   <si>
     <t>Contract end</t>
   </si>
   <si>
-    <t>contracts expire, project end, completed</t>
-  </si>
-  <si>
     <t>einde van, voltooi</t>
   </si>
   <si>
     <t>Community recognition</t>
   </si>
   <si>
-    <t>their rights, recognition,</t>
-  </si>
-  <si>
     <t>regte, erkenning</t>
   </si>
   <si>
     <t>Demolitions</t>
   </si>
   <si>
-    <t>destroyed, evicted, demolished, relocated, removal</t>
-  </si>
-  <si>
     <t xml:space="preserve">verskuif, vernietig, verplaas, </t>
   </si>
   <si>
@@ -147,36 +129,24 @@
     <t>Foreigners</t>
   </si>
   <si>
-    <t>Foreigners, somali, Zimbabwe, xenophobic/a,</t>
-  </si>
-  <si>
     <t>Uitlanders, inkommers, vreemdelinge, somaliers, zimbabweers</t>
   </si>
   <si>
     <t>Healthcare</t>
   </si>
   <si>
-    <t>healthcare, nurses, hospital, clinic, doctors</t>
-  </si>
-  <si>
     <t>gesondheid, verpleegsters, hospitaal, kliniek, dokters</t>
   </si>
   <si>
     <t>Housing</t>
   </si>
   <si>
-    <t>Housing, land, stands,</t>
-  </si>
-  <si>
     <t>Behuising, erwe, grond</t>
   </si>
   <si>
     <t>Internat Solidarity</t>
   </si>
   <si>
-    <t>Embassy, solidarily with the people of, war, the situation in,</t>
-  </si>
-  <si>
     <t>Intimidation by criminal</t>
   </si>
   <si>
@@ -207,9 +177,6 @@
     <t>Muncipal disengage</t>
   </si>
   <si>
-    <t>Not arrive, not come, failed to arrive, failed to come, not respond, not answer</t>
-  </si>
-  <si>
     <t>Nie gekom, nie geantwoord</t>
   </si>
   <si>
@@ -222,15 +189,9 @@
     <t>National govt</t>
   </si>
   <si>
-    <t>Government, National</t>
-  </si>
-  <si>
     <t>Food inspectors</t>
   </si>
   <si>
-    <t>Inspectors, expired</t>
-  </si>
-  <si>
     <t>Inspekteurs</t>
   </si>
   <si>
@@ -252,9 +213,6 @@
     <t>Disaster response</t>
   </si>
   <si>
-    <t>Disaster, flood, collapse, tornado, storm,</t>
-  </si>
-  <si>
     <t>Noodtoestand, vloed, ineengestort, inmekaar</t>
   </si>
   <si>
@@ -267,27 +225,18 @@
     <t>Services B</t>
   </si>
   <si>
-    <t xml:space="preserve"> service delivery</t>
-  </si>
-  <si>
     <t>dienslewering</t>
   </si>
   <si>
     <t>Proposed legislation</t>
   </si>
   <si>
-    <t xml:space="preserve"> New law, legislation, proposed</t>
-  </si>
-  <si>
     <t>voorgestel, wetgewing</t>
   </si>
   <si>
     <t>Demarcation</t>
   </si>
   <si>
-    <t xml:space="preserve"> to be part of, incorporated, demarcation, located, boundary</t>
-  </si>
-  <si>
     <t>deel van, grens</t>
   </si>
   <si>
@@ -297,9 +246,6 @@
     <t>Social grants</t>
   </si>
   <si>
-    <t xml:space="preserve"> grant</t>
-  </si>
-  <si>
     <t>toelae</t>
   </si>
   <si>
@@ -318,9 +264,6 @@
     <t>Witchcraft</t>
   </si>
   <si>
-    <t>Witchcraft, from the dead, muti</t>
-  </si>
-  <si>
     <t>Towery, moeti</t>
   </si>
   <si>
@@ -336,9 +279,6 @@
     <t>Court hearing</t>
   </si>
   <si>
-    <t xml:space="preserve">court, hearing, </t>
-  </si>
-  <si>
     <t>verskyn, hof</t>
   </si>
   <si>
@@ -348,18 +288,12 @@
     <t>Project begin</t>
   </si>
   <si>
-    <t>not local, not from area, outside, only be local, only local people</t>
-  </si>
-  <si>
     <t>inkommers</t>
   </si>
   <si>
     <t>National Strike</t>
   </si>
   <si>
-    <t xml:space="preserve">COSATU, NUMSA, national strike, </t>
-  </si>
-  <si>
     <t>staking</t>
   </si>
   <si>
@@ -372,18 +306,12 @@
     <t>Wage disputes</t>
   </si>
   <si>
-    <t>Payment, salary, cheque, overtime, wage, wages, remuneration, not paid, bonus, bonusses, percent, unfair</t>
-  </si>
-  <si>
     <t>betaling, salaris, oortyd, onbetaal, persent</t>
   </si>
   <si>
     <t>Evictions</t>
   </si>
   <si>
-    <t>Evicted, relocated, red ants, demolition, relocation, removal, demolished</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uitgesit, geskuif, afgebreek, </t>
   </si>
   <si>
@@ -396,45 +324,30 @@
     <t>Election related</t>
   </si>
   <si>
-    <t>Party list, circulate, for councillor, the candidate, on the list, wrong candidate, want another person</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lys, kandidaat, </t>
   </si>
   <si>
     <t>Non consultation</t>
   </si>
   <si>
-    <t>did not arrive, failed to respond, did not come back, did not come</t>
-  </si>
-  <si>
     <t>Nie opgedaag</t>
   </si>
   <si>
     <t>Working conditions</t>
   </si>
   <si>
-    <t>food, conditions, health, safety, equipment</t>
-  </si>
-  <si>
     <t>Kos, (gesondheid AND NOT studente), gereedskap</t>
   </si>
   <si>
     <t>Arrests</t>
   </si>
   <si>
-    <t>Arrest, release</t>
-  </si>
-  <si>
     <t>gearresteer, vrygelaat</t>
   </si>
   <si>
     <t>Crime Event</t>
   </si>
   <si>
-    <t>Crime, murder, kidnapped, was attacked, killed</t>
-  </si>
-  <si>
     <t>misdaad, moord, ontvoer, aangeval, vermoor</t>
   </si>
   <si>
@@ -450,9 +363,6 @@
     <t>Hostage</t>
   </si>
   <si>
-    <t>Captive, hostage, lock-in</t>
-  </si>
-  <si>
     <t>gyselaar, ingesluit, toegesluit</t>
   </si>
   <si>
@@ -462,9 +372,6 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>Atack, Attack, Throw, threw, pelt, torch, choas, lost control, threatened, death threat</t>
-  </si>
-  <si>
     <t>aanval, gegooi, aangeval, getref, geslaan, gedreig, beheer verloor</t>
   </si>
   <si>
@@ -483,18 +390,12 @@
     <t>Vandalism</t>
   </si>
   <si>
-    <t>damaged, vandalised, break, broke</t>
-  </si>
-  <si>
     <t xml:space="preserve">beskadig, gebreek, </t>
   </si>
   <si>
     <t>Lock-out</t>
   </si>
   <si>
-    <t xml:space="preserve">Locked, lock-out, lock, sit-in, </t>
-  </si>
-  <si>
     <t>uitgesluit</t>
   </si>
   <si>
@@ -507,18 +408,12 @@
     <t>Meeting</t>
   </si>
   <si>
-    <t>Meet, meeting</t>
-  </si>
-  <si>
     <t>Vergadering</t>
   </si>
   <si>
     <t>Picket</t>
   </si>
   <si>
-    <t>Picket, posters, placards, speakers, organiser, leader</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plakaat, plakate, spreker, </t>
   </si>
   <si>
@@ -549,18 +444,12 @@
     <t>Writter</t>
   </si>
   <si>
-    <t>write, petition</t>
-  </si>
-  <si>
     <t>skryf, petisie</t>
   </si>
   <si>
     <t>Boycott</t>
   </si>
   <si>
-    <t>boycot, boycott</t>
-  </si>
-  <si>
     <t>boikot</t>
   </si>
   <si>
@@ -570,27 +459,18 @@
     <t>Union</t>
   </si>
   <si>
-    <t>COSATU, FOSATU, NEHAWU, SATAWU, Allied, AMCU, Nuhhrccaw, Denosa, HOSPERSA, NPSWU, NUPSAW, SADNU, POPCRU, NASUWU, IMATU, Union, Shop stewart, Shop steward, Shopsteward, Shopstewart, Shop-steward, Shop-stewart</t>
-  </si>
-  <si>
     <t>Multiple actors ok</t>
   </si>
   <si>
     <t>Political Party</t>
   </si>
   <si>
-    <t>ANC, Congress, DA, EFF, IFP, NFP, Cope, UDM, SACP, ACDP</t>
-  </si>
-  <si>
     <t>Alliansie, (party AND NOT attended, people, DJ, concert, peacfull, ended)</t>
   </si>
   <si>
     <t>Civic org</t>
   </si>
   <si>
-    <t xml:space="preserve">association, residents, concerned, ratepayers, taxpayers, NGO, organisation, </t>
-  </si>
-  <si>
     <t>assosiasie, inwoners, burgers, organisasie</t>
   </si>
   <si>
@@ -606,9 +486,6 @@
     <t>Informal area</t>
   </si>
   <si>
-    <t>Shacks, sharks, informal, hostel, squatter, camp, township, the location</t>
-  </si>
-  <si>
     <t>informele, plakkers, kamp, lokasie</t>
   </si>
   <si>
@@ -618,27 +495,18 @@
     <t>Court</t>
   </si>
   <si>
-    <t>Court, hearing</t>
-  </si>
-  <si>
     <t>Hof, verhoor</t>
   </si>
   <si>
     <t>Business premises</t>
   </si>
   <si>
-    <t xml:space="preserve">company, business, gate, premises, factory, </t>
-  </si>
-  <si>
     <t xml:space="preserve">Maatskappy, hek, fabriek, </t>
   </si>
   <si>
     <t>Stadium</t>
   </si>
   <si>
-    <t>Stadium, sports field</t>
-  </si>
-  <si>
     <t>stadion</t>
   </si>
   <si>
@@ -648,18 +516,12 @@
     <t>School</t>
   </si>
   <si>
-    <t>Teacher, teachers, headmaster, school, primary, secondary, highschool, learners, pupils</t>
-  </si>
-  <si>
     <t>Onderwysers, skoolhoof, hoof, laerskool, hoerskool, leerders</t>
   </si>
   <si>
     <t>Tertiary Edu</t>
   </si>
   <si>
-    <t>Students, Campus, Univeristy, college</t>
-  </si>
-  <si>
     <t>Studente, Universiteit, kampus, kollege</t>
   </si>
   <si>
@@ -702,9 +564,6 @@
     <t>Vigilantism</t>
   </si>
   <si>
-    <t>Beat, beating, mob justice, necklace, necklacing, vigilantes,</t>
-  </si>
-  <si>
     <t xml:space="preserve">Geslaan, </t>
   </si>
   <si>
@@ -714,9 +573,6 @@
     <t>Movements</t>
   </si>
   <si>
-    <t>Rebel, rebellion, uprising, movement,</t>
-  </si>
-  <si>
     <t xml:space="preserve">beweging, </t>
   </si>
   <si>
@@ -750,66 +606,42 @@
     <t>Tribal court meetings</t>
   </si>
   <si>
-    <t>Tribal court, traditional court, imbizo,</t>
-  </si>
-  <si>
     <t>Funerals</t>
   </si>
   <si>
-    <t>Memorial, funeral, burial, after tears, mourners</t>
-  </si>
-  <si>
     <t xml:space="preserve">begrafnis, </t>
   </si>
   <si>
-    <t xml:space="preserve">Church service, ZCC, Shembe, prayer, dedication </t>
-  </si>
-  <si>
     <t>kerkdiens</t>
   </si>
   <si>
     <t>Election campaigns</t>
   </si>
   <si>
-    <t>Campaign, rally, door to door, register, registration</t>
-  </si>
-  <si>
     <t>((car OR cars) AND procession)</t>
   </si>
   <si>
     <t>Election debates</t>
   </si>
   <si>
-    <t>Debate, Various candidates</t>
-  </si>
-  <si>
     <t>Debat, kandidate</t>
   </si>
   <si>
     <t>Election days</t>
   </si>
   <si>
-    <t>Vote, voting, voting station, polling station,</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stemlokaal, stem, </t>
   </si>
   <si>
     <t>Taxi violence</t>
   </si>
   <si>
-    <t>Taxi, taxis, taxi drivers, over routes</t>
-  </si>
-  <si>
     <t>Taksie, taksi</t>
   </si>
   <si>
     <t>16 Days of activism</t>
   </si>
   <si>
-    <t>days of activism, against women, abuse,</t>
-  </si>
-  <si>
     <t>aktivisme</t>
   </si>
   <si>
@@ -819,9 +651,6 @@
     <t>Exhibitions</t>
   </si>
   <si>
-    <t>Career, hobby, carnival, exhibition, inauguration, unveiling, concert, DJ,</t>
-  </si>
-  <si>
     <t>loopbaan, loopbane, karnival, uitstalling, inhuldiging, konsert, opening</t>
   </si>
   <si>
@@ -1362,57 +1191,6 @@
     <t>weapons</t>
   </si>
   <si>
-    <t>Football, soccer, PSL, score, Bafana</t>
-  </si>
-  <si>
-    <t>Tyre, Block, tire, burn, Fire, Bricks, Stones, Rubbish, Refuse, Binns, Bins, blokade, blockade, prevented, entrace, road, refuse to, prevent, disrupt, switch off, riot, rioting</t>
-  </si>
-  <si>
-    <t>March, Procession</t>
-  </si>
-  <si>
-    <t>church, congregation, believers, temple, mosque, synagoge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gather, Memorandum, group, sing, dance, dancing, toyi, </t>
-  </si>
-  <si>
-    <t>Labour broker, labour brokers</t>
-  </si>
-  <si>
-    <t>Licence, permit, permits, licenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mining, pollution, dirty, air, noise, cracking, cracked, fracking </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> water, poor roads, quality of roads, quality of the roads,  quality roads</t>
-  </si>
-  <si>
-    <t>Premier,</t>
-  </si>
-  <si>
-    <t>Fired, suspended, dismissed, discipline</t>
-  </si>
-  <si>
-    <t>Capitalism, privatisation, prvatise, privatize, privatization,</t>
-  </si>
-  <si>
-    <t>church, congregation, believers, temple, muslim, jew, christian, jewish, christianity, islam, religious, Judaism</t>
-  </si>
-  <si>
-    <t>Weapon, Knife, Traditional weapons, knobkieries, kieries, spears, panga</t>
-  </si>
-  <si>
-    <t>Gun, cannon, canon, shotgun, s/gun, rubber, stungrenade, stun grenade, stuntgrenade, tear gas, teargas, bullets, rubberbullets</t>
-  </si>
-  <si>
-    <t>Lunch, scab, scabs, swearing, loot, looting, SABC, process, procedure, application, pamphlet,</t>
-  </si>
-  <si>
-    <t>Cricket, rugby, games, athletics, race, marathon, Proteas, Springboks, Olympics, athletics</t>
-  </si>
-  <si>
     <t>Election</t>
   </si>
   <si>
@@ -1422,79 +1200,298 @@
     <t>Municipality</t>
   </si>
   <si>
-    <t>School, university, students</t>
-  </si>
-  <si>
-    <t>Electricity, Power, connections</t>
-  </si>
-  <si>
-    <t>corrupt, fired, dismissed, policy, other people, hours, overtime, equipment, tools, salary, wages, cheque, food, water, transport, housing, accommodation, health, safety, living conditions, management, race, racism, racist, discrimination, subsidy, allowance, training, white, promotion, working conditions, increase, unfair, poor, injustice, unjust</t>
-  </si>
-  <si>
-    <t>Bills, billing, rates, council tax, corrupt, corruption, illegal, council, councillor, mayor, failed, waited, long time, years, consultation, feedback, information, old councillor, reinstated, reinstate, reappointed, put back, toilets, sanitation, pipes, water</t>
-  </si>
-  <si>
-    <t>fees, costs, teacher, permission, results, policy, allowed, shortage, not used, closed, residence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outcome, result, winner, unfair, cheat, wrong, councillor  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cost, price, supply, cut, disconnect</t>
-  </si>
-  <si>
-    <t>Work, workers, Company, Employ, employer, employee, Labour, Industrial, Bosses, strike, management</t>
-  </si>
-  <si>
-    <t>suspect, criminal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> attend, solidarity, gather, demonstrate, crowd, angry, support</t>
-  </si>
-  <si>
-    <t>Police, SAPS</t>
-  </si>
-  <si>
-    <t>crime, policing, incident, drugs, gangs, arrests, suspects, wrongful, violence</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tribal court, imbizo, Kgotla, chief, kgosi, induna</t>
-  </si>
-  <si>
-    <t>problem, dispute, challenge, fight, protest, gather, demonstrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Empowerment, Rights</t>
-  </si>
-  <si>
-    <t>female, women, woman</t>
-  </si>
-  <si>
-    <t>Disconnected, power is down, electricity is down, power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Throw, Threw, Attack, attacked </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stones, rocks, bricks, brike </t>
-  </si>
-  <si>
-    <t xml:space="preserve">beat, raid, injury, rubber, stungrenade, stuntgrenade, tear, resisted, brutality, </t>
-  </si>
-  <si>
     <t>%NOT% taxi</t>
   </si>
   <si>
-    <t>Ratepayers, taxpayers, association</t>
-  </si>
-  <si>
     <t>Conditional_Phrases</t>
   </si>
   <si>
     <t>Afrikaans_Phrases</t>
   </si>
   <si>
-    <t>cut, electricity, water, prepaid , loadshedding, blackout, watershedding</t>
+    <t>Capitalism,neoliberalism,privatisation,privatise</t>
+  </si>
+  <si>
+    <t>contracts expire,project end,completed</t>
+  </si>
+  <si>
+    <t>destroyed,evicted,demolished,relocated,removal</t>
+  </si>
+  <si>
+    <t>School,university,students</t>
+  </si>
+  <si>
+    <t>fees,costs,teacher,permission,results,policy,allowed,shortage,not used,closed,residence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outcome,result,winner,unfair,cheat,wrong,councillor  </t>
+  </si>
+  <si>
+    <t>Electricity,Power,connections</t>
+  </si>
+  <si>
+    <t>Work,workers,Company,Employ,employer,employee,Labour,Industrial,Bosses,strike,management</t>
+  </si>
+  <si>
+    <t>corrupt,fired,dismissed,policy,other people,hours,overtime,equipment,tools,salary,wages,cheque,food,water,transport,housing,accommodation,health,safety,living conditions,management,race,racism,racist,discrimination,subsidy,allowance,training,white,promotion,working conditions,increase,unfair,poor,injustice,unjust</t>
+  </si>
+  <si>
+    <t>healthcare,nurses,hospital,clinic,doctors</t>
+  </si>
+  <si>
+    <t>suspect,criminal</t>
+  </si>
+  <si>
+    <t>Labour broker,labour brokers</t>
+  </si>
+  <si>
+    <t>Licence,permit,permits,licenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mining,pollution,dirty,air,noise,cracking,cracked,fracking </t>
+  </si>
+  <si>
+    <t>Not arrive,not come,failed to arrive,failed to come,not respond,not answer</t>
+  </si>
+  <si>
+    <t>Bills,billing,rates,council tax,corrupt,corruption,illegal,council,councillor,mayor,failed,waited,long time,years,consultation,feedback,information,old councillor,reinstated,reinstate,reappointed,put back,toilets,sanitation,pipes,water</t>
+  </si>
+  <si>
+    <t>Government,National</t>
+  </si>
+  <si>
+    <t>Inspectors,expired</t>
+  </si>
+  <si>
+    <t>Police,SAPS</t>
+  </si>
+  <si>
+    <t>crime,policing,incident,drugs,gangs,arrests,suspects,wrongful,violence</t>
+  </si>
+  <si>
+    <t>problem,dispute,challenge,fight,protest,gather,demonstrate</t>
+  </si>
+  <si>
+    <t>Ratepayers,taxpayers,association</t>
+  </si>
+  <si>
+    <t>Witchcraft,from the dead,muti</t>
+  </si>
+  <si>
+    <t>female,women,woman</t>
+  </si>
+  <si>
+    <t>not local,not from area,outside,only be local,only local people</t>
+  </si>
+  <si>
+    <t>Fired,suspended,dismissed,discipline</t>
+  </si>
+  <si>
+    <t>Payment,salary,cheque,overtime,wage,wages,remuneration,not paid,bonus,bonusses,percent,unfair</t>
+  </si>
+  <si>
+    <t>Evicted,relocated,red ants,demolition,relocation,removal,demolished</t>
+  </si>
+  <si>
+    <t>Disconnected,power is down,electricity is down,power</t>
+  </si>
+  <si>
+    <t>Party list,circulate,for councillor,the candidate,on the list,wrong candidate,want another person</t>
+  </si>
+  <si>
+    <t>did not arrive,failed to respond,did not come back,did not come</t>
+  </si>
+  <si>
+    <t>food,conditions,health,safety,equipment</t>
+  </si>
+  <si>
+    <t>Arrest,release</t>
+  </si>
+  <si>
+    <t>Crime,murder,kidnapped,was attacked,killed</t>
+  </si>
+  <si>
+    <t>Captive,hostage,lock-in</t>
+  </si>
+  <si>
+    <t>Atack,Attack,Throw,threw,pelt,torch,choas,lost control,threatened,death threat</t>
+  </si>
+  <si>
+    <t>Tyre,Block,tire,burn,Fire,Bricks,Stones,Rubbish,Refuse,Binns,Bins,blokade,blockade,prevented,entrace,road,refuse to,prevent,disrupt,switch off,riot,rioting</t>
+  </si>
+  <si>
+    <t>damaged,vandalised,break,broke</t>
+  </si>
+  <si>
+    <t>March,Procession</t>
+  </si>
+  <si>
+    <t>Meet,meeting</t>
+  </si>
+  <si>
+    <t>Picket,posters,placards,speakers,organiser,leader</t>
+  </si>
+  <si>
+    <t>write,petition</t>
+  </si>
+  <si>
+    <t>boycot,boycott</t>
+  </si>
+  <si>
+    <t>COSATU,FOSATU,NEHAWU,SATAWU,Allied,AMCU,Nuhhrccaw,Denosa,HOSPERSA,NPSWU,NUPSAW,SADNU,POPCRU,NASUWU,IMATU,Union,Shop stewart,Shop steward,Shopsteward,Shopstewart,Shop-steward,Shop-stewart</t>
+  </si>
+  <si>
+    <t>ANC,Congress,DA,EFF,IFP,NFP,Cope,UDM,SACP,ACDP</t>
+  </si>
+  <si>
+    <t>church,congregation,believers,temple,mosque,synagoge</t>
+  </si>
+  <si>
+    <t>Shacks,sharks,informal,hostel,squatter,camp,township,the location</t>
+  </si>
+  <si>
+    <t>Court,hearing</t>
+  </si>
+  <si>
+    <t>Stadium,sports field</t>
+  </si>
+  <si>
+    <t>church,congregation,believers,temple,muslim,jew,christian,jewish,christianity,islam,religious,Judaism</t>
+  </si>
+  <si>
+    <t>Teacher,teachers,headmaster,school,primary,secondary,highschool,learners,pupils</t>
+  </si>
+  <si>
+    <t>Students,Campus,Univeristy,college</t>
+  </si>
+  <si>
+    <t>Weapon,Knife,Traditional weapons,knobkieries,kieries,spears,panga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throw,Threw,Attack,attacked </t>
+  </si>
+  <si>
+    <t>Gun,cannon,canon,shotgun,s/gun,rubber,stungrenade,stun grenade,stuntgrenade,tear gas,teargas,bullets,rubberbullets</t>
+  </si>
+  <si>
+    <t>Football,soccer,PSL,score,Bafana</t>
+  </si>
+  <si>
+    <t>Cricket,rugby,games,athletics,race,marathon,Proteas,Springboks,Olympics,athletics</t>
+  </si>
+  <si>
+    <t>Memorial,funeral,burial,after tears,mourners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Church service,ZCC,Shembe,prayer,dedication </t>
+  </si>
+  <si>
+    <t>Campaign,rally,door to door,register,registration</t>
+  </si>
+  <si>
+    <t>Debate,Various candidates</t>
+  </si>
+  <si>
+    <t>Taxi,taxis,taxi drivers,over routes</t>
+  </si>
+  <si>
+    <t>cut,electricity,water,prepaid,loadshedding,blackout,watershedding</t>
+  </si>
+  <si>
+    <t>Abuse,against xenophobia</t>
+  </si>
+  <si>
+    <t>poverty,unemployment,jobs</t>
+  </si>
+  <si>
+    <t>their rights,recognition</t>
+  </si>
+  <si>
+    <t>Foreigners,somali,Zimbabwe,xenophobic,xenophobia</t>
+  </si>
+  <si>
+    <t>Housing,land,stands</t>
+  </si>
+  <si>
+    <t>Embassy,solidarily with the people of,war,the situation in</t>
+  </si>
+  <si>
+    <t>Disaster,flood,collapse,tornado,storm</t>
+  </si>
+  <si>
+    <t>court,hearing</t>
+  </si>
+  <si>
+    <t>Tribal court,imbizo,Kgotla,chief,kgosi,induna</t>
+  </si>
+  <si>
+    <t>grant</t>
+  </si>
+  <si>
+    <t>New law,legislation,proposed</t>
+  </si>
+  <si>
+    <t>to be part of,incorporated,demarcation,located,boundary</t>
+  </si>
+  <si>
+    <t>service delivery</t>
+  </si>
+  <si>
+    <t>water,poor roads,quality of roads,quality of the roads,quality roads</t>
+  </si>
+  <si>
+    <t>COSATU,NUMSA,national strike</t>
+  </si>
+  <si>
+    <t>Capitalism,privatisation,prvatise,privatize,privatization</t>
+  </si>
+  <si>
+    <t>Locked,lock-out,lock,sit-in</t>
+  </si>
+  <si>
+    <t>Gather,Memorandum,group,sing,dance,dancing,toyi</t>
+  </si>
+  <si>
+    <t>association,residents,concerned,ratepayers,taxpayers,NGO,organisation</t>
+  </si>
+  <si>
+    <t>company,business,gate,premises,factory</t>
+  </si>
+  <si>
+    <t>Beat,beating,mob justice,necklace,necklacing,vigilantes,vigilante</t>
+  </si>
+  <si>
+    <t>Rebel,rebellion,uprising,movement</t>
+  </si>
+  <si>
+    <t>Lunch,scab,scabs,swearing,loot,looting,SABC,process,procedure,application,pamphlet</t>
+  </si>
+  <si>
+    <t>Tribal court,traditional court,imbizo</t>
+  </si>
+  <si>
+    <t>Vote,voting,voting station,polling station</t>
+  </si>
+  <si>
+    <t>days of activism,against women,abuse</t>
+  </si>
+  <si>
+    <t>Career,hobby,carnival,exhibition,inauguration,unveiling,concert,DJ</t>
+  </si>
+  <si>
+    <t>beat,raid,injury,rubber,stungrenade,stuntgrenade,tear,resisted,brutality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stones,rocks,bricks,brike </t>
+  </si>
+  <si>
+    <t>attend,solidarity,gather,demonstrate,crowd,angry,support</t>
+  </si>
+  <si>
+    <t>cost,price,supply,cut,disconnect</t>
+  </si>
+  <si>
+    <t>Empowerment,Rights</t>
   </si>
 </sst>
 </file>
@@ -4016,8 +4013,8 @@
   </sheetPr>
   <dimension ref="A1:F987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4040,10 +4037,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>480</v>
+        <v>385</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>3</v>
@@ -4057,13 +4054,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4071,17 +4068,17 @@
         <v>4</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>11</v>
+        <v>450</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4089,17 +4086,17 @@
         <v>4</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>14</v>
+        <v>451</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4107,17 +4104,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>17</v>
+        <v>388</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4125,17 +4122,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>20</v>
+        <v>452</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4143,17 +4140,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>23</v>
+        <v>389</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="24" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4161,19 +4158,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>458</v>
+        <v>390</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>462</v>
+        <v>391</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4181,19 +4178,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>455</v>
+        <v>381</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>463</v>
+        <v>392</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4201,19 +4198,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
@@ -4221,17 +4218,17 @@
         <v>4</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>465</v>
+        <v>394</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>460</v>
+        <v>395</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4239,17 +4236,17 @@
         <v>4</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4257,17 +4254,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>36</v>
+        <v>396</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4275,17 +4272,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>39</v>
+        <v>454</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4293,17 +4290,17 @@
         <v>4</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>42</v>
+        <v>455</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>8</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4311,19 +4308,19 @@
         <v>4</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>466</v>
+        <v>397</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4331,19 +4328,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4351,17 +4348,17 @@
         <v>4</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>8</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4369,17 +4366,17 @@
         <v>4</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="24" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4387,17 +4384,17 @@
         <v>4</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="24" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4405,17 +4402,17 @@
         <v>4</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>53</v>
+        <v>401</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="24" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4423,19 +4420,19 @@
         <v>4</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>457</v>
+        <v>383</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>461</v>
+        <v>402</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4443,17 +4440,17 @@
         <v>4</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>58</v>
+        <v>403</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>8</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4461,17 +4458,17 @@
         <v>4</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>60</v>
+        <v>404</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="24" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4479,17 +4476,17 @@
         <v>4</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="24" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4497,19 +4494,19 @@
         <v>4</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>468</v>
+        <v>405</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>469</v>
+        <v>406</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4517,17 +4514,17 @@
         <v>4</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>68</v>
+        <v>456</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="24" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4535,17 +4532,17 @@
         <v>4</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="24" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4553,17 +4550,17 @@
         <v>4</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>73</v>
+        <v>462</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="24" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4571,17 +4568,17 @@
         <v>4</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>76</v>
+        <v>460</v>
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="24" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4589,17 +4586,17 @@
         <v>4</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="24" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4607,17 +4604,17 @@
         <v>4</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>447</v>
+        <v>64</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="25" t="s">
         <v>8</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4625,17 +4622,17 @@
         <v>4</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>83</v>
+        <v>459</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="24" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4643,19 +4640,19 @@
         <v>4</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>471</v>
+        <v>407</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4663,19 +4660,19 @@
         <v>4</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>479</v>
+        <v>408</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>478</v>
+        <v>384</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4683,17 +4680,17 @@
         <v>4</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>90</v>
+        <v>409</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="24" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4701,19 +4698,19 @@
         <v>4</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>473</v>
+        <v>410</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4726,564 +4723,564 @@
     </row>
     <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>96</v>
+        <v>457</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="24" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>100</v>
+        <v>411</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="24" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>103</v>
+        <v>464</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="24" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="24" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>108</v>
+        <v>413</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="24" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>111</v>
+        <v>414</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="24" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>116</v>
+        <v>416</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="24" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>119</v>
+        <v>417</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="24" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>122</v>
+        <v>418</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="24" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>125</v>
+        <v>419</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="24" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>128</v>
+        <v>420</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="24" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="24" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>134</v>
+        <v>421</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="24" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>138</v>
+        <v>422</v>
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="24" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="24" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>145</v>
+        <v>424</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="24" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>148</v>
+        <v>466</v>
       </c>
       <c r="D58" s="29"/>
       <c r="E58" s="24" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="24" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>153</v>
+        <v>426</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="24" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>156</v>
+        <v>427</v>
       </c>
       <c r="D61" s="29"/>
       <c r="E61" s="24" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="1" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="24" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="24" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>167</v>
+        <v>428</v>
       </c>
       <c r="D65" s="25"/>
       <c r="E65" s="24" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>170</v>
+        <v>429</v>
       </c>
       <c r="D66" s="25"/>
       <c r="E66" s="24" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>174</v>
+        <v>430</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>177</v>
+        <v>431</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="24" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>180</v>
+        <v>468</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="24" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="24" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5296,128 +5293,128 @@
     </row>
     <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>186</v>
+        <v>433</v>
       </c>
       <c r="D73" s="29"/>
       <c r="E73" s="24" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>190</v>
+        <v>434</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="24" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>193</v>
+        <v>469</v>
       </c>
       <c r="D75" s="25"/>
       <c r="E75" s="24" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>196</v>
+        <v>435</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="24" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="24" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>200</v>
+        <v>437</v>
       </c>
       <c r="D78" s="25"/>
       <c r="E78" s="24" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="24" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5430,58 +5427,58 @@
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="24" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="24" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5494,40 +5491,40 @@
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D85" s="29" t="s">
         <v>477</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>218</v>
+        <v>470</v>
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="24" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5540,38 +5537,38 @@
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>222</v>
+        <v>471</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="24" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="24" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5584,200 +5581,200 @@
     </row>
     <row r="91" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="23" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="F91" s="29" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="23" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>234</v>
+        <v>473</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" s="29" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>236</v>
+        <v>444</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="1" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="F94" s="29" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>238</v>
+        <v>445</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="23" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="F95" s="29" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>241</v>
+        <v>446</v>
       </c>
       <c r="D96" s="29"/>
       <c r="E96" s="23" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="F96" s="29" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>244</v>
+        <v>447</v>
       </c>
       <c r="D97" s="29"/>
       <c r="E97" s="23" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>247</v>
+        <v>474</v>
       </c>
       <c r="D98" s="29"/>
       <c r="E98" s="23" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="F98" s="29" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>250</v>
+        <v>448</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="23" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>253</v>
+        <v>475</v>
       </c>
       <c r="D100" s="29"/>
       <c r="E100" s="23" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="F100" s="29" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>257</v>
+        <v>476</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="23" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -8469,13 +8466,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="L1" s="10">
         <f>SUM(L2:L8)</f>
@@ -8484,16 +8481,16 @@
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="B2" s="13">
         <v>28423</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="L2" s="13">
         <v>2414</v>
@@ -8501,16 +8498,16 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="B3" s="13">
         <v>14910</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="L3" s="13">
         <v>1989</v>
@@ -8518,16 +8515,16 @@
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="B4" s="13">
         <v>14356</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="L4" s="13">
         <f>12271+394+52</f>
@@ -8536,16 +8533,16 @@
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="B5" s="13">
         <v>5338</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="L5" s="13">
         <v>1646</v>
@@ -8553,10 +8550,10 @@
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="J6" s="11" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="L6" s="13">
         <f>5856+126+1996</f>
@@ -8565,10 +8562,10 @@
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="J7" s="11" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="L7" s="13">
         <v>100</v>
@@ -8576,10 +8573,10 @@
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="J8" s="11" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="L8" s="13">
         <f>925+311</f>
@@ -8592,18 +8589,18 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="E23" s="10" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -8611,7 +8608,7 @@
         <v>1997</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G24" s="13">
         <v>161</v>
@@ -8622,7 +8619,7 @@
         <v>1997</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G25" s="13">
         <v>889</v>
@@ -8633,7 +8630,7 @@
         <v>1997</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G26" s="13">
         <v>548</v>
@@ -8644,7 +8641,7 @@
         <v>1997</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G27" s="13">
         <v>812</v>
@@ -8655,7 +8652,7 @@
         <v>1998</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G28" s="13">
         <v>418</v>
@@ -8666,7 +8663,7 @@
         <v>1998</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G29" s="13">
         <v>1278</v>
@@ -8677,7 +8674,7 @@
         <v>1998</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G30" s="13">
         <v>709</v>
@@ -8688,7 +8685,7 @@
         <v>1998</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G31" s="13">
         <v>860</v>
@@ -8699,7 +8696,7 @@
         <v>1999</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G32" s="13">
         <v>322</v>
@@ -8710,7 +8707,7 @@
         <v>1999</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G33" s="13">
         <v>1153</v>
@@ -8721,7 +8718,7 @@
         <v>1999</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G34" s="13">
         <v>939</v>
@@ -8732,7 +8729,7 @@
         <v>1999</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G35" s="13">
         <v>554</v>
@@ -8743,7 +8740,7 @@
         <v>2000</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G36" s="13">
         <v>326</v>
@@ -8754,7 +8751,7 @@
         <v>2000</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G37" s="13">
         <v>1244</v>
@@ -8765,7 +8762,7 @@
         <v>2000</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G38" s="13">
         <v>686</v>
@@ -8776,7 +8773,7 @@
         <v>2000</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G39" s="13">
         <v>495</v>
@@ -8787,7 +8784,7 @@
         <v>2001</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G40" s="13">
         <v>336</v>
@@ -8798,7 +8795,7 @@
         <v>2001</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G41" s="13">
         <v>1223</v>
@@ -8809,7 +8806,7 @@
         <v>2001</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G42" s="13">
         <v>503</v>
@@ -8820,7 +8817,7 @@
         <v>2001</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G43" s="13">
         <v>515</v>
@@ -8831,7 +8828,7 @@
         <v>2002</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G44" s="13">
         <v>255</v>
@@ -8842,7 +8839,7 @@
         <v>2002</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G45" s="13">
         <v>1056</v>
@@ -8853,7 +8850,7 @@
         <v>2002</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G46" s="13">
         <v>380</v>
@@ -8864,7 +8861,7 @@
         <v>2002</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G47" s="13">
         <v>345</v>
@@ -8875,7 +8872,7 @@
         <v>2003</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G48" s="13">
         <v>304</v>
@@ -8886,7 +8883,7 @@
         <v>2003</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G49" s="13">
         <v>1169</v>
@@ -8897,7 +8894,7 @@
         <v>2003</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G50" s="13">
         <v>484</v>
@@ -8908,7 +8905,7 @@
         <v>2003</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G51" s="13">
         <v>375</v>
@@ -8919,7 +8916,7 @@
         <v>2004</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G52" s="13">
         <v>313</v>
@@ -8930,7 +8927,7 @@
         <v>2004</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G53" s="13">
         <v>1418</v>
@@ -8941,7 +8938,7 @@
         <v>2004</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G54" s="13">
         <v>949</v>
@@ -8952,7 +8949,7 @@
         <v>2004</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G55" s="13">
         <v>545</v>
@@ -8963,7 +8960,7 @@
         <v>2005</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G56" s="13">
         <v>292</v>
@@ -8974,7 +8971,7 @@
         <v>2005</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G57" s="13">
         <v>1971</v>
@@ -8985,7 +8982,7 @@
         <v>2005</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G58" s="13">
         <v>623</v>
@@ -8996,7 +8993,7 @@
         <v>2005</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G59" s="13">
         <v>862</v>
@@ -9007,7 +9004,7 @@
         <v>2006</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G60" s="13">
         <v>346</v>
@@ -9018,7 +9015,7 @@
         <v>2006</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G61" s="13">
         <v>1768</v>
@@ -9029,7 +9026,7 @@
         <v>2006</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G62" s="13">
         <v>1062</v>
@@ -9040,7 +9037,7 @@
         <v>2006</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G63" s="13">
         <v>1163</v>
@@ -9051,7 +9048,7 @@
         <v>2007</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G64" s="13">
         <v>242</v>
@@ -9062,7 +9059,7 @@
         <v>2007</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G65" s="13">
         <v>1471</v>
@@ -9073,7 +9070,7 @@
         <v>2007</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G66" s="13">
         <v>408</v>
@@ -9084,7 +9081,7 @@
         <v>2007</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G67" s="13">
         <v>1384</v>
@@ -9095,7 +9092,7 @@
         <v>2008</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G68" s="13">
         <v>216</v>
@@ -9106,7 +9103,7 @@
         <v>2008</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G69" s="13">
         <v>1466</v>
@@ -9117,7 +9114,7 @@
         <v>2008</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G70" s="13">
         <v>717</v>
@@ -9128,7 +9125,7 @@
         <v>2008</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G71" s="13">
         <v>551</v>
@@ -9139,7 +9136,7 @@
         <v>2009</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G72" s="13">
         <v>257</v>
@@ -9150,7 +9147,7 @@
         <v>2009</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G73" s="13">
         <v>1874</v>
@@ -9161,7 +9158,7 @@
         <v>2009</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G74" s="13">
         <v>1506</v>
@@ -9172,7 +9169,7 @@
         <v>2009</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G75" s="13">
         <v>781</v>
@@ -9183,7 +9180,7 @@
         <v>2010</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G76" s="13">
         <v>249</v>
@@ -9194,7 +9191,7 @@
         <v>2010</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G77" s="13">
         <v>1956</v>
@@ -9205,7 +9202,7 @@
         <v>2010</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G78" s="13">
         <v>864</v>
@@ -9216,7 +9213,7 @@
         <v>2010</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G79" s="13">
         <v>1686</v>
@@ -9227,7 +9224,7 @@
         <v>2011</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G80" s="13">
         <v>323</v>
@@ -9238,7 +9235,7 @@
         <v>2011</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G81" s="13">
         <v>2487</v>
@@ -9249,7 +9246,7 @@
         <v>2011</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G82" s="13">
         <v>1801</v>
@@ -9260,7 +9257,7 @@
         <v>2011</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G83" s="13">
         <v>975</v>
@@ -9271,7 +9268,7 @@
         <v>2012</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G84" s="13">
         <v>443</v>
@@ -9282,7 +9279,7 @@
         <v>2012</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G85" s="13">
         <v>3093</v>
@@ -9293,7 +9290,7 @@
         <v>2012</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G86" s="13">
         <v>1348</v>
@@ -9304,7 +9301,7 @@
         <v>2012</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G87" s="13">
         <v>1142</v>
@@ -9315,7 +9312,7 @@
         <v>2013</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G88" s="13">
         <v>535</v>
@@ -9326,7 +9323,7 @@
         <v>2013</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G89" s="13">
         <v>2907</v>
@@ -9337,7 +9334,7 @@
         <v>2013</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G90" s="13">
         <v>1383</v>
@@ -9348,7 +9345,7 @@
         <v>2013</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="G91" s="13">
         <v>1311</v>
@@ -9377,10 +9374,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21">
@@ -9390,16 +9387,16 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="B2" s="22">
         <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F2">
         <f>SUM(B5,B8,B9,B12,B15,B26,B27,B31,B22)</f>
@@ -9408,16 +9405,16 @@
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="B3" s="22">
         <v>223</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F3">
         <f>SUM(B11,B28)</f>
@@ -9426,16 +9423,16 @@
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="B4" s="22">
         <v>230</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F4">
         <f>SUM(B13,B23,B24,)</f>
@@ -9444,16 +9441,16 @@
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="B5" s="22">
         <v>255</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F5">
         <f>SUM(B6,B7)</f>
@@ -9462,16 +9459,16 @@
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="B6" s="22">
         <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F6">
         <f>SUM(B14,)</f>
@@ -9480,16 +9477,16 @@
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="B7" s="22">
         <v>180</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F7">
         <f>SUM(B16,B17,B18,B19,B21,B30)</f>
@@ -9498,16 +9495,16 @@
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="B8" s="22">
         <v>1391</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F8">
         <f>SUM(B25)</f>
@@ -9516,16 +9513,16 @@
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="B9" s="22">
         <v>778</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F9">
         <f>SUM(B2,B3,B4, B29)</f>
@@ -9534,16 +9531,16 @@
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="B10" s="22">
         <v>503</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F10">
         <f>SUM(B20)</f>
@@ -9552,16 +9549,16 @@
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="B11" s="22">
         <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F11">
         <f>B10</f>
@@ -9570,7 +9567,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="B12" s="22">
         <v>1860</v>
@@ -9578,13 +9575,13 @@
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="B13" s="22">
         <v>178</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21">
@@ -9594,16 +9591,16 @@
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="B14" s="22">
         <v>133</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F14">
         <f>SUM(B17,B20,B21,B24,B27,B38,B39,B43,B34)</f>
@@ -9612,16 +9609,16 @@
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="B15" s="22">
         <v>134</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F15">
         <f>SUM(B24,B34,B35,)</f>
@@ -9630,16 +9627,16 @@
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="B16" s="22">
         <v>4147</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F16">
         <f>SUM(B9,B10,B11, B36)</f>
@@ -9648,16 +9645,16 @@
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="B17" s="22">
         <v>128</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F17">
         <f>SUM(B34)</f>
@@ -9666,16 +9663,16 @@
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="B18" s="22">
         <v>694</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F18">
         <f>SUM(B27,B28,B29,B30,B32,B41)</f>
@@ -9684,16 +9681,16 @@
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="B19" s="22">
         <v>135</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F19">
         <f>SUM(B27,B44)</f>
@@ -9702,16 +9699,16 @@
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="B20" s="22">
         <v>95</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F20">
         <f>B19</f>
@@ -9720,16 +9717,16 @@
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="B21" s="22">
         <v>1408</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F21">
         <f>SUM(B29,)</f>
@@ -9738,16 +9735,16 @@
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="B22" s="22">
         <v>1966</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F22">
         <f>SUM(B23,B24)</f>
@@ -9756,16 +9753,16 @@
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="B23" s="22">
         <v>710</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F23">
         <f>SUM(B33)</f>
@@ -9774,7 +9771,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="B24" s="22">
         <v>216</v>
@@ -9782,7 +9779,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
       <c r="B25" s="22">
         <v>154</v>
@@ -9790,7 +9787,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="B26" s="22">
         <v>933</v>
@@ -9798,7 +9795,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>431</v>
+        <v>374</v>
       </c>
       <c r="B27" s="22">
         <v>1000</v>
@@ -9806,7 +9803,7 @@
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="B28" s="22">
         <v>146</v>
@@ -9814,7 +9811,7 @@
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="B29" s="22">
         <v>314</v>
@@ -9822,7 +9819,7 @@
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>433</v>
+        <v>376</v>
       </c>
       <c r="B30" s="22">
         <v>196</v>
@@ -9830,7 +9827,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>434</v>
+        <v>377</v>
       </c>
       <c r="B31" s="22">
         <v>98</v>
@@ -9838,409 +9835,409 @@
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B34" s="13">
         <v>6087</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B35" s="13">
         <v>5654</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B36" s="13">
         <v>5183</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B37" s="13">
         <v>4677</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B38" s="13">
         <v>3312</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B39" s="13">
         <v>2609</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B40" s="13">
         <v>2352</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B41" s="13">
         <v>2326</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B42" s="13">
         <v>2321</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B43" s="13">
         <v>2094</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B44" s="13">
         <v>2039</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B45" s="13">
         <v>2035</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B46" s="13">
         <v>1911</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B47" s="13">
         <v>1852</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B48" s="13">
         <v>1713</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B49" s="13">
         <v>1632</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B50" s="13">
         <v>1606</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B51" s="13">
         <v>1482</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B52" s="13">
         <v>1456</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B53" s="13">
         <v>1228</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B54" s="13">
         <v>1185</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B55" s="13">
         <v>910</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B56" s="13">
         <v>891</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B57" s="13">
         <v>774</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B58" s="13">
         <v>738</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B59" s="13">
         <v>736</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B60" s="13">
         <v>703</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B61" s="13">
         <v>684</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B62" s="13">
         <v>680</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B63" s="13">
         <v>641</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B64" s="13">
         <v>555</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B65" s="13">
         <v>424</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B66" s="13">
         <v>192</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B67" s="13">
         <v>189</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B68" s="13">
         <v>105</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B69" s="13">
         <v>49</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -10261,7 +10258,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -10297,13 +10294,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>437</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10349,56 +10346,56 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -10437,294 +10434,294 @@
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -10751,60 +10748,60 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="F2" s="8">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="H2" s="1">
         <v>0.7</v>
@@ -10833,27 +10830,27 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -10878,15 +10875,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="B2" s="12">
         <v>34821</v>
@@ -10895,7 +10892,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B3" s="12">
         <v>24483</v>
@@ -10904,7 +10901,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="B4" s="12">
         <v>8328</v>
@@ -10913,7 +10910,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B5" s="12">
         <v>7541</v>
@@ -10922,7 +10919,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="B6" s="12">
         <v>7111</v>
@@ -10931,7 +10928,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B7" s="12">
         <v>6087</v>
@@ -10940,7 +10937,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B8" s="12">
         <v>5766</v>
@@ -10949,7 +10946,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B9" s="12">
         <v>5450</v>
@@ -10958,7 +10955,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="12">
         <v>5016</v>
@@ -10967,7 +10964,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="B11" s="12">
         <v>3486</v>
@@ -10976,7 +10973,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="B12" s="12">
         <v>3295</v>
@@ -10985,7 +10982,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="B13" s="12">
         <v>2750</v>
@@ -10994,7 +10991,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="B14" s="12">
         <v>2169</v>
@@ -11003,7 +11000,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="12">
         <v>1750</v>
@@ -11012,7 +11009,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="B16" s="12">
         <v>1689</v>
@@ -11021,7 +11018,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B17" s="12">
         <v>1420</v>
@@ -11030,7 +11027,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="B18" s="12">
         <v>1045</v>
@@ -11039,7 +11036,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B19" s="13">
         <v>921</v>
@@ -11047,7 +11044,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="B20" s="13">
         <v>891</v>
@@ -11055,7 +11052,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B21" s="13">
         <v>813</v>
@@ -11063,7 +11060,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="B22" s="13">
         <v>751</v>
@@ -11071,7 +11068,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B23" s="13">
         <v>741</v>
@@ -11079,7 +11076,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B24" s="13">
         <v>672</v>
@@ -11087,7 +11084,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="B25" s="13">
         <v>489</v>
@@ -11095,7 +11092,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="B26" s="13">
         <v>446</v>
@@ -11103,7 +11100,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="B27" s="13">
         <v>426</v>
@@ -11111,7 +11108,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="B28" s="13">
         <v>374</v>
@@ -11119,7 +11116,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="B29" s="13">
         <v>354</v>
@@ -11127,7 +11124,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="B30" s="13">
         <v>309</v>
@@ -11135,7 +11132,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="B31" s="13">
         <v>246</v>
@@ -11143,7 +11140,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B32" s="13">
         <v>163</v>
@@ -11151,7 +11148,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="B33" s="13">
         <v>148</v>
@@ -11159,7 +11156,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="B34" s="13">
         <v>137</v>
@@ -11175,7 +11172,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B36" s="13">
         <v>106</v>
@@ -11183,7 +11180,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="B37" s="13">
         <v>55</v>
@@ -11218,38 +11215,38 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C2" s="13">
         <v>4823</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C3" s="13">
         <v>1462</v>
@@ -11258,10 +11255,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C4" s="13">
         <v>837</v>
@@ -11270,10 +11267,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C5" s="13">
         <v>821</v>
@@ -11281,10 +11278,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C6" s="13">
         <v>672</v>
@@ -11293,10 +11290,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C7" s="13">
         <v>622</v>
@@ -11305,10 +11302,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C8" s="13">
         <v>604</v>
@@ -11317,10 +11314,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" s="13">
         <v>585</v>
@@ -11329,10 +11326,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C10" s="13">
         <v>386</v>
@@ -11341,10 +11338,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C11" s="13">
         <v>380</v>
@@ -11353,10 +11350,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C12" s="13">
         <v>1165</v>
@@ -11365,10 +11362,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C13" s="13">
         <v>821</v>
@@ -11377,10 +11374,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C14" s="13">
         <v>744</v>
@@ -11389,10 +11386,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C15" s="13">
         <v>627</v>
@@ -11401,10 +11398,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C16" s="13">
         <v>521</v>
@@ -11413,10 +11410,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C17" s="13">
         <v>461</v>
@@ -11425,10 +11422,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C18" s="13">
         <v>406</v>
@@ -11437,10 +11434,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C19" s="13">
         <v>362</v>
@@ -11449,10 +11446,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C20" s="13">
         <v>357</v>
@@ -11460,10 +11457,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C21" s="13">
         <v>274</v>
@@ -11471,10 +11468,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C22" s="13">
         <v>6962</v>
@@ -11482,10 +11479,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C23" s="13">
         <v>4648</v>
@@ -11493,10 +11490,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C24" s="13">
         <v>1764</v>
@@ -11504,10 +11501,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C25" s="13">
         <v>1151</v>
@@ -11515,10 +11512,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C26" s="13">
         <v>1068</v>
@@ -11526,10 +11523,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C27" s="13">
         <v>897</v>
@@ -11537,10 +11534,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C28" s="13">
         <v>754</v>
@@ -11548,10 +11545,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C29" s="13">
         <v>639</v>
@@ -11559,10 +11556,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C30" s="13">
         <v>639</v>
@@ -11570,10 +11567,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C31" s="13">
         <v>572</v>
@@ -11581,10 +11578,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C32" s="13">
         <v>5169</v>
@@ -11592,10 +11589,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C33" s="13">
         <v>4084</v>
@@ -11603,10 +11600,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C34" s="13">
         <v>1547</v>
@@ -11614,10 +11611,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C35" s="13">
         <v>1468</v>
@@ -11625,10 +11622,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C36" s="13">
         <v>1338</v>
@@ -11636,10 +11633,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C37" s="13">
         <v>1247</v>
@@ -11647,10 +11644,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C38" s="13">
         <v>1103</v>
@@ -11658,10 +11655,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C39" s="13">
         <v>880</v>
@@ -11669,10 +11666,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C40" s="13">
         <v>680</v>
@@ -11680,10 +11677,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C41" s="13">
         <v>523</v>
@@ -11691,10 +11688,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C42" s="13">
         <v>2972</v>
@@ -11702,10 +11699,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C43" s="13">
         <v>2487</v>
@@ -11713,10 +11710,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C44" s="13">
         <v>822</v>
@@ -11724,10 +11721,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C45" s="13">
         <v>750</v>
@@ -11735,10 +11732,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C46" s="13">
         <v>566</v>
@@ -11746,10 +11743,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C47" s="13">
         <v>480</v>
@@ -11757,10 +11754,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C48" s="13">
         <v>440</v>
@@ -11768,10 +11765,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C49" s="13">
         <v>430</v>
@@ -11779,10 +11776,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C50" s="13">
         <v>311</v>
@@ -11790,10 +11787,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C51" s="13">
         <v>278</v>
@@ -11801,10 +11798,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C52" s="13">
         <v>2065</v>
@@ -11812,10 +11809,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C53" s="13">
         <v>1994</v>
@@ -11823,10 +11820,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C54" s="13">
         <v>784</v>
@@ -11834,10 +11831,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C55" s="13">
         <v>576</v>
@@ -11845,10 +11842,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C56" s="13">
         <v>443</v>
@@ -11856,10 +11853,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C57" s="13">
         <v>387</v>
@@ -11867,10 +11864,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C58" s="13">
         <v>344</v>
@@ -11878,10 +11875,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C59" s="13">
         <v>293</v>
@@ -11889,10 +11886,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C60" s="13">
         <v>268</v>
@@ -11900,10 +11897,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C61" s="13">
         <v>192</v>
@@ -11911,10 +11908,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C62" s="13">
         <v>7356</v>
@@ -11922,10 +11919,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C63" s="13">
         <v>4520</v>
@@ -11933,10 +11930,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C64" s="13">
         <v>1952</v>
@@ -11944,10 +11941,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C65" s="13">
         <v>1332</v>
@@ -11955,10 +11952,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C66" s="13">
         <v>1304</v>
@@ -11966,10 +11963,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C67" s="13">
         <v>1115</v>
@@ -11977,10 +11974,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C68" s="13">
         <v>980</v>
@@ -11988,10 +11985,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C69" s="13">
         <v>811</v>
@@ -11999,10 +11996,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C70" s="13">
         <v>695</v>
@@ -12010,10 +12007,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C71" s="13">
         <v>527</v>
@@ -12021,10 +12018,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C72" s="13">
         <v>665</v>
@@ -12032,10 +12029,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C73" s="13">
         <v>591</v>
@@ -12043,10 +12040,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C74" s="13">
         <v>450</v>
@@ -12054,10 +12051,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C75" s="13">
         <v>407</v>
@@ -12065,10 +12062,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C76" s="13">
         <v>301</v>
@@ -12076,10 +12073,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C77" s="13">
         <v>267</v>
@@ -12087,10 +12084,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C78" s="13">
         <v>246</v>
@@ -12098,10 +12095,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C79" s="13">
         <v>243</v>
@@ -12109,10 +12106,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C80" s="13">
         <v>181</v>
@@ -12120,10 +12117,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C81" s="13">
         <v>102</v>
@@ -12131,10 +12128,10 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C82" s="13">
         <v>3876</v>
@@ -12142,10 +12139,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C83" s="13">
         <v>3644</v>
@@ -12153,10 +12150,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C84" s="13">
         <v>1475</v>
@@ -12164,10 +12161,10 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C85" s="13">
         <v>1056</v>
@@ -12175,10 +12172,10 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C86" s="13">
         <v>852</v>
@@ -12186,10 +12183,10 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C87" s="13">
         <v>650</v>
@@ -12197,10 +12194,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C88" s="13">
         <v>568</v>
@@ -12208,10 +12205,10 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C89" s="13">
         <v>498</v>
@@ -12219,10 +12216,10 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C90" s="13">
         <v>294</v>
@@ -12230,10 +12227,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C91" s="13">
         <v>185</v>
@@ -12246,45 +12243,45 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="D96" s="13">
         <v>4823</v>
@@ -12313,66 +12310,66 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C104" s="13">
         <v>386</v>
@@ -12380,10 +12377,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C105" s="13">
         <v>380</v>
@@ -12391,10 +12388,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C106" s="13">
         <v>1165</v>
@@ -12402,10 +12399,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C107" s="13">
         <v>821</v>
@@ -12413,10 +12410,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C108" s="13">
         <v>744</v>
@@ -12424,10 +12421,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C109" s="13">
         <v>627</v>
@@ -12435,10 +12432,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C110" s="13">
         <v>521</v>
@@ -12446,10 +12443,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C111" s="13">
         <v>461</v>
@@ -12457,10 +12454,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C112" s="13">
         <v>406</v>
@@ -12468,10 +12465,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C113" s="13">
         <v>362</v>
@@ -12479,10 +12476,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C114" s="13">
         <v>357</v>
@@ -12490,10 +12487,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C115" s="13">
         <v>274</v>
@@ -12501,10 +12498,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C116" s="13">
         <v>6962</v>
@@ -12512,10 +12509,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C117" s="13">
         <v>4648</v>
@@ -12523,10 +12520,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C118" s="13">
         <v>1764</v>
@@ -12534,10 +12531,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C119" s="13">
         <v>1151</v>
@@ -12545,10 +12542,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C120" s="13">
         <v>1068</v>
@@ -12556,10 +12553,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C121" s="13">
         <v>897</v>
@@ -12567,10 +12564,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C122" s="13">
         <v>754</v>
@@ -12578,10 +12575,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C123" s="13">
         <v>639</v>
@@ -12589,10 +12586,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C124" s="13">
         <v>639</v>
@@ -12600,10 +12597,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C125" s="13">
         <v>572</v>
@@ -12611,10 +12608,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C126" s="13">
         <v>5169</v>
@@ -12622,10 +12619,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C127" s="13">
         <v>4084</v>
@@ -12633,10 +12630,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C128" s="13">
         <v>1547</v>
@@ -12644,10 +12641,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C129" s="13">
         <v>1468</v>
@@ -12655,10 +12652,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C130" s="13">
         <v>1338</v>
@@ -12666,10 +12663,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C131" s="13">
         <v>1247</v>
@@ -12677,10 +12674,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C132" s="13">
         <v>1103</v>
@@ -12688,10 +12685,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C133" s="13">
         <v>880</v>
@@ -12699,10 +12696,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C134" s="13">
         <v>680</v>
@@ -12710,10 +12707,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C135" s="13">
         <v>523</v>
@@ -12721,10 +12718,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C136" s="13">
         <v>2972</v>
@@ -12732,10 +12729,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C137" s="13">
         <v>2487</v>
@@ -12743,10 +12740,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C138" s="13">
         <v>822</v>
@@ -12754,10 +12751,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C139" s="13">
         <v>750</v>
@@ -12765,10 +12762,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C140" s="13">
         <v>566</v>
@@ -12776,10 +12773,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C141" s="13">
         <v>480</v>
@@ -12787,10 +12784,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C142" s="13">
         <v>440</v>
@@ -12798,10 +12795,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C143" s="13">
         <v>430</v>
@@ -12809,10 +12806,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C144" s="13">
         <v>311</v>
@@ -12820,10 +12817,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C145" s="13">
         <v>278</v>
@@ -12831,10 +12828,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C146" s="13">
         <v>2065</v>
@@ -12842,10 +12839,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C147" s="13">
         <v>1994</v>
@@ -12853,10 +12850,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C148" s="13">
         <v>784</v>
@@ -12864,10 +12861,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C149" s="13">
         <v>576</v>
@@ -12875,10 +12872,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C150" s="13">
         <v>443</v>
@@ -12886,10 +12883,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C151" s="13">
         <v>387</v>
@@ -12897,10 +12894,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C152" s="13">
         <v>344</v>
@@ -12908,10 +12905,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C153" s="13">
         <v>293</v>
@@ -12919,10 +12916,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C154" s="13">
         <v>268</v>
@@ -12930,10 +12927,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C155" s="13">
         <v>192</v>
@@ -12941,10 +12938,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C156" s="13">
         <v>7356</v>
@@ -12952,10 +12949,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C157" s="13">
         <v>4520</v>
@@ -12963,10 +12960,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C158" s="13">
         <v>1952</v>
@@ -12974,10 +12971,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C159" s="13">
         <v>1332</v>
@@ -12985,10 +12982,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C160" s="13">
         <v>1304</v>
@@ -12996,10 +12993,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C161" s="13">
         <v>1115</v>
@@ -13007,10 +13004,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C162" s="13">
         <v>980</v>
@@ -13018,10 +13015,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C163" s="13">
         <v>811</v>
@@ -13029,10 +13026,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C164" s="13">
         <v>695</v>
@@ -13040,10 +13037,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C165" s="13">
         <v>527</v>
@@ -13051,10 +13048,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C166" s="13">
         <v>665</v>
@@ -13062,10 +13059,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C167" s="13">
         <v>591</v>
@@ -13073,10 +13070,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C168" s="13">
         <v>450</v>
@@ -13084,10 +13081,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C169" s="13">
         <v>407</v>
@@ -13095,10 +13092,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C170" s="13">
         <v>301</v>
@@ -13106,10 +13103,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C171" s="13">
         <v>267</v>
@@ -13117,10 +13114,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C172" s="13">
         <v>246</v>
@@ -13128,10 +13125,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C173" s="13">
         <v>243</v>
@@ -13139,10 +13136,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C174" s="13">
         <v>181</v>
@@ -13150,10 +13147,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C175" s="13">
         <v>102</v>
@@ -13161,10 +13158,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C176" s="13">
         <v>3876</v>
@@ -13172,10 +13169,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C177" s="13">
         <v>3644</v>
@@ -13183,10 +13180,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C178" s="13">
         <v>1475</v>
@@ -13194,10 +13191,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C179" s="13">
         <v>1056</v>
@@ -13205,10 +13202,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="C180" s="13">
         <v>852</v>
@@ -13216,10 +13213,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C181" s="13">
         <v>650</v>
@@ -13227,10 +13224,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C182" s="13">
         <v>568</v>
@@ -13238,10 +13235,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C183" s="13">
         <v>498</v>
@@ -13249,10 +13246,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C184" s="13">
         <v>294</v>
@@ -13260,10 +13257,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C185" s="13">
         <v>185</v>
@@ -13288,15 +13285,15 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="B2" s="13">
         <v>8415</v>
@@ -13304,18 +13301,18 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B3" s="13">
         <v>5606</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="B4" s="13">
         <v>5115</v>
@@ -13323,7 +13320,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="B5" s="13">
         <v>4753</v>
@@ -13331,7 +13328,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B6" s="13">
         <v>4744</v>
@@ -13339,7 +13336,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="B7" s="13">
         <v>4243</v>
@@ -13347,7 +13344,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="B8" s="13">
         <v>3397</v>
@@ -13355,7 +13352,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="B9" s="13">
         <v>3335</v>
@@ -13363,7 +13360,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="B10" s="13">
         <v>2681</v>
@@ -13371,7 +13368,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="B11" s="13">
         <v>851</v>
@@ -13379,7 +13376,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="B12" s="13">
         <v>126</v>
@@ -13387,7 +13384,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="B13" s="13">
         <v>116</v>
@@ -13395,7 +13392,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="B14" s="13">
         <v>83</v>
@@ -13421,19 +13418,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C2" s="15">
         <f>SUM(C3:C15)</f>
         <v>166847</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G2" s="15">
         <f>SUM(G3:G15)</f>
@@ -13442,20 +13439,20 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C3" s="17">
         <v>21658</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="16" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G3" s="17">
         <v>26811</v>
@@ -13463,20 +13460,20 @@
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C4" s="17">
         <v>23878</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="19" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G4" s="17">
         <v>25710</v>
@@ -13484,20 +13481,20 @@
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C5" s="17">
         <v>26811</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="16" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G5" s="17">
         <v>24360</v>
@@ -13505,20 +13502,20 @@
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C6" s="17">
         <v>25710</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G6" s="17">
         <v>23878</v>
@@ -13526,20 +13523,20 @@
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C7" s="17">
         <v>24360</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="16" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G7" s="17">
         <v>21658</v>
@@ -13547,20 +13544,20 @@
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C8" s="17">
         <v>1774</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G8" s="17">
         <v>14745</v>
@@ -13568,20 +13565,20 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C9" s="17">
         <v>9741</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="16" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G9" s="17">
         <v>9741</v>
@@ -13589,20 +13586,20 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C10" s="17">
         <v>2092</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="16" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G10" s="17">
         <v>8195</v>
@@ -13610,20 +13607,20 @@
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C11" s="17">
         <v>8195</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="16" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G11" s="17">
         <v>4629</v>
@@ -13631,20 +13628,20 @@
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C12" s="17">
         <v>14745</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G12" s="17">
         <v>2092</v>
@@ -13652,20 +13649,20 @@
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C13" s="17">
         <v>1206</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G13" s="17">
         <v>2048</v>
@@ -13673,20 +13670,20 @@
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C14" s="17">
         <v>2048</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="19" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G14" s="17">
         <v>1774</v>
@@ -13694,20 +13691,20 @@
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C15" s="17">
         <v>4629</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="16" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G15" s="17">
         <v>1206</v>
@@ -13715,20 +13712,20 @@
     </row>
     <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="B30" s="20">
         <v>20024</v>
@@ -13736,7 +13733,7 @@
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B31" s="20">
         <v>19037</v>
@@ -13744,7 +13741,7 @@
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B32" s="20">
         <v>17839</v>
@@ -13752,7 +13749,7 @@
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B33" s="20">
         <v>11729</v>
@@ -13760,7 +13757,7 @@
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B34" s="20">
         <v>9886</v>
@@ -13768,7 +13765,7 @@
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B35" s="20">
         <v>6496</v>
@@ -13776,7 +13773,7 @@
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B36" s="20">
         <v>6181</v>
@@ -13784,7 +13781,7 @@
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="B37" s="20">
         <v>1910</v>
@@ -13792,7 +13789,7 @@
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B38" s="20">
         <v>1449</v>
@@ -13800,7 +13797,7 @@
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B39" s="20">
         <v>1121</v>
@@ -13808,7 +13805,7 @@
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="B40" s="20">
         <v>604</v>
@@ -13816,7 +13813,7 @@
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B41" s="20">
         <v>550</v>
@@ -13824,7 +13821,7 @@
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="B42" s="20">
         <v>176</v>
@@ -13832,7 +13829,7 @@
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="B43" s="20">
         <v>84</v>
@@ -13861,15 +13858,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="B2" s="13">
         <v>16439</v>
@@ -13877,7 +13874,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="B3" s="13">
         <v>13142</v>
@@ -13885,7 +13882,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="B4" s="13">
         <v>11056</v>
@@ -13893,7 +13890,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="B5" s="13">
         <v>9397</v>
@@ -13901,7 +13898,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="B6" s="13">
         <v>7955</v>
@@ -13909,7 +13906,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="B7" s="13">
         <v>6237</v>
@@ -13917,7 +13914,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="B8" s="13">
         <v>5433</v>

--- a/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
+++ b/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\Sem 1\ELEN4002 Capstone Project\Code\Team-Riot\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522336D6-CEEF-4B97-B173-CF31A363C59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48FF163-373B-42F3-82E8-C93272175B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts and Phrases" sheetId="1" r:id="rId1"/>
@@ -198,9 +198,6 @@
     <t>Libraries</t>
   </si>
   <si>
-    <t>Library</t>
-  </si>
-  <si>
     <t>Biblioteek</t>
   </si>
   <si>
@@ -1197,9 +1194,6 @@
     <t>intimidate</t>
   </si>
   <si>
-    <t>Municipality</t>
-  </si>
-  <si>
     <t>%NOT% taxi</t>
   </si>
   <si>
@@ -1212,33 +1206,18 @@
     <t>Capitalism,neoliberalism,privatisation,privatise</t>
   </si>
   <si>
-    <t>contracts expire,project end,completed</t>
-  </si>
-  <si>
     <t>destroyed,evicted,demolished,relocated,removal</t>
   </si>
   <si>
-    <t>School,university,students</t>
-  </si>
-  <si>
     <t>fees,costs,teacher,permission,results,policy,allowed,shortage,not used,closed,residence</t>
   </si>
   <si>
     <t xml:space="preserve">outcome,result,winner,unfair,cheat,wrong,councillor  </t>
   </si>
   <si>
-    <t>Electricity,Power,connections</t>
-  </si>
-  <si>
-    <t>Work,workers,Company,Employ,employer,employee,Labour,Industrial,Bosses,strike,management</t>
-  </si>
-  <si>
     <t>corrupt,fired,dismissed,policy,other people,hours,overtime,equipment,tools,salary,wages,cheque,food,water,transport,housing,accommodation,health,safety,living conditions,management,race,racism,racist,discrimination,subsidy,allowance,training,white,promotion,working conditions,increase,unfair,poor,injustice,unjust</t>
   </si>
   <si>
-    <t>healthcare,nurses,hospital,clinic,doctors</t>
-  </si>
-  <si>
     <t>suspect,criminal</t>
   </si>
   <si>
@@ -1248,21 +1227,12 @@
     <t>Licence,permit,permits,licenses</t>
   </si>
   <si>
-    <t xml:space="preserve">Mining,pollution,dirty,air,noise,cracking,cracked,fracking </t>
-  </si>
-  <si>
     <t>Not arrive,not come,failed to arrive,failed to come,not respond,not answer</t>
   </si>
   <si>
     <t>Bills,billing,rates,council tax,corrupt,corruption,illegal,council,councillor,mayor,failed,waited,long time,years,consultation,feedback,information,old councillor,reinstated,reinstate,reappointed,put back,toilets,sanitation,pipes,water</t>
   </si>
   <si>
-    <t>Government,National</t>
-  </si>
-  <si>
-    <t>Inspectors,expired</t>
-  </si>
-  <si>
     <t>Police,SAPS</t>
   </si>
   <si>
@@ -1272,9 +1242,6 @@
     <t>problem,dispute,challenge,fight,protest,gather,demonstrate</t>
   </si>
   <si>
-    <t>Ratepayers,taxpayers,association</t>
-  </si>
-  <si>
     <t>Witchcraft,from the dead,muti</t>
   </si>
   <si>
@@ -1407,18 +1374,12 @@
     <t>their rights,recognition</t>
   </si>
   <si>
-    <t>Foreigners,somali,Zimbabwe,xenophobic,xenophobia</t>
-  </si>
-  <si>
     <t>Housing,land,stands</t>
   </si>
   <si>
     <t>Embassy,solidarily with the people of,war,the situation in</t>
   </si>
   <si>
-    <t>Disaster,flood,collapse,tornado,storm</t>
-  </si>
-  <si>
     <t>court,hearing</t>
   </si>
   <si>
@@ -1437,12 +1398,6 @@
     <t>service delivery</t>
   </si>
   <si>
-    <t>water,poor roads,quality of roads,quality of the roads,quality roads</t>
-  </si>
-  <si>
-    <t>COSATU,NUMSA,national strike</t>
-  </si>
-  <si>
     <t>Capitalism,privatisation,prvatise,privatize,privatization</t>
   </si>
   <si>
@@ -1492,6 +1447,51 @@
   </si>
   <si>
     <t>Empowerment,Rights</t>
+  </si>
+  <si>
+    <t>contracts expire,project end,completed,contract end</t>
+  </si>
+  <si>
+    <t>School,university,students,student</t>
+  </si>
+  <si>
+    <t>Electricity,Power,connections,loadshedding,load shedding</t>
+  </si>
+  <si>
+    <t>Work,workers,Company,Employ,employer,employee,Labour,Industrial,Bosses,strike,management,worker,boss</t>
+  </si>
+  <si>
+    <t>Foreigners,somali,Zimbabwe,xenophobic,xenophobia,foreigner</t>
+  </si>
+  <si>
+    <t>healthcare,nurses,hospital,clinic,doctors,nurse,doctor</t>
+  </si>
+  <si>
+    <t>Mining,pollution,dirty,air,noise,cracking,cracked,fracking,miner</t>
+  </si>
+  <si>
+    <t>Municipality,munucipalities</t>
+  </si>
+  <si>
+    <t>Government,National,govt</t>
+  </si>
+  <si>
+    <t>Inspectors,expired,inspector</t>
+  </si>
+  <si>
+    <t>Library,libraries</t>
+  </si>
+  <si>
+    <t>Disaster,flood,collapse,tornado,storm,earthquake,sink hole,land slide,cyclone,hurricane</t>
+  </si>
+  <si>
+    <t>water,poor roads,quality of roads,quality of the roads,quality roads,pot hole, pot holes</t>
+  </si>
+  <si>
+    <t>Ratepayers,taxpayers,association,rate payer, tax payer</t>
+  </si>
+  <si>
+    <t>COSATU,NUMSA,national strike,nationwide strike</t>
   </si>
 </sst>
 </file>
@@ -4014,7 +4014,7 @@
   <dimension ref="A1:F987"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4037,10 +4037,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>3</v>
@@ -4054,7 +4054,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>6</v>
@@ -4071,7 +4071,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="24" t="s">
@@ -4089,7 +4089,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="24" t="s">
@@ -4107,7 +4107,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>388</v>
+        <v>467</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="24" t="s">
@@ -4125,7 +4125,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="24" t="s">
@@ -4143,7 +4143,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="24" t="s">
@@ -4161,10 +4161,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>390</v>
+        <v>468</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>20</v>
@@ -4181,10 +4181,10 @@
         <v>21</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>22</v>
@@ -4201,10 +4201,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>393</v>
+        <v>469</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>24</v>
@@ -4221,10 +4221,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>394</v>
+        <v>470</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="25" t="s">
@@ -4239,7 +4239,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="24" t="s">
@@ -4257,7 +4257,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>396</v>
+        <v>472</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="24" t="s">
@@ -4275,7 +4275,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="24" t="s">
@@ -4293,7 +4293,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="24" t="s">
@@ -4311,10 +4311,10 @@
         <v>33</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>34</v>
@@ -4331,10 +4331,10 @@
         <v>35</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>36</v>
@@ -4351,7 +4351,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="24" t="s">
@@ -4369,7 +4369,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="24" t="s">
@@ -4387,7 +4387,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="24" t="s">
@@ -4405,7 +4405,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="24" t="s">
@@ -4423,10 +4423,10 @@
         <v>44</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>383</v>
+        <v>474</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>45</v>
@@ -4443,7 +4443,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>403</v>
+        <v>475</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="24" t="s">
@@ -4461,7 +4461,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>404</v>
+        <v>476</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="24" t="s">
@@ -4479,11 +4479,11 @@
         <v>49</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>50</v>
+        <v>477</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>8</v>
@@ -4494,52 +4494,52 @@
         <v>4</v>
       </c>
       <c r="B26" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>406</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>8</v>
@@ -4550,14 +4550,14 @@
         <v>4</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>8</v>
@@ -4568,14 +4568,14 @@
         <v>4</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>8</v>
@@ -4586,14 +4586,14 @@
         <v>4</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>8</v>
@@ -4604,10 +4604,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="24" t="s">
@@ -4622,14 +4622,14 @@
         <v>4</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="25" t="s">
         <v>8</v>
@@ -4640,16 +4640,16 @@
         <v>4</v>
       </c>
       <c r="B34" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>67</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>458</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>68</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>8</v>
@@ -4660,16 +4660,16 @@
         <v>4</v>
       </c>
       <c r="B35" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>70</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>8</v>
@@ -4680,14 +4680,14 @@
         <v>4</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>8</v>
@@ -4698,16 +4698,16 @@
         <v>4</v>
       </c>
       <c r="B37" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="E37" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>8</v>
@@ -4723,564 +4723,564 @@
     </row>
     <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="24" t="s">
-        <v>76</v>
-      </c>
       <c r="C39" s="25" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E45" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>90</v>
-      </c>
       <c r="F45" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="C53" s="29" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="25" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="F54" s="25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>109</v>
-      </c>
       <c r="C55" s="29" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B56" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="E56" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>112</v>
-      </c>
       <c r="F56" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="D58" s="29"/>
       <c r="E58" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D61" s="29"/>
       <c r="E61" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>123</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>124</v>
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B64" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>128</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>129</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D65" s="25"/>
       <c r="E65" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D66" s="25"/>
       <c r="E66" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="F66" s="25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="s">
+      <c r="B68" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="C68" s="29" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="24" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5293,128 +5293,128 @@
     </row>
     <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="24" t="s">
-        <v>145</v>
-      </c>
       <c r="C73" s="29" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D73" s="29"/>
       <c r="E73" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F73" s="25" t="s">
         <v>146</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D75" s="25"/>
       <c r="E75" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D78" s="25"/>
       <c r="E78" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5427,58 +5427,58 @@
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="24" t="s">
-        <v>160</v>
-      </c>
       <c r="C81" s="29" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" s="25" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B82" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="E82" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="29" t="s">
-        <v>440</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>164</v>
-      </c>
       <c r="F82" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5491,40 +5491,40 @@
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="C85" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="E85" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="E85" s="24" t="s">
+      <c r="F85" s="25" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5537,38 +5537,38 @@
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="24" t="s">
-        <v>174</v>
-      </c>
       <c r="C88" s="29" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" s="25" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5581,200 +5581,200 @@
     </row>
     <row r="91" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="C91" s="29" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" s="29" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F94" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F95" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="D96" s="29"/>
       <c r="E96" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F96" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D97" s="29"/>
       <c r="E97" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="D98" s="29"/>
       <c r="E98" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F98" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="D100" s="29"/>
       <c r="E100" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F100" s="29" t="s">
         <v>198</v>
-      </c>
-      <c r="F100" s="29" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -8466,13 +8466,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="L1" s="10">
         <f>SUM(L2:L8)</f>
@@ -8481,16 +8481,16 @@
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" s="13">
         <v>28423</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L2" s="13">
         <v>2414</v>
@@ -8498,16 +8498,16 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B3" s="13">
         <v>14910</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L3" s="13">
         <v>1989</v>
@@ -8515,16 +8515,16 @@
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" s="13">
         <v>14356</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L4" s="13">
         <f>12271+394+52</f>
@@ -8533,16 +8533,16 @@
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B5" s="13">
         <v>5338</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L5" s="13">
         <v>1646</v>
@@ -8550,10 +8550,10 @@
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="J6" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L6" s="13">
         <f>5856+126+1996</f>
@@ -8562,10 +8562,10 @@
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="J7" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L7" s="13">
         <v>100</v>
@@ -8573,10 +8573,10 @@
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="J8" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L8" s="13">
         <f>925+311</f>
@@ -8589,18 +8589,18 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="E23" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -8608,7 +8608,7 @@
         <v>1997</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G24" s="13">
         <v>161</v>
@@ -8619,7 +8619,7 @@
         <v>1997</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G25" s="13">
         <v>889</v>
@@ -8630,7 +8630,7 @@
         <v>1997</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G26" s="13">
         <v>548</v>
@@ -8641,7 +8641,7 @@
         <v>1997</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G27" s="13">
         <v>812</v>
@@ -8652,7 +8652,7 @@
         <v>1998</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G28" s="13">
         <v>418</v>
@@ -8663,7 +8663,7 @@
         <v>1998</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G29" s="13">
         <v>1278</v>
@@ -8674,7 +8674,7 @@
         <v>1998</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G30" s="13">
         <v>709</v>
@@ -8685,7 +8685,7 @@
         <v>1998</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G31" s="13">
         <v>860</v>
@@ -8696,7 +8696,7 @@
         <v>1999</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G32" s="13">
         <v>322</v>
@@ -8707,7 +8707,7 @@
         <v>1999</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G33" s="13">
         <v>1153</v>
@@ -8718,7 +8718,7 @@
         <v>1999</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G34" s="13">
         <v>939</v>
@@ -8729,7 +8729,7 @@
         <v>1999</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G35" s="13">
         <v>554</v>
@@ -8740,7 +8740,7 @@
         <v>2000</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G36" s="13">
         <v>326</v>
@@ -8751,7 +8751,7 @@
         <v>2000</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G37" s="13">
         <v>1244</v>
@@ -8762,7 +8762,7 @@
         <v>2000</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G38" s="13">
         <v>686</v>
@@ -8773,7 +8773,7 @@
         <v>2000</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G39" s="13">
         <v>495</v>
@@ -8784,7 +8784,7 @@
         <v>2001</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G40" s="13">
         <v>336</v>
@@ -8795,7 +8795,7 @@
         <v>2001</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G41" s="13">
         <v>1223</v>
@@ -8806,7 +8806,7 @@
         <v>2001</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G42" s="13">
         <v>503</v>
@@ -8817,7 +8817,7 @@
         <v>2001</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G43" s="13">
         <v>515</v>
@@ -8828,7 +8828,7 @@
         <v>2002</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G44" s="13">
         <v>255</v>
@@ -8839,7 +8839,7 @@
         <v>2002</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G45" s="13">
         <v>1056</v>
@@ -8850,7 +8850,7 @@
         <v>2002</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G46" s="13">
         <v>380</v>
@@ -8861,7 +8861,7 @@
         <v>2002</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G47" s="13">
         <v>345</v>
@@ -8872,7 +8872,7 @@
         <v>2003</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G48" s="13">
         <v>304</v>
@@ -8883,7 +8883,7 @@
         <v>2003</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G49" s="13">
         <v>1169</v>
@@ -8894,7 +8894,7 @@
         <v>2003</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G50" s="13">
         <v>484</v>
@@ -8905,7 +8905,7 @@
         <v>2003</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G51" s="13">
         <v>375</v>
@@ -8916,7 +8916,7 @@
         <v>2004</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G52" s="13">
         <v>313</v>
@@ -8927,7 +8927,7 @@
         <v>2004</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G53" s="13">
         <v>1418</v>
@@ -8938,7 +8938,7 @@
         <v>2004</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G54" s="13">
         <v>949</v>
@@ -8949,7 +8949,7 @@
         <v>2004</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G55" s="13">
         <v>545</v>
@@ -8960,7 +8960,7 @@
         <v>2005</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G56" s="13">
         <v>292</v>
@@ -8971,7 +8971,7 @@
         <v>2005</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G57" s="13">
         <v>1971</v>
@@ -8982,7 +8982,7 @@
         <v>2005</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G58" s="13">
         <v>623</v>
@@ -8993,7 +8993,7 @@
         <v>2005</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G59" s="13">
         <v>862</v>
@@ -9004,7 +9004,7 @@
         <v>2006</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G60" s="13">
         <v>346</v>
@@ -9015,7 +9015,7 @@
         <v>2006</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G61" s="13">
         <v>1768</v>
@@ -9026,7 +9026,7 @@
         <v>2006</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G62" s="13">
         <v>1062</v>
@@ -9037,7 +9037,7 @@
         <v>2006</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G63" s="13">
         <v>1163</v>
@@ -9048,7 +9048,7 @@
         <v>2007</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G64" s="13">
         <v>242</v>
@@ -9059,7 +9059,7 @@
         <v>2007</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G65" s="13">
         <v>1471</v>
@@ -9070,7 +9070,7 @@
         <v>2007</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G66" s="13">
         <v>408</v>
@@ -9081,7 +9081,7 @@
         <v>2007</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G67" s="13">
         <v>1384</v>
@@ -9092,7 +9092,7 @@
         <v>2008</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G68" s="13">
         <v>216</v>
@@ -9103,7 +9103,7 @@
         <v>2008</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G69" s="13">
         <v>1466</v>
@@ -9114,7 +9114,7 @@
         <v>2008</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G70" s="13">
         <v>717</v>
@@ -9125,7 +9125,7 @@
         <v>2008</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G71" s="13">
         <v>551</v>
@@ -9136,7 +9136,7 @@
         <v>2009</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G72" s="13">
         <v>257</v>
@@ -9147,7 +9147,7 @@
         <v>2009</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G73" s="13">
         <v>1874</v>
@@ -9158,7 +9158,7 @@
         <v>2009</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G74" s="13">
         <v>1506</v>
@@ -9169,7 +9169,7 @@
         <v>2009</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G75" s="13">
         <v>781</v>
@@ -9180,7 +9180,7 @@
         <v>2010</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G76" s="13">
         <v>249</v>
@@ -9191,7 +9191,7 @@
         <v>2010</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G77" s="13">
         <v>1956</v>
@@ -9202,7 +9202,7 @@
         <v>2010</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G78" s="13">
         <v>864</v>
@@ -9213,7 +9213,7 @@
         <v>2010</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G79" s="13">
         <v>1686</v>
@@ -9224,7 +9224,7 @@
         <v>2011</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G80" s="13">
         <v>323</v>
@@ -9235,7 +9235,7 @@
         <v>2011</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G81" s="13">
         <v>2487</v>
@@ -9246,7 +9246,7 @@
         <v>2011</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G82" s="13">
         <v>1801</v>
@@ -9257,7 +9257,7 @@
         <v>2011</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G83" s="13">
         <v>975</v>
@@ -9268,7 +9268,7 @@
         <v>2012</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G84" s="13">
         <v>443</v>
@@ -9279,7 +9279,7 @@
         <v>2012</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G85" s="13">
         <v>3093</v>
@@ -9290,7 +9290,7 @@
         <v>2012</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G86" s="13">
         <v>1348</v>
@@ -9301,7 +9301,7 @@
         <v>2012</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G87" s="13">
         <v>1142</v>
@@ -9312,7 +9312,7 @@
         <v>2013</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G88" s="13">
         <v>535</v>
@@ -9323,7 +9323,7 @@
         <v>2013</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G89" s="13">
         <v>2907</v>
@@ -9334,7 +9334,7 @@
         <v>2013</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G90" s="13">
         <v>1383</v>
@@ -9345,7 +9345,7 @@
         <v>2013</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G91" s="13">
         <v>1311</v>
@@ -9374,10 +9374,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21">
@@ -9387,16 +9387,16 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B2" s="22">
         <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2">
         <f>SUM(B5,B8,B9,B12,B15,B26,B27,B31,B22)</f>
@@ -9405,16 +9405,16 @@
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B3" s="22">
         <v>223</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3">
         <f>SUM(B11,B28)</f>
@@ -9423,16 +9423,16 @@
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" s="22">
         <v>230</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4">
         <f>SUM(B13,B23,B24,)</f>
@@ -9441,16 +9441,16 @@
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" s="22">
         <v>255</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5">
         <f>SUM(B6,B7)</f>
@@ -9459,16 +9459,16 @@
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B6" s="22">
         <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6">
         <f>SUM(B14,)</f>
@@ -9477,16 +9477,16 @@
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B7" s="22">
         <v>180</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7">
         <f>SUM(B16,B17,B18,B19,B21,B30)</f>
@@ -9495,16 +9495,16 @@
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B8" s="22">
         <v>1391</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8">
         <f>SUM(B25)</f>
@@ -9513,16 +9513,16 @@
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B9" s="22">
         <v>778</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9">
         <f>SUM(B2,B3,B4, B29)</f>
@@ -9531,16 +9531,16 @@
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B10" s="22">
         <v>503</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10">
         <f>SUM(B20)</f>
@@ -9549,16 +9549,16 @@
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B11" s="22">
         <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11">
         <f>B10</f>
@@ -9567,7 +9567,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B12" s="22">
         <v>1860</v>
@@ -9575,13 +9575,13 @@
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B13" s="22">
         <v>178</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21">
@@ -9591,16 +9591,16 @@
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B14" s="22">
         <v>133</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14">
         <f>SUM(B17,B20,B21,B24,B27,B38,B39,B43,B34)</f>
@@ -9609,16 +9609,16 @@
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B15" s="22">
         <v>134</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15">
         <f>SUM(B24,B34,B35,)</f>
@@ -9627,16 +9627,16 @@
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B16" s="22">
         <v>4147</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16">
         <f>SUM(B9,B10,B11, B36)</f>
@@ -9645,16 +9645,16 @@
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B17" s="22">
         <v>128</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17">
         <f>SUM(B34)</f>
@@ -9663,16 +9663,16 @@
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B18" s="22">
         <v>694</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18">
         <f>SUM(B27,B28,B29,B30,B32,B41)</f>
@@ -9681,16 +9681,16 @@
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B19" s="22">
         <v>135</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F19">
         <f>SUM(B27,B44)</f>
@@ -9699,16 +9699,16 @@
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B20" s="22">
         <v>95</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20">
         <f>B19</f>
@@ -9717,16 +9717,16 @@
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B21" s="22">
         <v>1408</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21">
         <f>SUM(B29,)</f>
@@ -9735,16 +9735,16 @@
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B22" s="22">
         <v>1966</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22">
         <f>SUM(B23,B24)</f>
@@ -9753,16 +9753,16 @@
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B23" s="22">
         <v>710</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F23">
         <f>SUM(B33)</f>
@@ -9771,7 +9771,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B24" s="22">
         <v>216</v>
@@ -9779,7 +9779,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B25" s="22">
         <v>154</v>
@@ -9787,7 +9787,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B26" s="22">
         <v>933</v>
@@ -9795,7 +9795,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B27" s="22">
         <v>1000</v>
@@ -9803,7 +9803,7 @@
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B28" s="22">
         <v>146</v>
@@ -9811,7 +9811,7 @@
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B29" s="22">
         <v>314</v>
@@ -9819,7 +9819,7 @@
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B30" s="22">
         <v>196</v>
@@ -9827,7 +9827,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B31" s="22">
         <v>98</v>
@@ -9835,409 +9835,409 @@
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B34" s="13">
         <v>6087</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" s="13">
         <v>5654</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" s="13">
         <v>5183</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B37" s="13">
         <v>4677</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" s="13">
         <v>3312</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B39" s="13">
         <v>2609</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B40" s="13">
         <v>2352</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B41" s="13">
         <v>2326</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B42" s="13">
         <v>2321</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B43" s="13">
         <v>2094</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B44" s="13">
         <v>2039</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B45" s="13">
         <v>2035</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B46" s="13">
         <v>1911</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B47" s="13">
         <v>1852</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B48" s="13">
         <v>1713</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B49" s="13">
         <v>1632</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B50" s="13">
         <v>1606</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B51" s="13">
         <v>1482</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B52" s="13">
         <v>1456</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B53" s="13">
         <v>1228</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B54" s="13">
         <v>1185</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B55" s="13">
         <v>910</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B56" s="13">
         <v>891</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B57" s="13">
         <v>774</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B58" s="13">
         <v>738</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B59" s="13">
         <v>736</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B60" s="13">
         <v>703</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B61" s="13">
         <v>684</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B62" s="13">
         <v>680</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B63" s="13">
         <v>641</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B64" s="13">
         <v>555</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B65" s="13">
         <v>424</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B66" s="13">
         <v>192</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B67" s="13">
         <v>189</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B68" s="13">
         <v>105</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B69" s="13">
         <v>49</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -10258,7 +10258,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -10294,13 +10294,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10346,56 +10346,56 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -10434,294 +10434,294 @@
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="F19" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="F21" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -10748,60 +10748,60 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F2" s="8">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H2" s="1">
         <v>0.7</v>
@@ -10830,27 +10830,27 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -10875,15 +10875,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" s="12">
         <v>34821</v>
@@ -10892,7 +10892,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="12">
         <v>24483</v>
@@ -10901,7 +10901,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B4" s="12">
         <v>8328</v>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B6" s="12">
         <v>7111</v>
@@ -10937,7 +10937,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="12">
         <v>5766</v>
@@ -10964,7 +10964,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" s="12">
         <v>3486</v>
@@ -10973,7 +10973,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="12">
         <v>3295</v>
@@ -10982,7 +10982,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="12">
         <v>2750</v>
@@ -10991,7 +10991,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14" s="12">
         <v>2169</v>
@@ -11009,7 +11009,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B16" s="12">
         <v>1689</v>
@@ -11027,7 +11027,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B18" s="12">
         <v>1045</v>
@@ -11044,7 +11044,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B20" s="13">
         <v>891</v>
@@ -11060,7 +11060,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B22" s="13">
         <v>751</v>
@@ -11076,7 +11076,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="13">
         <v>672</v>
@@ -11084,7 +11084,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B25" s="13">
         <v>489</v>
@@ -11092,7 +11092,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" s="13">
         <v>446</v>
@@ -11100,7 +11100,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" s="13">
         <v>426</v>
@@ -11108,7 +11108,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B28" s="13">
         <v>374</v>
@@ -11116,7 +11116,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B29" s="13">
         <v>354</v>
@@ -11124,7 +11124,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B30" s="13">
         <v>309</v>
@@ -11132,7 +11132,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" s="13">
         <v>246</v>
@@ -11140,7 +11140,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="13">
         <v>163</v>
@@ -11148,7 +11148,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B33" s="13">
         <v>148</v>
@@ -11156,7 +11156,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B34" s="13">
         <v>137</v>
@@ -11180,7 +11180,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B37" s="13">
         <v>55</v>
@@ -11215,38 +11215,38 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C2" s="13">
         <v>4823</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="13">
         <v>1462</v>
@@ -11255,10 +11255,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C4" s="13">
         <v>837</v>
@@ -11267,10 +11267,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="13">
         <v>821</v>
@@ -11278,7 +11278,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>30</v>
@@ -11290,7 +11290,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>28</v>
@@ -11302,7 +11302,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>35</v>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>19</v>
@@ -11326,10 +11326,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="13">
         <v>386</v>
@@ -11338,10 +11338,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" s="13">
         <v>380</v>
@@ -11350,10 +11350,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C12" s="13">
         <v>1165</v>
@@ -11362,10 +11362,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="13">
         <v>821</v>
@@ -11374,7 +11374,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>35</v>
@@ -11386,10 +11386,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" s="13">
         <v>627</v>
@@ -11398,7 +11398,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>28</v>
@@ -11410,7 +11410,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>19</v>
@@ -11422,10 +11422,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="13">
         <v>406</v>
@@ -11434,7 +11434,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>30</v>
@@ -11446,10 +11446,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="13">
         <v>357</v>
@@ -11457,10 +11457,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C21" s="13">
         <v>274</v>
@@ -11468,10 +11468,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C22" s="13">
         <v>6962</v>
@@ -11479,10 +11479,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="13">
         <v>4648</v>
@@ -11490,7 +11490,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>30</v>
@@ -11501,10 +11501,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C25" s="13">
         <v>1151</v>
@@ -11512,7 +11512,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>28</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>35</v>
@@ -11534,10 +11534,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="13">
         <v>754</v>
@@ -11545,7 +11545,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>19</v>
@@ -11556,10 +11556,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="13">
         <v>639</v>
@@ -11567,10 +11567,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C31" s="13">
         <v>572</v>
@@ -11578,10 +11578,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C32" s="13">
         <v>5169</v>
@@ -11589,10 +11589,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="13">
         <v>4084</v>
@@ -11600,10 +11600,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C34" s="13">
         <v>1547</v>
@@ -11611,10 +11611,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35" s="13">
         <v>1468</v>
@@ -11622,7 +11622,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>19</v>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>30</v>
@@ -11644,10 +11644,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="13">
         <v>1103</v>
@@ -11655,7 +11655,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>28</v>
@@ -11666,7 +11666,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>35</v>
@@ -11677,10 +11677,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C41" s="13">
         <v>523</v>
@@ -11688,10 +11688,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C42" s="13">
         <v>2972</v>
@@ -11699,10 +11699,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="13">
         <v>2487</v>
@@ -11710,10 +11710,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="13">
         <v>822</v>
@@ -11721,10 +11721,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C45" s="13">
         <v>750</v>
@@ -11732,10 +11732,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C46" s="13">
         <v>566</v>
@@ -11743,7 +11743,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>35</v>
@@ -11754,7 +11754,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>28</v>
@@ -11765,7 +11765,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>30</v>
@@ -11776,7 +11776,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>19</v>
@@ -11787,10 +11787,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C51" s="13">
         <v>278</v>
@@ -11798,10 +11798,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C52" s="13">
         <v>2065</v>
@@ -11809,10 +11809,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="13">
         <v>1994</v>
@@ -11820,10 +11820,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C54" s="13">
         <v>784</v>
@@ -11831,10 +11831,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C55" s="13">
         <v>576</v>
@@ -11842,10 +11842,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" s="13">
         <v>443</v>
@@ -11853,7 +11853,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>19</v>
@@ -11864,7 +11864,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>30</v>
@@ -11875,7 +11875,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>28</v>
@@ -11886,7 +11886,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>35</v>
@@ -11897,10 +11897,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C61" s="13">
         <v>192</v>
@@ -11908,10 +11908,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C62" s="13">
         <v>7356</v>
@@ -11919,10 +11919,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="13">
         <v>4520</v>
@@ -11930,10 +11930,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C64" s="13">
         <v>1952</v>
@@ -11941,10 +11941,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="13">
         <v>1332</v>
@@ -11952,10 +11952,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C66" s="13">
         <v>1304</v>
@@ -11963,7 +11963,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>35</v>
@@ -11974,7 +11974,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>30</v>
@@ -11985,7 +11985,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>28</v>
@@ -11996,7 +11996,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>19</v>
@@ -12007,10 +12007,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C71" s="13">
         <v>527</v>
@@ -12018,10 +12018,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C72" s="13">
         <v>665</v>
@@ -12029,10 +12029,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="13">
         <v>591</v>
@@ -12040,10 +12040,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C74" s="13">
         <v>450</v>
@@ -12051,10 +12051,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C75" s="13">
         <v>407</v>
@@ -12062,10 +12062,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C76" s="13">
         <v>301</v>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>30</v>
@@ -12084,7 +12084,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>28</v>
@@ -12095,7 +12095,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>35</v>
@@ -12106,10 +12106,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C80" s="13">
         <v>181</v>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>19</v>
@@ -12128,10 +12128,10 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C82" s="13">
         <v>3876</v>
@@ -12139,10 +12139,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C83" s="13">
         <v>3644</v>
@@ -12150,7 +12150,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>30</v>
@@ -12161,7 +12161,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>35</v>
@@ -12172,10 +12172,10 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C86" s="13">
         <v>852</v>
@@ -12183,10 +12183,10 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C87" s="13">
         <v>650</v>
@@ -12194,7 +12194,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>28</v>
@@ -12205,7 +12205,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>19</v>
@@ -12216,10 +12216,10 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C90" s="13">
         <v>294</v>
@@ -12227,10 +12227,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C91" s="13">
         <v>185</v>
@@ -12243,25 +12243,25 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>30</v>
@@ -12270,7 +12270,7 @@
         <v>28</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>19</v>
@@ -12278,10 +12278,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D96" s="13">
         <v>4823</v>
@@ -12310,31 +12310,31 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>30</v>
@@ -12342,7 +12342,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>28</v>
@@ -12350,7 +12350,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>35</v>
@@ -12358,7 +12358,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>19</v>
@@ -12366,10 +12366,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C104" s="13">
         <v>386</v>
@@ -12377,10 +12377,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C105" s="13">
         <v>380</v>
@@ -12388,10 +12388,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C106" s="13">
         <v>1165</v>
@@ -12399,10 +12399,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C107" s="13">
         <v>821</v>
@@ -12410,7 +12410,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>35</v>
@@ -12421,10 +12421,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C109" s="13">
         <v>627</v>
@@ -12432,7 +12432,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>28</v>
@@ -12443,7 +12443,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>19</v>
@@ -12454,10 +12454,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C112" s="13">
         <v>406</v>
@@ -12465,7 +12465,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>30</v>
@@ -12476,10 +12476,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C114" s="13">
         <v>357</v>
@@ -12487,10 +12487,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C115" s="13">
         <v>274</v>
@@ -12498,10 +12498,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C116" s="13">
         <v>6962</v>
@@ -12509,10 +12509,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C117" s="13">
         <v>4648</v>
@@ -12520,7 +12520,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>30</v>
@@ -12531,10 +12531,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C119" s="13">
         <v>1151</v>
@@ -12542,7 +12542,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>28</v>
@@ -12553,7 +12553,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>35</v>
@@ -12564,10 +12564,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C122" s="13">
         <v>754</v>
@@ -12575,7 +12575,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>19</v>
@@ -12586,10 +12586,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C124" s="13">
         <v>639</v>
@@ -12597,10 +12597,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C125" s="13">
         <v>572</v>
@@ -12608,10 +12608,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C126" s="13">
         <v>5169</v>
@@ -12619,10 +12619,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C127" s="13">
         <v>4084</v>
@@ -12630,10 +12630,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C128" s="13">
         <v>1547</v>
@@ -12641,10 +12641,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C129" s="13">
         <v>1468</v>
@@ -12652,7 +12652,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B130" s="11" t="s">
         <v>19</v>
@@ -12663,7 +12663,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B131" s="11" t="s">
         <v>30</v>
@@ -12674,10 +12674,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C132" s="13">
         <v>1103</v>
@@ -12685,7 +12685,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B133" s="11" t="s">
         <v>28</v>
@@ -12696,7 +12696,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>35</v>
@@ -12707,10 +12707,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C135" s="13">
         <v>523</v>
@@ -12718,10 +12718,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C136" s="13">
         <v>2972</v>
@@ -12729,10 +12729,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C137" s="13">
         <v>2487</v>
@@ -12740,10 +12740,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C138" s="13">
         <v>822</v>
@@ -12751,10 +12751,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C139" s="13">
         <v>750</v>
@@ -12762,10 +12762,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C140" s="13">
         <v>566</v>
@@ -12773,7 +12773,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>35</v>
@@ -12784,7 +12784,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>28</v>
@@ -12795,7 +12795,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>30</v>
@@ -12806,7 +12806,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B144" s="11" t="s">
         <v>19</v>
@@ -12817,10 +12817,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C145" s="13">
         <v>278</v>
@@ -12828,10 +12828,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C146" s="13">
         <v>2065</v>
@@ -12839,10 +12839,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C147" s="13">
         <v>1994</v>
@@ -12850,10 +12850,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C148" s="13">
         <v>784</v>
@@ -12861,10 +12861,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C149" s="13">
         <v>576</v>
@@ -12872,10 +12872,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C150" s="13">
         <v>443</v>
@@ -12883,7 +12883,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>19</v>
@@ -12894,7 +12894,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>30</v>
@@ -12905,7 +12905,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>28</v>
@@ -12916,7 +12916,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>35</v>
@@ -12927,10 +12927,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C155" s="13">
         <v>192</v>
@@ -12938,10 +12938,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C156" s="13">
         <v>7356</v>
@@ -12949,10 +12949,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C157" s="13">
         <v>4520</v>
@@ -12960,10 +12960,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C158" s="13">
         <v>1952</v>
@@ -12971,10 +12971,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C159" s="13">
         <v>1332</v>
@@ -12982,10 +12982,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C160" s="13">
         <v>1304</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>35</v>
@@ -13004,7 +13004,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>30</v>
@@ -13015,7 +13015,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>28</v>
@@ -13026,7 +13026,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B164" s="11" t="s">
         <v>19</v>
@@ -13037,10 +13037,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C165" s="13">
         <v>527</v>
@@ -13048,10 +13048,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C166" s="13">
         <v>665</v>
@@ -13059,10 +13059,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C167" s="13">
         <v>591</v>
@@ -13070,10 +13070,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C168" s="13">
         <v>450</v>
@@ -13081,10 +13081,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C169" s="13">
         <v>407</v>
@@ -13092,10 +13092,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C170" s="13">
         <v>301</v>
@@ -13103,7 +13103,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>30</v>
@@ -13114,7 +13114,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>28</v>
@@ -13125,7 +13125,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B173" s="11" t="s">
         <v>35</v>
@@ -13136,10 +13136,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C174" s="13">
         <v>181</v>
@@ -13147,7 +13147,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B175" s="11" t="s">
         <v>19</v>
@@ -13158,10 +13158,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C176" s="13">
         <v>3876</v>
@@ -13169,10 +13169,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C177" s="13">
         <v>3644</v>
@@ -13180,7 +13180,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B178" s="11" t="s">
         <v>30</v>
@@ -13191,7 +13191,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B179" s="11" t="s">
         <v>35</v>
@@ -13202,10 +13202,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C180" s="13">
         <v>852</v>
@@ -13213,10 +13213,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C181" s="13">
         <v>650</v>
@@ -13224,7 +13224,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B182" s="11" t="s">
         <v>28</v>
@@ -13235,7 +13235,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B183" s="11" t="s">
         <v>19</v>
@@ -13246,10 +13246,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C184" s="13">
         <v>294</v>
@@ -13257,10 +13257,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C185" s="13">
         <v>185</v>
@@ -13285,15 +13285,15 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B2" s="13">
         <v>8415</v>
@@ -13301,18 +13301,18 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="13">
         <v>5606</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4" s="13">
         <v>5115</v>
@@ -13320,7 +13320,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B5" s="13">
         <v>4753</v>
@@ -13328,7 +13328,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="13">
         <v>4744</v>
@@ -13336,7 +13336,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" s="13">
         <v>4243</v>
@@ -13344,7 +13344,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B8" s="13">
         <v>3397</v>
@@ -13352,7 +13352,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B9" s="13">
         <v>3335</v>
@@ -13360,7 +13360,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B10" s="13">
         <v>2681</v>
@@ -13368,7 +13368,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B11" s="13">
         <v>851</v>
@@ -13376,7 +13376,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B12" s="13">
         <v>126</v>
@@ -13384,7 +13384,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B13" s="13">
         <v>116</v>
@@ -13392,7 +13392,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B14" s="13">
         <v>83</v>
@@ -13418,19 +13418,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="15">
         <f>SUM(C3:C15)</f>
         <v>166847</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="15">
         <f>SUM(G3:G15)</f>
@@ -13439,20 +13439,20 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" s="17">
         <v>21658</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G3" s="17">
         <v>26811</v>
@@ -13460,20 +13460,20 @@
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="17">
         <v>23878</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G4" s="17">
         <v>25710</v>
@@ -13481,20 +13481,20 @@
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="17">
         <v>26811</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5" s="17">
         <v>24360</v>
@@ -13502,20 +13502,20 @@
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" s="17">
         <v>25710</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G6" s="17">
         <v>23878</v>
@@ -13523,20 +13523,20 @@
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="17">
         <v>24360</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G7" s="17">
         <v>21658</v>
@@ -13544,20 +13544,20 @@
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C8" s="17">
         <v>1774</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G8" s="17">
         <v>14745</v>
@@ -13565,20 +13565,20 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" s="17">
         <v>9741</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G9" s="17">
         <v>9741</v>
@@ -13586,20 +13586,20 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C10" s="17">
         <v>2092</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G10" s="17">
         <v>8195</v>
@@ -13607,20 +13607,20 @@
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" s="17">
         <v>8195</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G11" s="17">
         <v>4629</v>
@@ -13628,20 +13628,20 @@
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="17">
         <v>14745</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G12" s="17">
         <v>2092</v>
@@ -13649,20 +13649,20 @@
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" s="17">
         <v>1206</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G13" s="17">
         <v>2048</v>
@@ -13670,20 +13670,20 @@
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14" s="17">
         <v>2048</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G14" s="17">
         <v>1774</v>
@@ -13691,20 +13691,20 @@
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C15" s="17">
         <v>4629</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G15" s="17">
         <v>1206</v>
@@ -13712,20 +13712,20 @@
     </row>
     <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" s="20">
         <v>20024</v>
@@ -13733,7 +13733,7 @@
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="20">
         <v>19037</v>
@@ -13741,7 +13741,7 @@
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" s="20">
         <v>17839</v>
@@ -13749,7 +13749,7 @@
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="20">
         <v>11729</v>
@@ -13757,7 +13757,7 @@
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" s="20">
         <v>9886</v>
@@ -13765,7 +13765,7 @@
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" s="20">
         <v>6496</v>
@@ -13773,7 +13773,7 @@
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="20">
         <v>6181</v>
@@ -13781,7 +13781,7 @@
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="20">
         <v>1910</v>
@@ -13789,7 +13789,7 @@
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38" s="20">
         <v>1449</v>
@@ -13797,7 +13797,7 @@
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" s="20">
         <v>1121</v>
@@ -13805,7 +13805,7 @@
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B40" s="20">
         <v>604</v>
@@ -13813,7 +13813,7 @@
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="20">
         <v>550</v>
@@ -13821,7 +13821,7 @@
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B42" s="20">
         <v>176</v>
@@ -13829,7 +13829,7 @@
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B43" s="20">
         <v>84</v>
@@ -13858,15 +13858,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="13">
         <v>16439</v>
@@ -13874,7 +13874,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="13">
         <v>13142</v>
@@ -13882,7 +13882,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="13">
         <v>11056</v>
@@ -13890,7 +13890,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="13">
         <v>9397</v>
@@ -13898,7 +13898,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B6" s="13">
         <v>7955</v>
@@ -13906,7 +13906,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B7" s="13">
         <v>6237</v>
@@ -13914,7 +13914,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="13">
         <v>5433</v>

--- a/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
+++ b/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\Sem 1\ELEN4002 Capstone Project\Code\Team-Riot\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48FF163-373B-42F3-82E8-C93272175B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88347A34-197D-40EE-8B6F-C5FA2DD31277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts and Phrases" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="483">
   <si>
     <t>Label</t>
   </si>
@@ -417,9 +417,6 @@
     <t>Demonstration</t>
   </si>
   <si>
-    <t>Demonstrate</t>
-  </si>
-  <si>
     <t>Betoog, betogers</t>
   </si>
   <si>
@@ -1203,84 +1200,39 @@
     <t>Afrikaans_Phrases</t>
   </si>
   <si>
-    <t>Capitalism,neoliberalism,privatisation,privatise</t>
-  </si>
-  <si>
-    <t>destroyed,evicted,demolished,relocated,removal</t>
-  </si>
-  <si>
-    <t>fees,costs,teacher,permission,results,policy,allowed,shortage,not used,closed,residence</t>
-  </si>
-  <si>
     <t xml:space="preserve">outcome,result,winner,unfair,cheat,wrong,councillor  </t>
   </si>
   <si>
-    <t>corrupt,fired,dismissed,policy,other people,hours,overtime,equipment,tools,salary,wages,cheque,food,water,transport,housing,accommodation,health,safety,living conditions,management,race,racism,racist,discrimination,subsidy,allowance,training,white,promotion,working conditions,increase,unfair,poor,injustice,unjust</t>
-  </si>
-  <si>
     <t>suspect,criminal</t>
   </si>
   <si>
     <t>Labour broker,labour brokers</t>
   </si>
   <si>
-    <t>Licence,permit,permits,licenses</t>
-  </si>
-  <si>
     <t>Not arrive,not come,failed to arrive,failed to come,not respond,not answer</t>
   </si>
   <si>
-    <t>Bills,billing,rates,council tax,corrupt,corruption,illegal,council,councillor,mayor,failed,waited,long time,years,consultation,feedback,information,old councillor,reinstated,reinstate,reappointed,put back,toilets,sanitation,pipes,water</t>
-  </si>
-  <si>
     <t>Police,SAPS</t>
   </si>
   <si>
-    <t>crime,policing,incident,drugs,gangs,arrests,suspects,wrongful,violence</t>
-  </si>
-  <si>
     <t>problem,dispute,challenge,fight,protest,gather,demonstrate</t>
   </si>
   <si>
-    <t>Witchcraft,from the dead,muti</t>
-  </si>
-  <si>
     <t>female,women,woman</t>
   </si>
   <si>
     <t>not local,not from area,outside,only be local,only local people</t>
   </si>
   <si>
-    <t>Fired,suspended,dismissed,discipline</t>
-  </si>
-  <si>
     <t>Payment,salary,cheque,overtime,wage,wages,remuneration,not paid,bonus,bonusses,percent,unfair</t>
   </si>
   <si>
-    <t>Evicted,relocated,red ants,demolition,relocation,removal,demolished</t>
-  </si>
-  <si>
-    <t>Disconnected,power is down,electricity is down,power</t>
-  </si>
-  <si>
-    <t>Party list,circulate,for councillor,the candidate,on the list,wrong candidate,want another person</t>
-  </si>
-  <si>
     <t>did not arrive,failed to respond,did not come back,did not come</t>
   </si>
   <si>
     <t>food,conditions,health,safety,equipment</t>
   </si>
   <si>
-    <t>Arrest,release</t>
-  </si>
-  <si>
-    <t>Crime,murder,kidnapped,was attacked,killed</t>
-  </si>
-  <si>
-    <t>Captive,hostage,lock-in</t>
-  </si>
-  <si>
     <t>Atack,Attack,Throw,threw,pelt,torch,choas,lost control,threatened,death threat</t>
   </si>
   <si>
@@ -1296,15 +1248,6 @@
     <t>Meet,meeting</t>
   </si>
   <si>
-    <t>Picket,posters,placards,speakers,organiser,leader</t>
-  </si>
-  <si>
-    <t>write,petition</t>
-  </si>
-  <si>
-    <t>boycot,boycott</t>
-  </si>
-  <si>
     <t>COSATU,FOSATU,NEHAWU,SATAWU,Allied,AMCU,Nuhhrccaw,Denosa,HOSPERSA,NPSWU,NUPSAW,SADNU,POPCRU,NASUWU,IMATU,Union,Shop stewart,Shop steward,Shopsteward,Shopstewart,Shop-steward,Shop-stewart</t>
   </si>
   <si>
@@ -1314,9 +1257,6 @@
     <t>church,congregation,believers,temple,mosque,synagoge</t>
   </si>
   <si>
-    <t>Shacks,sharks,informal,hostel,squatter,camp,township,the location</t>
-  </si>
-  <si>
     <t>Court,hearing</t>
   </si>
   <si>
@@ -1326,30 +1266,12 @@
     <t>church,congregation,believers,temple,muslim,jew,christian,jewish,christianity,islam,religious,Judaism</t>
   </si>
   <si>
-    <t>Teacher,teachers,headmaster,school,primary,secondary,highschool,learners,pupils</t>
-  </si>
-  <si>
-    <t>Students,Campus,Univeristy,college</t>
-  </si>
-  <si>
-    <t>Weapon,Knife,Traditional weapons,knobkieries,kieries,spears,panga</t>
-  </si>
-  <si>
     <t xml:space="preserve">Throw,Threw,Attack,attacked </t>
   </si>
   <si>
-    <t>Gun,cannon,canon,shotgun,s/gun,rubber,stungrenade,stun grenade,stuntgrenade,tear gas,teargas,bullets,rubberbullets</t>
-  </si>
-  <si>
     <t>Football,soccer,PSL,score,Bafana</t>
   </si>
   <si>
-    <t>Cricket,rugby,games,athletics,race,marathon,Proteas,Springboks,Olympics,athletics</t>
-  </si>
-  <si>
-    <t>Memorial,funeral,burial,after tears,mourners</t>
-  </si>
-  <si>
     <t xml:space="preserve">Church service,ZCC,Shembe,prayer,dedication </t>
   </si>
   <si>
@@ -1362,15 +1284,9 @@
     <t>Taxi,taxis,taxi drivers,over routes</t>
   </si>
   <si>
-    <t>cut,electricity,water,prepaid,loadshedding,blackout,watershedding</t>
-  </si>
-  <si>
     <t>Abuse,against xenophobia</t>
   </si>
   <si>
-    <t>poverty,unemployment,jobs</t>
-  </si>
-  <si>
     <t>their rights,recognition</t>
   </si>
   <si>
@@ -1389,15 +1305,15 @@
     <t>grant</t>
   </si>
   <si>
-    <t>New law,legislation,proposed</t>
-  </si>
-  <si>
     <t>to be part of,incorporated,demarcation,located,boundary</t>
   </si>
   <si>
     <t>service delivery</t>
   </si>
   <si>
+    <t>COSATU,NUMSA,national strike</t>
+  </si>
+  <si>
     <t>Capitalism,privatisation,prvatise,privatize,privatization</t>
   </si>
   <si>
@@ -1425,39 +1341,18 @@
     <t>Tribal court,traditional court,imbizo</t>
   </si>
   <si>
-    <t>Vote,voting,voting station,polling station</t>
-  </si>
-  <si>
     <t>days of activism,against women,abuse</t>
   </si>
   <si>
     <t>Career,hobby,carnival,exhibition,inauguration,unveiling,concert,DJ</t>
   </si>
   <si>
-    <t>beat,raid,injury,rubber,stungrenade,stuntgrenade,tear,resisted,brutality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stones,rocks,bricks,brike </t>
-  </si>
-  <si>
     <t>attend,solidarity,gather,demonstrate,crowd,angry,support</t>
   </si>
   <si>
-    <t>cost,price,supply,cut,disconnect</t>
-  </si>
-  <si>
-    <t>Empowerment,Rights</t>
-  </si>
-  <si>
     <t>contracts expire,project end,completed,contract end</t>
   </si>
   <si>
-    <t>School,university,students,student</t>
-  </si>
-  <si>
-    <t>Electricity,Power,connections,loadshedding,load shedding</t>
-  </si>
-  <si>
     <t>Work,workers,Company,Employ,employer,employee,Labour,Industrial,Bosses,strike,management,worker,boss</t>
   </si>
   <si>
@@ -1476,9 +1371,6 @@
     <t>Government,National,govt</t>
   </si>
   <si>
-    <t>Inspectors,expired,inspector</t>
-  </si>
-  <si>
     <t>Library,libraries</t>
   </si>
   <si>
@@ -1488,10 +1380,121 @@
     <t>water,poor roads,quality of roads,quality of the roads,quality roads,pot hole, pot holes</t>
   </si>
   <si>
-    <t>Ratepayers,taxpayers,association,rate payer, tax payer</t>
-  </si>
-  <si>
-    <t>COSATU,NUMSA,national strike,nationwide strike</t>
+    <t>poverty,unemployment,jobs,job</t>
+  </si>
+  <si>
+    <t>destroyed,evicted,demolished,relocated,removal,evict</t>
+  </si>
+  <si>
+    <t>School,university,students,student,varsity,varsities,universities</t>
+  </si>
+  <si>
+    <t>Electricity,Power,connections,loadshedding,load shedding,eskom</t>
+  </si>
+  <si>
+    <t>Licence,permit,permits,licenses,Licencing</t>
+  </si>
+  <si>
+    <t>Inspectors,expired,inspector,expiration</t>
+  </si>
+  <si>
+    <t>New law,legislation,proposed,amendment,amend</t>
+  </si>
+  <si>
+    <t>Ratepayers,taxpayers,association,rate payer, tax payer,ratepayer,taxpayer</t>
+  </si>
+  <si>
+    <t>Witchcraft,from the dead,muti,witch</t>
+  </si>
+  <si>
+    <t>Empowerment,Rights,equality</t>
+  </si>
+  <si>
+    <t>Fired,suspended,dismissed,discipline,dissmissal,dissmiss</t>
+  </si>
+  <si>
+    <t>Evicted,relocated,red ants,demolition,relocation,removal,demolished,evict</t>
+  </si>
+  <si>
+    <t>Disconnected,power is down,electricity is down,power,loadshedding,load shedding,eskom</t>
+  </si>
+  <si>
+    <t>cut,electricity,water,prepaid,loadshedding,blackout,watershedding,loadshedding,load shedding,eskom,power</t>
+  </si>
+  <si>
+    <t>cost,price,supply,cut,disconnect,loadshedding,load shedding,eskom,power</t>
+  </si>
+  <si>
+    <t>Party list,circulate,for councillor,the candidate,on the list,wrong candidate,want another person,recount</t>
+  </si>
+  <si>
+    <t>Arrest,release,inprison,in prison</t>
+  </si>
+  <si>
+    <t>Crime,murder,kidnapped,was attacked,killed,kidnap</t>
+  </si>
+  <si>
+    <t>Capitalism,neoliberalism,privatisation,privatise,privatize,privatization</t>
+  </si>
+  <si>
+    <t>Captive,hostage,lock-in,abduct</t>
+  </si>
+  <si>
+    <t>Picket,poster,placard,speaker,organiser,leader</t>
+  </si>
+  <si>
+    <t>Demonstrate,Demonstration</t>
+  </si>
+  <si>
+    <t>write,petition,Writter</t>
+  </si>
+  <si>
+    <t>boycot,boycott,ban</t>
+  </si>
+  <si>
+    <t>Shacks,sharks,informal,hostel,squatter,camp,township,the location,shanty town,informal settlement,Informal housing</t>
+  </si>
+  <si>
+    <t>Student,Campus,Univeristy,college,universities</t>
+  </si>
+  <si>
+    <t>Teacher,teachers,headmaster,school,primary,secondary,highschool,learners,pupi</t>
+  </si>
+  <si>
+    <t>Weapon,Knife,Traditional weapon,knobkierie,kierie,spear,panga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stone,rock,brick,brike </t>
+  </si>
+  <si>
+    <t>Gun,cannon,canon,shotgun,s/gun,rubber,stungrenade,stun grenade,stuntgrenade,tear gas,teargas,bullet,rubberbullet</t>
+  </si>
+  <si>
+    <t>Police,SAPS,officer</t>
+  </si>
+  <si>
+    <t>Cricket,rugby,game,athletics,race,marathon,Proteas,Springboks,Olympics,athletics,match</t>
+  </si>
+  <si>
+    <t>Memorial,funeral,burial,after tears,mourners,mourn</t>
+  </si>
+  <si>
+    <t>Vote,voting,voting station,polling station,polls,election</t>
+  </si>
+  <si>
+    <t>fees,costs,teacher,permission,results,policy,allowed,shortage,not used,closed,residence,riot,strike,protest</t>
+  </si>
+  <si>
+    <t>corrupt,fired,dismissed,policy,other people,hours,overtime,equipment,tool,salary,wage,cheque,food,water,transport,housing,accommodation,health,safety,living conditions,management,race,racism,racist,discrimination,subsidy,allowance,training,white,promotion,working conditions,increase,unfair,poor,injustice,unjust</t>
+  </si>
+  <si>
+    <t>Bill,billing,rates,council tax,corrupt,corruption,illegal,council,councillor,mayor,failed,waited,long time,years,consultation,feedback,information,old councillor,reinstated,reinstate,reappointed,put back,toilets,sanitation,pipes,water</t>
+  </si>
+  <si>
+    <t>crime,policing,incident,drug,gang,arrest,suspect,wrongful,violence</t>
+  </si>
+  <si>
+    <t>beat,raid,injury,rubber,stungrenade,stuntgrenade,tear,resisted,brutality,resist</t>
   </si>
 </sst>
 </file>
@@ -4013,14 +4016,14 @@
   </sheetPr>
   <dimension ref="A1:F987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="79.5703125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="88.42578125" style="26" customWidth="1"/>
     <col min="4" max="4" width="77.140625" style="26" customWidth="1"/>
     <col min="5" max="5" width="60.5703125" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" style="26" customWidth="1"/>
@@ -4037,10 +4040,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>383</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>384</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>3</v>
@@ -4054,7 +4057,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>385</v>
+        <v>462</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>6</v>
@@ -4071,7 +4074,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="24" t="s">
@@ -4089,7 +4092,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="24" t="s">
@@ -4107,7 +4110,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="24" t="s">
@@ -4125,7 +4128,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="24" t="s">
@@ -4143,7 +4146,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="24" t="s">
@@ -4161,10 +4164,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>387</v>
+        <v>478</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>20</v>
@@ -4181,10 +4184,10 @@
         <v>21</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>22</v>
@@ -4201,10 +4204,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>24</v>
@@ -4221,10 +4224,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>389</v>
+        <v>479</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="25" t="s">
@@ -4239,7 +4242,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="24" t="s">
@@ -4257,7 +4260,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="24" t="s">
@@ -4275,7 +4278,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="24" t="s">
@@ -4293,7 +4296,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="24" t="s">
@@ -4311,10 +4314,10 @@
         <v>33</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>34</v>
@@ -4331,10 +4334,10 @@
         <v>35</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>36</v>
@@ -4351,7 +4354,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="24" t="s">
@@ -4369,7 +4372,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="24" t="s">
@@ -4387,7 +4390,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="24" t="s">
@@ -4405,7 +4408,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="24" t="s">
@@ -4423,10 +4426,10 @@
         <v>44</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>394</v>
+        <v>480</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>45</v>
@@ -4443,7 +4446,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="24" t="s">
@@ -4461,7 +4464,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="24" t="s">
@@ -4479,7 +4482,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="24" t="s">
@@ -4497,10 +4500,10 @@
         <v>51</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>396</v>
+        <v>481</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>52</v>
@@ -4517,7 +4520,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="24" t="s">
@@ -4535,7 +4538,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="24" t="s">
@@ -4553,7 +4556,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="24" t="s">
@@ -4571,7 +4574,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="24" t="s">
@@ -4589,7 +4592,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="24" t="s">
@@ -4625,7 +4628,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="24" t="s">
@@ -4643,10 +4646,10 @@
         <v>66</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>67</v>
@@ -4662,11 +4665,11 @@
       <c r="B35" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>480</v>
+      <c r="C35" s="29" t="s">
+        <v>451</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>69</v>
@@ -4683,7 +4686,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="24" t="s">
@@ -4701,10 +4704,10 @@
         <v>72</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>73</v>
@@ -4729,7 +4732,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="24" t="s">
@@ -4747,7 +4750,7 @@
         <v>78</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="24" t="s">
@@ -4765,7 +4768,7 @@
         <v>80</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="24" t="s">
@@ -4783,7 +4786,7 @@
         <v>82</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="24" t="s">
@@ -4801,7 +4804,7 @@
         <v>84</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="24" t="s">
@@ -4819,7 +4822,7 @@
         <v>86</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="24" t="s">
@@ -4837,10 +4840,10 @@
         <v>88</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>89</v>
@@ -4857,7 +4860,7 @@
         <v>90</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="24" t="s">
@@ -4875,7 +4878,7 @@
         <v>92</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="24" t="s">
@@ -4893,7 +4896,7 @@
         <v>94</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="24" t="s">
@@ -4911,7 +4914,7 @@
         <v>96</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="24" t="s">
@@ -4929,7 +4932,7 @@
         <v>98</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="24" t="s">
@@ -4947,7 +4950,7 @@
         <v>100</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="24" t="s">
@@ -4965,7 +4968,7 @@
         <v>103</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="24" t="s">
@@ -4983,7 +4986,7 @@
         <v>106</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="24" t="s">
@@ -5001,7 +5004,7 @@
         <v>108</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="24" t="s">
@@ -5022,7 +5025,7 @@
         <v>116</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>111</v>
@@ -5039,7 +5042,7 @@
         <v>112</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="24" t="s">
@@ -5057,7 +5060,7 @@
         <v>114</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="D58" s="29"/>
       <c r="E58" s="24" t="s">
@@ -5075,7 +5078,7 @@
         <v>116</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="24" t="s">
@@ -5093,7 +5096,7 @@
         <v>118</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="24" t="s">
@@ -5111,7 +5114,7 @@
         <v>120</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="D61" s="29"/>
       <c r="E61" s="24" t="s">
@@ -5129,11 +5132,11 @@
         <v>122</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>123</v>
+        <v>465</v>
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>105</v>
@@ -5144,14 +5147,14 @@
         <v>102</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>105</v>
@@ -5162,14 +5165,14 @@
         <v>102</v>
       </c>
       <c r="B64" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>127</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>128</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>105</v>
@@ -5180,14 +5183,14 @@
         <v>102</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="D65" s="25"/>
       <c r="E65" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F65" s="25" t="s">
         <v>105</v>
@@ -5198,14 +5201,14 @@
         <v>102</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="D66" s="25"/>
       <c r="E66" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F66" s="25" t="s">
         <v>105</v>
@@ -5213,74 +5216,74 @@
     </row>
     <row r="68" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="24" t="s">
-        <v>135</v>
-      </c>
       <c r="C68" s="29" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="24" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5291,130 +5294,130 @@
       <c r="E72" s="24"/>
       <c r="F72" s="25"/>
     </row>
-    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B73" s="24" t="s">
-        <v>144</v>
-      </c>
       <c r="C73" s="29" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="D73" s="29"/>
       <c r="E73" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" s="25" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="D75" s="25"/>
       <c r="E75" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="D78" s="25"/>
       <c r="E78" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5427,58 +5430,58 @@
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B81" s="24" t="s">
-        <v>159</v>
-      </c>
       <c r="C81" s="29" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81" s="25" t="s">
         <v>160</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B82" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="E82" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>163</v>
-      </c>
       <c r="F82" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5491,40 +5494,40 @@
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="C85" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="E85" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C85" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="E85" s="24" t="s">
+      <c r="F85" s="25" t="s">
         <v>168</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5537,38 +5540,38 @@
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B88" s="24" t="s">
-        <v>173</v>
-      </c>
       <c r="C88" s="29" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F88" s="25" t="s">
         <v>174</v>
-      </c>
-      <c r="F88" s="25" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5581,200 +5584,200 @@
     </row>
     <row r="91" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B91" s="23" t="s">
-        <v>179</v>
-      </c>
       <c r="C91" s="29" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F91" s="29" t="s">
         <v>180</v>
-      </c>
-      <c r="F91" s="29" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F94" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F95" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="D96" s="29"/>
       <c r="E96" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F96" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="D97" s="29"/>
       <c r="E97" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="D98" s="29"/>
       <c r="E98" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F98" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="D100" s="29"/>
       <c r="E100" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" s="29" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" s="29" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -8466,13 +8469,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="L1" s="10">
         <f>SUM(L2:L8)</f>
@@ -8481,16 +8484,16 @@
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B2" s="13">
         <v>28423</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L2" s="13">
         <v>2414</v>
@@ -8498,16 +8501,16 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3" s="13">
         <v>14910</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L3" s="13">
         <v>1989</v>
@@ -8515,16 +8518,16 @@
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B4" s="13">
         <v>14356</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L4" s="13">
         <f>12271+394+52</f>
@@ -8533,16 +8536,16 @@
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B5" s="13">
         <v>5338</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L5" s="13">
         <v>1646</v>
@@ -8550,10 +8553,10 @@
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="J6" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L6" s="13">
         <f>5856+126+1996</f>
@@ -8562,10 +8565,10 @@
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="J7" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L7" s="13">
         <v>100</v>
@@ -8573,10 +8576,10 @@
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="J8" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L8" s="13">
         <f>925+311</f>
@@ -8589,18 +8592,18 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="E23" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -8608,7 +8611,7 @@
         <v>1997</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G24" s="13">
         <v>161</v>
@@ -8619,7 +8622,7 @@
         <v>1997</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G25" s="13">
         <v>889</v>
@@ -8630,7 +8633,7 @@
         <v>1997</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G26" s="13">
         <v>548</v>
@@ -8641,7 +8644,7 @@
         <v>1997</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G27" s="13">
         <v>812</v>
@@ -8652,7 +8655,7 @@
         <v>1998</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G28" s="13">
         <v>418</v>
@@ -8663,7 +8666,7 @@
         <v>1998</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G29" s="13">
         <v>1278</v>
@@ -8674,7 +8677,7 @@
         <v>1998</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G30" s="13">
         <v>709</v>
@@ -8685,7 +8688,7 @@
         <v>1998</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G31" s="13">
         <v>860</v>
@@ -8696,7 +8699,7 @@
         <v>1999</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G32" s="13">
         <v>322</v>
@@ -8707,7 +8710,7 @@
         <v>1999</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G33" s="13">
         <v>1153</v>
@@ -8718,7 +8721,7 @@
         <v>1999</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G34" s="13">
         <v>939</v>
@@ -8729,7 +8732,7 @@
         <v>1999</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G35" s="13">
         <v>554</v>
@@ -8740,7 +8743,7 @@
         <v>2000</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G36" s="13">
         <v>326</v>
@@ -8751,7 +8754,7 @@
         <v>2000</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G37" s="13">
         <v>1244</v>
@@ -8762,7 +8765,7 @@
         <v>2000</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G38" s="13">
         <v>686</v>
@@ -8773,7 +8776,7 @@
         <v>2000</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G39" s="13">
         <v>495</v>
@@ -8784,7 +8787,7 @@
         <v>2001</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G40" s="13">
         <v>336</v>
@@ -8795,7 +8798,7 @@
         <v>2001</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G41" s="13">
         <v>1223</v>
@@ -8806,7 +8809,7 @@
         <v>2001</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G42" s="13">
         <v>503</v>
@@ -8817,7 +8820,7 @@
         <v>2001</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G43" s="13">
         <v>515</v>
@@ -8828,7 +8831,7 @@
         <v>2002</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G44" s="13">
         <v>255</v>
@@ -8839,7 +8842,7 @@
         <v>2002</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G45" s="13">
         <v>1056</v>
@@ -8850,7 +8853,7 @@
         <v>2002</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G46" s="13">
         <v>380</v>
@@ -8861,7 +8864,7 @@
         <v>2002</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G47" s="13">
         <v>345</v>
@@ -8872,7 +8875,7 @@
         <v>2003</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G48" s="13">
         <v>304</v>
@@ -8883,7 +8886,7 @@
         <v>2003</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G49" s="13">
         <v>1169</v>
@@ -8894,7 +8897,7 @@
         <v>2003</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G50" s="13">
         <v>484</v>
@@ -8905,7 +8908,7 @@
         <v>2003</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G51" s="13">
         <v>375</v>
@@ -8916,7 +8919,7 @@
         <v>2004</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G52" s="13">
         <v>313</v>
@@ -8927,7 +8930,7 @@
         <v>2004</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G53" s="13">
         <v>1418</v>
@@ -8938,7 +8941,7 @@
         <v>2004</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G54" s="13">
         <v>949</v>
@@ -8949,7 +8952,7 @@
         <v>2004</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G55" s="13">
         <v>545</v>
@@ -8960,7 +8963,7 @@
         <v>2005</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G56" s="13">
         <v>292</v>
@@ -8971,7 +8974,7 @@
         <v>2005</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G57" s="13">
         <v>1971</v>
@@ -8982,7 +8985,7 @@
         <v>2005</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G58" s="13">
         <v>623</v>
@@ -8993,7 +8996,7 @@
         <v>2005</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G59" s="13">
         <v>862</v>
@@ -9004,7 +9007,7 @@
         <v>2006</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G60" s="13">
         <v>346</v>
@@ -9015,7 +9018,7 @@
         <v>2006</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G61" s="13">
         <v>1768</v>
@@ -9026,7 +9029,7 @@
         <v>2006</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G62" s="13">
         <v>1062</v>
@@ -9037,7 +9040,7 @@
         <v>2006</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G63" s="13">
         <v>1163</v>
@@ -9048,7 +9051,7 @@
         <v>2007</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G64" s="13">
         <v>242</v>
@@ -9059,7 +9062,7 @@
         <v>2007</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G65" s="13">
         <v>1471</v>
@@ -9070,7 +9073,7 @@
         <v>2007</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G66" s="13">
         <v>408</v>
@@ -9081,7 +9084,7 @@
         <v>2007</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G67" s="13">
         <v>1384</v>
@@ -9092,7 +9095,7 @@
         <v>2008</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G68" s="13">
         <v>216</v>
@@ -9103,7 +9106,7 @@
         <v>2008</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G69" s="13">
         <v>1466</v>
@@ -9114,7 +9117,7 @@
         <v>2008</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G70" s="13">
         <v>717</v>
@@ -9125,7 +9128,7 @@
         <v>2008</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G71" s="13">
         <v>551</v>
@@ -9136,7 +9139,7 @@
         <v>2009</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G72" s="13">
         <v>257</v>
@@ -9147,7 +9150,7 @@
         <v>2009</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G73" s="13">
         <v>1874</v>
@@ -9158,7 +9161,7 @@
         <v>2009</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G74" s="13">
         <v>1506</v>
@@ -9169,7 +9172,7 @@
         <v>2009</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G75" s="13">
         <v>781</v>
@@ -9180,7 +9183,7 @@
         <v>2010</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G76" s="13">
         <v>249</v>
@@ -9191,7 +9194,7 @@
         <v>2010</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G77" s="13">
         <v>1956</v>
@@ -9202,7 +9205,7 @@
         <v>2010</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G78" s="13">
         <v>864</v>
@@ -9213,7 +9216,7 @@
         <v>2010</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G79" s="13">
         <v>1686</v>
@@ -9224,7 +9227,7 @@
         <v>2011</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G80" s="13">
         <v>323</v>
@@ -9235,7 +9238,7 @@
         <v>2011</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G81" s="13">
         <v>2487</v>
@@ -9246,7 +9249,7 @@
         <v>2011</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G82" s="13">
         <v>1801</v>
@@ -9257,7 +9260,7 @@
         <v>2011</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G83" s="13">
         <v>975</v>
@@ -9268,7 +9271,7 @@
         <v>2012</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G84" s="13">
         <v>443</v>
@@ -9279,7 +9282,7 @@
         <v>2012</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G85" s="13">
         <v>3093</v>
@@ -9290,7 +9293,7 @@
         <v>2012</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G86" s="13">
         <v>1348</v>
@@ -9301,7 +9304,7 @@
         <v>2012</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G87" s="13">
         <v>1142</v>
@@ -9312,7 +9315,7 @@
         <v>2013</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G88" s="13">
         <v>535</v>
@@ -9323,7 +9326,7 @@
         <v>2013</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G89" s="13">
         <v>2907</v>
@@ -9334,7 +9337,7 @@
         <v>2013</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G90" s="13">
         <v>1383</v>
@@ -9345,7 +9348,7 @@
         <v>2013</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G91" s="13">
         <v>1311</v>
@@ -9374,10 +9377,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21">
@@ -9387,16 +9390,16 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2" s="22">
         <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2">
         <f>SUM(B5,B8,B9,B12,B15,B26,B27,B31,B22)</f>
@@ -9405,16 +9408,16 @@
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B3" s="22">
         <v>223</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3">
         <f>SUM(B11,B28)</f>
@@ -9423,16 +9426,16 @@
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B4" s="22">
         <v>230</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4">
         <f>SUM(B13,B23,B24,)</f>
@@ -9441,16 +9444,16 @@
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" s="22">
         <v>255</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5">
         <f>SUM(B6,B7)</f>
@@ -9459,16 +9462,16 @@
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B6" s="22">
         <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6">
         <f>SUM(B14,)</f>
@@ -9477,16 +9480,16 @@
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B7" s="22">
         <v>180</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7">
         <f>SUM(B16,B17,B18,B19,B21,B30)</f>
@@ -9495,16 +9498,16 @@
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B8" s="22">
         <v>1391</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8">
         <f>SUM(B25)</f>
@@ -9513,16 +9516,16 @@
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B9" s="22">
         <v>778</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9">
         <f>SUM(B2,B3,B4, B29)</f>
@@ -9531,16 +9534,16 @@
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B10" s="22">
         <v>503</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10">
         <f>SUM(B20)</f>
@@ -9549,16 +9552,16 @@
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B11" s="22">
         <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11">
         <f>B10</f>
@@ -9567,7 +9570,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B12" s="22">
         <v>1860</v>
@@ -9575,13 +9578,13 @@
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B13" s="22">
         <v>178</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21">
@@ -9591,16 +9594,16 @@
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B14" s="22">
         <v>133</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14">
         <f>SUM(B17,B20,B21,B24,B27,B38,B39,B43,B34)</f>
@@ -9609,16 +9612,16 @@
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B15" s="22">
         <v>134</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F15">
         <f>SUM(B24,B34,B35,)</f>
@@ -9627,16 +9630,16 @@
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B16" s="22">
         <v>4147</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16">
         <f>SUM(B9,B10,B11, B36)</f>
@@ -9645,16 +9648,16 @@
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B17" s="22">
         <v>128</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F17">
         <f>SUM(B34)</f>
@@ -9663,16 +9666,16 @@
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B18" s="22">
         <v>694</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18">
         <f>SUM(B27,B28,B29,B30,B32,B41)</f>
@@ -9681,16 +9684,16 @@
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B19" s="22">
         <v>135</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F19">
         <f>SUM(B27,B44)</f>
@@ -9699,16 +9702,16 @@
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B20" s="22">
         <v>95</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20">
         <f>B19</f>
@@ -9717,16 +9720,16 @@
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B21" s="22">
         <v>1408</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21">
         <f>SUM(B29,)</f>
@@ -9735,16 +9738,16 @@
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B22" s="22">
         <v>1966</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22">
         <f>SUM(B23,B24)</f>
@@ -9753,16 +9756,16 @@
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B23" s="22">
         <v>710</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F23">
         <f>SUM(B33)</f>
@@ -9771,7 +9774,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B24" s="22">
         <v>216</v>
@@ -9779,7 +9782,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B25" s="22">
         <v>154</v>
@@ -9787,7 +9790,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B26" s="22">
         <v>933</v>
@@ -9795,7 +9798,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B27" s="22">
         <v>1000</v>
@@ -9803,7 +9806,7 @@
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B28" s="22">
         <v>146</v>
@@ -9811,7 +9814,7 @@
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B29" s="22">
         <v>314</v>
@@ -9819,7 +9822,7 @@
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B30" s="22">
         <v>196</v>
@@ -9827,7 +9830,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B31" s="22">
         <v>98</v>
@@ -9835,409 +9838,409 @@
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B34" s="13">
         <v>6087</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B35" s="13">
         <v>5654</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36" s="13">
         <v>5183</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B37" s="13">
         <v>4677</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B38" s="13">
         <v>3312</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B39" s="13">
         <v>2609</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B40" s="13">
         <v>2352</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B41" s="13">
         <v>2326</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B42" s="13">
         <v>2321</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B43" s="13">
         <v>2094</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B44" s="13">
         <v>2039</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B45" s="13">
         <v>2035</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B46" s="13">
         <v>1911</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B47" s="13">
         <v>1852</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B48" s="13">
         <v>1713</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B49" s="13">
         <v>1632</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B50" s="13">
         <v>1606</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B51" s="13">
         <v>1482</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B52" s="13">
         <v>1456</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B53" s="13">
         <v>1228</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B54" s="13">
         <v>1185</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B55" s="13">
         <v>910</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B56" s="13">
         <v>891</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B57" s="13">
         <v>774</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B58" s="13">
         <v>738</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B59" s="13">
         <v>736</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B60" s="13">
         <v>703</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B61" s="13">
         <v>684</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B62" s="13">
         <v>680</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B63" s="13">
         <v>641</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B64" s="13">
         <v>555</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B65" s="13">
         <v>424</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B66" s="13">
         <v>192</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B67" s="13">
         <v>189</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B68" s="13">
         <v>105</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B69" s="13">
         <v>49</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -10258,7 +10261,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -10294,13 +10297,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10346,56 +10349,56 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -10434,294 +10437,294 @@
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="F19" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="F21" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -10748,60 +10751,60 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2" s="8">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H2" s="1">
         <v>0.7</v>
@@ -10830,27 +10833,27 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -10875,15 +10878,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" s="12">
         <v>34821</v>
@@ -10901,7 +10904,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="12">
         <v>8328</v>
@@ -10919,7 +10922,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" s="12">
         <v>7111</v>
@@ -10964,7 +10967,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11" s="12">
         <v>3486</v>
@@ -10973,7 +10976,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" s="12">
         <v>3295</v>
@@ -10982,7 +10985,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13" s="12">
         <v>2750</v>
@@ -10991,7 +10994,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B14" s="12">
         <v>2169</v>
@@ -11009,7 +11012,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" s="12">
         <v>1689</v>
@@ -11027,7 +11030,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B18" s="12">
         <v>1045</v>
@@ -11044,7 +11047,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B20" s="13">
         <v>891</v>
@@ -11060,7 +11063,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B22" s="13">
         <v>751</v>
@@ -11084,7 +11087,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B25" s="13">
         <v>489</v>
@@ -11092,7 +11095,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B26" s="13">
         <v>446</v>
@@ -11100,7 +11103,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" s="13">
         <v>426</v>
@@ -11108,7 +11111,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B28" s="13">
         <v>374</v>
@@ -11116,7 +11119,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B29" s="13">
         <v>354</v>
@@ -11124,7 +11127,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B30" s="13">
         <v>309</v>
@@ -11132,7 +11135,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B31" s="13">
         <v>246</v>
@@ -11148,7 +11151,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B33" s="13">
         <v>148</v>
@@ -11156,7 +11159,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B34" s="13">
         <v>137</v>
@@ -11180,7 +11183,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B37" s="13">
         <v>55</v>
@@ -11215,35 +11218,35 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="13">
         <v>4823</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>51</v>
@@ -11255,10 +11258,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C4" s="13">
         <v>837</v>
@@ -11267,10 +11270,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C5" s="13">
         <v>821</v>
@@ -11278,7 +11281,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>30</v>
@@ -11290,7 +11293,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>28</v>
@@ -11302,7 +11305,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>35</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>19</v>
@@ -11326,7 +11329,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>63</v>
@@ -11338,10 +11341,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="13">
         <v>380</v>
@@ -11350,10 +11353,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="13">
         <v>1165</v>
@@ -11362,7 +11365,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>51</v>
@@ -11374,7 +11377,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>35</v>
@@ -11386,10 +11389,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="13">
         <v>627</v>
@@ -11398,7 +11401,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>28</v>
@@ -11410,7 +11413,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>19</v>
@@ -11422,7 +11425,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>63</v>
@@ -11434,7 +11437,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>30</v>
@@ -11446,10 +11449,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C20" s="13">
         <v>357</v>
@@ -11457,10 +11460,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C21" s="13">
         <v>274</v>
@@ -11468,10 +11471,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C22" s="13">
         <v>6962</v>
@@ -11479,7 +11482,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>51</v>
@@ -11490,7 +11493,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>30</v>
@@ -11501,10 +11504,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C25" s="13">
         <v>1151</v>
@@ -11512,7 +11515,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>28</v>
@@ -11523,7 +11526,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>35</v>
@@ -11534,10 +11537,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" s="13">
         <v>754</v>
@@ -11545,7 +11548,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>19</v>
@@ -11556,7 +11559,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>63</v>
@@ -11567,10 +11570,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C31" s="13">
         <v>572</v>
@@ -11578,10 +11581,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C32" s="13">
         <v>5169</v>
@@ -11589,7 +11592,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>51</v>
@@ -11600,10 +11603,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C34" s="13">
         <v>1547</v>
@@ -11611,10 +11614,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C35" s="13">
         <v>1468</v>
@@ -11622,7 +11625,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>19</v>
@@ -11633,7 +11636,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>30</v>
@@ -11644,7 +11647,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>63</v>
@@ -11655,7 +11658,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>28</v>
@@ -11666,7 +11669,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>35</v>
@@ -11677,10 +11680,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C41" s="13">
         <v>523</v>
@@ -11688,10 +11691,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C42" s="13">
         <v>2972</v>
@@ -11699,7 +11702,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>51</v>
@@ -11710,7 +11713,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>63</v>
@@ -11721,10 +11724,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C45" s="13">
         <v>750</v>
@@ -11732,10 +11735,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C46" s="13">
         <v>566</v>
@@ -11743,7 +11746,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>35</v>
@@ -11754,7 +11757,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>28</v>
@@ -11765,7 +11768,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>30</v>
@@ -11776,7 +11779,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>19</v>
@@ -11787,10 +11790,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C51" s="13">
         <v>278</v>
@@ -11798,10 +11801,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C52" s="13">
         <v>2065</v>
@@ -11809,7 +11812,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>51</v>
@@ -11820,10 +11823,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C54" s="13">
         <v>784</v>
@@ -11831,10 +11834,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C55" s="13">
         <v>576</v>
@@ -11842,7 +11845,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>63</v>
@@ -11853,7 +11856,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>19</v>
@@ -11864,7 +11867,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>30</v>
@@ -11875,7 +11878,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>28</v>
@@ -11886,7 +11889,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>35</v>
@@ -11897,10 +11900,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C61" s="13">
         <v>192</v>
@@ -11908,10 +11911,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C62" s="13">
         <v>7356</v>
@@ -11919,7 +11922,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>51</v>
@@ -11930,10 +11933,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C64" s="13">
         <v>1952</v>
@@ -11941,7 +11944,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>63</v>
@@ -11952,10 +11955,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C66" s="13">
         <v>1304</v>
@@ -11963,7 +11966,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>35</v>
@@ -11974,7 +11977,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>30</v>
@@ -11985,7 +11988,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>28</v>
@@ -11996,7 +11999,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>19</v>
@@ -12007,10 +12010,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C71" s="13">
         <v>527</v>
@@ -12018,10 +12021,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C72" s="13">
         <v>665</v>
@@ -12029,7 +12032,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>51</v>
@@ -12040,7 +12043,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>63</v>
@@ -12051,10 +12054,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C75" s="13">
         <v>407</v>
@@ -12062,10 +12065,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C76" s="13">
         <v>301</v>
@@ -12073,7 +12076,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>30</v>
@@ -12084,7 +12087,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>28</v>
@@ -12095,7 +12098,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>35</v>
@@ -12106,10 +12109,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C80" s="13">
         <v>181</v>
@@ -12117,7 +12120,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>19</v>
@@ -12128,7 +12131,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>51</v>
@@ -12139,10 +12142,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C83" s="13">
         <v>3644</v>
@@ -12150,7 +12153,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>30</v>
@@ -12161,7 +12164,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>35</v>
@@ -12172,10 +12175,10 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C86" s="13">
         <v>852</v>
@@ -12183,10 +12186,10 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C87" s="13">
         <v>650</v>
@@ -12194,7 +12197,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>28</v>
@@ -12205,7 +12208,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>19</v>
@@ -12216,10 +12219,10 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C90" s="13">
         <v>294</v>
@@ -12227,7 +12230,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>63</v>
@@ -12243,13 +12246,13 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>25</v>
@@ -12258,10 +12261,10 @@
         <v>51</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>30</v>
@@ -12270,7 +12273,7 @@
         <v>28</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>19</v>
@@ -12278,10 +12281,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D96" s="13">
         <v>4823</v>
@@ -12310,7 +12313,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>51</v>
@@ -12318,23 +12321,23 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>30</v>
@@ -12342,7 +12345,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>28</v>
@@ -12350,7 +12353,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>35</v>
@@ -12358,7 +12361,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>19</v>
@@ -12366,7 +12369,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>63</v>
@@ -12377,10 +12380,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C105" s="13">
         <v>380</v>
@@ -12388,10 +12391,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C106" s="13">
         <v>1165</v>
@@ -12399,7 +12402,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>51</v>
@@ -12410,7 +12413,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>35</v>
@@ -12421,10 +12424,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C109" s="13">
         <v>627</v>
@@ -12432,7 +12435,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>28</v>
@@ -12443,7 +12446,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>19</v>
@@ -12454,7 +12457,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>63</v>
@@ -12465,7 +12468,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>30</v>
@@ -12476,10 +12479,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C114" s="13">
         <v>357</v>
@@ -12487,10 +12490,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C115" s="13">
         <v>274</v>
@@ -12498,10 +12501,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C116" s="13">
         <v>6962</v>
@@ -12509,7 +12512,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>51</v>
@@ -12520,7 +12523,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>30</v>
@@ -12531,10 +12534,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C119" s="13">
         <v>1151</v>
@@ -12542,7 +12545,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>28</v>
@@ -12553,7 +12556,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>35</v>
@@ -12564,10 +12567,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C122" s="13">
         <v>754</v>
@@ -12575,7 +12578,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>19</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>63</v>
@@ -12597,10 +12600,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C125" s="13">
         <v>572</v>
@@ -12608,10 +12611,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C126" s="13">
         <v>5169</v>
@@ -12619,7 +12622,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>51</v>
@@ -12630,10 +12633,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C128" s="13">
         <v>1547</v>
@@ -12641,10 +12644,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C129" s="13">
         <v>1468</v>
@@ -12652,7 +12655,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B130" s="11" t="s">
         <v>19</v>
@@ -12663,7 +12666,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B131" s="11" t="s">
         <v>30</v>
@@ -12674,7 +12677,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B132" s="11" t="s">
         <v>63</v>
@@ -12685,7 +12688,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B133" s="11" t="s">
         <v>28</v>
@@ -12696,7 +12699,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>35</v>
@@ -12707,10 +12710,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C135" s="13">
         <v>523</v>
@@ -12718,10 +12721,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C136" s="13">
         <v>2972</v>
@@ -12729,7 +12732,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B137" s="11" t="s">
         <v>51</v>
@@ -12740,7 +12743,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B138" s="11" t="s">
         <v>63</v>
@@ -12751,10 +12754,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C139" s="13">
         <v>750</v>
@@ -12762,10 +12765,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C140" s="13">
         <v>566</v>
@@ -12773,7 +12776,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>35</v>
@@ -12784,7 +12787,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>28</v>
@@ -12795,7 +12798,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>30</v>
@@ -12806,7 +12809,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B144" s="11" t="s">
         <v>19</v>
@@ -12817,10 +12820,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C145" s="13">
         <v>278</v>
@@ -12828,10 +12831,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C146" s="13">
         <v>2065</v>
@@ -12839,7 +12842,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>51</v>
@@ -12850,10 +12853,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C148" s="13">
         <v>784</v>
@@ -12861,10 +12864,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C149" s="13">
         <v>576</v>
@@ -12872,7 +12875,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>63</v>
@@ -12883,7 +12886,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>19</v>
@@ -12894,7 +12897,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>30</v>
@@ -12905,7 +12908,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>28</v>
@@ -12916,7 +12919,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>35</v>
@@ -12927,10 +12930,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C155" s="13">
         <v>192</v>
@@ -12938,10 +12941,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C156" s="13">
         <v>7356</v>
@@ -12949,7 +12952,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>51</v>
@@ -12960,10 +12963,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C158" s="13">
         <v>1952</v>
@@ -12971,7 +12974,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>63</v>
@@ -12982,10 +12985,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C160" s="13">
         <v>1304</v>
@@ -12993,7 +12996,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>35</v>
@@ -13004,7 +13007,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>30</v>
@@ -13015,7 +13018,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>28</v>
@@ -13026,7 +13029,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B164" s="11" t="s">
         <v>19</v>
@@ -13037,10 +13040,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C165" s="13">
         <v>527</v>
@@ -13048,10 +13051,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C166" s="13">
         <v>665</v>
@@ -13059,7 +13062,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B167" s="11" t="s">
         <v>51</v>
@@ -13070,7 +13073,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>63</v>
@@ -13081,10 +13084,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C169" s="13">
         <v>407</v>
@@ -13092,10 +13095,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C170" s="13">
         <v>301</v>
@@ -13103,7 +13106,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>30</v>
@@ -13114,7 +13117,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>28</v>
@@ -13125,7 +13128,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B173" s="11" t="s">
         <v>35</v>
@@ -13136,10 +13139,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C174" s="13">
         <v>181</v>
@@ -13147,7 +13150,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B175" s="11" t="s">
         <v>19</v>
@@ -13158,7 +13161,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B176" s="11" t="s">
         <v>51</v>
@@ -13169,10 +13172,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C177" s="13">
         <v>3644</v>
@@ -13180,7 +13183,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B178" s="11" t="s">
         <v>30</v>
@@ -13191,7 +13194,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B179" s="11" t="s">
         <v>35</v>
@@ -13202,10 +13205,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C180" s="13">
         <v>852</v>
@@ -13213,10 +13216,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C181" s="13">
         <v>650</v>
@@ -13224,7 +13227,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B182" s="11" t="s">
         <v>28</v>
@@ -13235,7 +13238,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B183" s="11" t="s">
         <v>19</v>
@@ -13246,10 +13249,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C184" s="13">
         <v>294</v>
@@ -13257,7 +13260,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B185" s="11" t="s">
         <v>63</v>
@@ -13288,12 +13291,12 @@
         <v>74</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B2" s="13">
         <v>8415</v>
@@ -13307,12 +13310,12 @@
         <v>5606</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="13">
         <v>5115</v>
@@ -13320,7 +13323,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" s="13">
         <v>4753</v>
@@ -13336,7 +13339,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B7" s="13">
         <v>4243</v>
@@ -13344,7 +13347,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B8" s="13">
         <v>3397</v>
@@ -13352,7 +13355,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B9" s="13">
         <v>3335</v>
@@ -13360,7 +13363,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B10" s="13">
         <v>2681</v>
@@ -13368,7 +13371,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B11" s="13">
         <v>851</v>
@@ -13376,7 +13379,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B12" s="13">
         <v>126</v>
@@ -13384,7 +13387,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B13" s="13">
         <v>116</v>
@@ -13392,7 +13395,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B14" s="13">
         <v>83</v>
@@ -13418,19 +13421,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="15">
         <f>SUM(C3:C15)</f>
         <v>166847</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" s="15">
         <f>SUM(G3:G15)</f>
@@ -13439,20 +13442,20 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="17">
         <v>21658</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G3" s="17">
         <v>26811</v>
@@ -13463,7 +13466,7 @@
         <v>118</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" s="17">
         <v>23878</v>
@@ -13473,7 +13476,7 @@
         <v>116</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G4" s="17">
         <v>25710</v>
@@ -13481,20 +13484,20 @@
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="17">
         <v>26811</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G5" s="17">
         <v>24360</v>
@@ -13505,7 +13508,7 @@
         <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="17">
         <v>25710</v>
@@ -13515,7 +13518,7 @@
         <v>118</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G6" s="17">
         <v>23878</v>
@@ -13523,20 +13526,20 @@
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="17">
         <v>24360</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G7" s="17">
         <v>21658</v>
@@ -13544,20 +13547,20 @@
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" s="17">
         <v>1774</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G8" s="17">
         <v>14745</v>
@@ -13568,7 +13571,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9" s="17">
         <v>9741</v>
@@ -13578,7 +13581,7 @@
         <v>106</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G9" s="17">
         <v>9741</v>
@@ -13586,20 +13589,20 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="17">
         <v>2092</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G10" s="17">
         <v>8195</v>
@@ -13607,20 +13610,20 @@
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="17">
         <v>8195</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G11" s="17">
         <v>4629</v>
@@ -13628,20 +13631,20 @@
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="17">
         <v>14745</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G12" s="17">
         <v>2092</v>
@@ -13649,20 +13652,20 @@
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" s="17">
         <v>1206</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G13" s="17">
         <v>2048</v>
@@ -13670,20 +13673,20 @@
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="17">
         <v>2048</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G14" s="17">
         <v>1774</v>
@@ -13691,20 +13694,20 @@
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15" s="17">
         <v>4629</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G15" s="17">
         <v>1206</v>
@@ -13712,20 +13715,20 @@
     </row>
     <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" s="20">
         <v>20024</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="20">
         <v>604</v>
@@ -13821,7 +13824,7 @@
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B42" s="20">
         <v>176</v>
@@ -13829,7 +13832,7 @@
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" s="20">
         <v>84</v>
@@ -13858,15 +13861,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="13">
         <v>16439</v>
@@ -13874,7 +13877,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="13">
         <v>13142</v>
@@ -13882,7 +13885,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B4" s="13">
         <v>11056</v>
@@ -13890,7 +13893,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="13">
         <v>9397</v>
@@ -13898,7 +13901,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6" s="13">
         <v>7955</v>
@@ -13906,7 +13909,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" s="13">
         <v>6237</v>
@@ -13914,7 +13917,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="13">
         <v>5433</v>

--- a/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
+++ b/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\Sem 1\ELEN4002 Capstone Project\Code\Team-Riot\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88347A34-197D-40EE-8B6F-C5FA2DD31277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E0620C-002D-41F8-A257-CD72E40ECD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4014,10 +4014,10 @@
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F987"/>
+  <dimension ref="A1:F979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4512,7 +4512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>4</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>4</v>
       </c>
@@ -4716,27 +4716,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
+    <row r="38" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>416</v>
+      </c>
       <c r="D38" s="25"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
+      <c r="E38" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>77</v>
@@ -4747,14 +4757,14 @@
         <v>74</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>77</v>
@@ -4765,14 +4775,14 @@
         <v>74</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>77</v>
@@ -4783,14 +4793,14 @@
         <v>74</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>454</v>
+        <v>392</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>77</v>
@@ -4801,14 +4811,14 @@
         <v>74</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>77</v>
@@ -4819,14 +4829,16 @@
         <v>74</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D44" s="25"/>
+        <v>456</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>457</v>
+      </c>
       <c r="E44" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>77</v>
@@ -4837,16 +4849,14 @@
         <v>74</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>457</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="D45" s="25"/>
       <c r="E45" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>77</v>
@@ -4857,14 +4867,14 @@
         <v>74</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>77</v>
@@ -4875,14 +4885,14 @@
         <v>74</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>77</v>
@@ -4893,14 +4903,14 @@
         <v>74</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>77</v>
@@ -4911,14 +4921,14 @@
         <v>74</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F49" s="25" t="s">
         <v>77</v>
@@ -4929,35 +4939,53 @@
         <v>74</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
-        <v>74</v>
+      <c r="A51" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="D51" s="25"/>
+        <v>103</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="D51" s="29"/>
       <c r="E51" s="24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>77</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -4965,14 +4993,14 @@
         <v>102</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>463</v>
+        <v>396</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="24" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>105</v>
@@ -4983,14 +5011,16 @@
         <v>102</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="D54" s="29"/>
+        <v>116</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>305</v>
+      </c>
       <c r="E54" s="24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F54" s="25" t="s">
         <v>105</v>
@@ -5001,14 +5031,14 @@
         <v>102</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>105</v>
@@ -5019,16 +5049,14 @@
         <v>102</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>305</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="D56" s="29"/>
       <c r="E56" s="24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F56" s="25" t="s">
         <v>105</v>
@@ -5039,14 +5067,14 @@
         <v>102</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="24" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>105</v>
@@ -5057,14 +5085,14 @@
         <v>102</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="D58" s="29"/>
       <c r="E58" s="24" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>105</v>
@@ -5075,14 +5103,14 @@
         <v>102</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="24" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>105</v>
@@ -5093,14 +5121,14 @@
         <v>102</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="D60" s="29"/>
-      <c r="E60" s="24" t="s">
-        <v>119</v>
+      <c r="E60" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>105</v>
@@ -5111,14 +5139,14 @@
         <v>102</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="D61" s="29"/>
       <c r="E61" s="24" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>105</v>
@@ -5129,14 +5157,14 @@
         <v>102</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>465</v>
+        <v>127</v>
       </c>
       <c r="D62" s="29"/>
-      <c r="E62" s="1" t="s">
-        <v>123</v>
+      <c r="E62" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>105</v>
@@ -5147,14 +5175,14 @@
         <v>102</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="D63" s="29"/>
+        <v>129</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="D63" s="25"/>
       <c r="E63" s="24" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>105</v>
@@ -5165,148 +5193,176 @@
         <v>102</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="29"/>
+        <v>131</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="D64" s="25"/>
       <c r="E64" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="24" t="s">
-        <v>102</v>
+    <row r="65" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="D65" s="25"/>
+        <v>134</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="D65" s="29"/>
       <c r="E65" s="24" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="24" t="s">
-        <v>102</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="D66" s="25"/>
+        <v>136</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="D66" s="29"/>
       <c r="E66" s="24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="D67" s="25"/>
+      <c r="E67" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
         <v>133</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="D68" s="29"/>
+        <v>140</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D68" s="25"/>
       <c r="E68" s="24" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="F68" s="25" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>401</v>
+        <v>468</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="24" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="24" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="24" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="23"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>404</v>
+      </c>
       <c r="D72" s="25"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="25"/>
+      <c r="E72" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
         <v>142</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>468</v>
-      </c>
-      <c r="D73" s="29"/>
+        <v>140</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="D73" s="25"/>
       <c r="E73" s="24" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>145</v>
@@ -5317,14 +5373,14 @@
         <v>142</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>403</v>
+        <v>470</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="24" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F74" s="25" t="s">
         <v>145</v>
@@ -5335,14 +5391,14 @@
         <v>142</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="D75" s="25"/>
       <c r="E75" s="24" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>145</v>
@@ -5350,272 +5406,312 @@
     </row>
     <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="D76" s="25"/>
+        <v>158</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="D76" s="29"/>
       <c r="E76" s="24" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>405</v>
-      </c>
-      <c r="D77" s="25"/>
+        <v>161</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>472</v>
+      </c>
       <c r="E77" s="24" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="D78" s="25"/>
+        <v>163</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="D78" s="29"/>
       <c r="E78" s="24" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="D79" s="25"/>
+        <v>166</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>482</v>
+      </c>
       <c r="E79" s="24" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="23"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="25"/>
+      <c r="A80" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="D80" s="29"/>
+      <c r="E80" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="24" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>406</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>472</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="D82" s="29"/>
       <c r="E82" s="24" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>163</v>
+        <v>177</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>178</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>473</v>
+        <v>407</v>
       </c>
       <c r="D83" s="29"/>
-      <c r="E83" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="23"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="25"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E83" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A84" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="D84" s="29"/>
+      <c r="E84" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>166</v>
+        <v>177</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="E85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>169</v>
+        <v>177</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>184</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="D86" s="29"/>
-      <c r="E86" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="23"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="25"/>
-    </row>
-    <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E86" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A87" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="D87" s="29"/>
+      <c r="E87" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B88" s="24" t="s">
-        <v>172</v>
+        <v>177</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="D88" s="29"/>
-      <c r="E88" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="F88" s="25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E88" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="D89" s="29"/>
-      <c r="E89" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="F89" s="25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="23"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="25"/>
+      <c r="E89" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A90" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="D90" s="29"/>
+      <c r="E90" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="91" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
         <v>177</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="23" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="F91" s="29" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B92" s="24" t="s">
-        <v>181</v>
+      <c r="B92" s="23" t="s">
+        <v>195</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="23" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="57" x14ac:dyDescent="0.2">
@@ -5623,181 +5719,65 @@
         <v>177</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D93" s="29"/>
-      <c r="E93" s="1" t="s">
-        <v>7</v>
+      <c r="E93" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="F93" s="29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A94" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="C94" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="D94" s="29"/>
-      <c r="E94" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F94" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A95" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B95" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C95" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="D95" s="29"/>
-      <c r="E95" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F95" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A96" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="C96" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="D96" s="29"/>
-      <c r="E96" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F96" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B97" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="D97" s="29"/>
-      <c r="E97" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="F97" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A98" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B98" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="C98" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="D98" s="29"/>
-      <c r="E98" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="F98" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A99" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="D99" s="29"/>
-      <c r="E99" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F99" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A100" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C100" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="D100" s="29"/>
-      <c r="E100" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F100" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A101" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B101" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="C101" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="D101" s="29"/>
-      <c r="E101" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="F101" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="23"/>
+    <row r="94" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="23"/>
+      <c r="F94" s="30"/>
+    </row>
+    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F95" s="30"/>
+    </row>
+    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F96" s="30"/>
+    </row>
+    <row r="97" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="23"/>
+      <c r="F97" s="30"/>
+    </row>
+    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F98" s="30"/>
+    </row>
+    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F99" s="30"/>
+    </row>
+    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F100" s="30"/>
+    </row>
+    <row r="101" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="23"/>
+      <c r="F101" s="30"/>
+    </row>
+    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F102" s="30"/>
     </row>
     <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F103" s="30"/>
     </row>
-    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="23"/>
       <c r="F104" s="30"/>
     </row>
-    <row r="105" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="23"/>
+    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F105" s="30"/>
     </row>
-    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="23"/>
       <c r="F106" s="30"/>
     </row>
-    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="31"/>
       <c r="F107" s="30"/>
     </row>
     <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5813,26 +5793,23 @@
     <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F111" s="30"/>
     </row>
-    <row r="112" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A112" s="23"/>
+    <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F112" s="30"/>
     </row>
     <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F113" s="30"/>
     </row>
-    <row r="114" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="23"/>
+    <row r="114" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F114" s="30"/>
     </row>
-    <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="31"/>
+    <row r="115" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A115" s="23"/>
       <c r="F115" s="30"/>
     </row>
     <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F116" s="30"/>
     </row>
-    <row r="117" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A117" s="23"/>
+    <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F117" s="30"/>
     </row>
     <row r="118" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5850,8 +5827,7 @@
     <row r="122" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F122" s="30"/>
     </row>
-    <row r="123" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="23"/>
+    <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F123" s="30"/>
     </row>
     <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -8421,30 +8397,6 @@
     </row>
     <row r="979" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F979" s="30"/>
-    </row>
-    <row r="980" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F980" s="30"/>
-    </row>
-    <row r="981" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F981" s="30"/>
-    </row>
-    <row r="982" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F982" s="30"/>
-    </row>
-    <row r="983" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F983" s="30"/>
-    </row>
-    <row r="984" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F984" s="30"/>
-    </row>
-    <row r="985" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F985" s="30"/>
-    </row>
-    <row r="986" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F986" s="30"/>
-    </row>
-    <row r="987" spans="6:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F987" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
+++ b/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\Sem 1\ELEN4002 Capstone Project\Code\Team-Riot\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E0620C-002D-41F8-A257-CD72E40ECD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DCC3F3-C18C-493A-802A-6290DBB9E845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts and Phrases" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="484">
   <si>
     <t>Label</t>
   </si>
@@ -1251,9 +1251,6 @@
     <t>COSATU,FOSATU,NEHAWU,SATAWU,Allied,AMCU,Nuhhrccaw,Denosa,HOSPERSA,NPSWU,NUPSAW,SADNU,POPCRU,NASUWU,IMATU,Union,Shop stewart,Shop steward,Shopsteward,Shopstewart,Shop-steward,Shop-stewart</t>
   </si>
   <si>
-    <t>ANC,Congress,DA,EFF,IFP,NFP,Cope,UDM,SACP,ACDP</t>
-  </si>
-  <si>
     <t>church,congregation,believers,temple,mosque,synagoge</t>
   </si>
   <si>
@@ -1329,9 +1326,6 @@
     <t>company,business,gate,premises,factory</t>
   </si>
   <si>
-    <t>Beat,beating,mob justice,necklace,necklacing,vigilantes,vigilante</t>
-  </si>
-  <si>
     <t>Rebel,rebellion,uprising,movement</t>
   </si>
   <si>
@@ -1449,9 +1443,6 @@
     <t>write,petition,Writter</t>
   </si>
   <si>
-    <t>boycot,boycott,ban</t>
-  </si>
-  <si>
     <t>Shacks,sharks,informal,hostel,squatter,camp,township,the location,shanty town,informal settlement,Informal housing</t>
   </si>
   <si>
@@ -1495,6 +1486,18 @@
   </si>
   <si>
     <t>beat,raid,injury,rubber,stungrenade,stuntgrenade,tear,resisted,brutality,resist</t>
+  </si>
+  <si>
+    <t>Beat</t>
+  </si>
+  <si>
+    <t>mob justice,necklacing,vigilantes,vigilante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boycot,boycott, ban </t>
+  </si>
+  <si>
+    <t>ANC,Congress, DA , EFF ,IFP,NFP, cope,cope ,UDM,SACP,ACDP</t>
   </si>
 </sst>
 </file>
@@ -1510,53 +1513,63 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -4016,8 +4029,8 @@
   </sheetPr>
   <dimension ref="A1:F979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD83"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4057,7 +4070,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>6</v>
@@ -4074,7 +4087,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="24" t="s">
@@ -4092,7 +4105,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="24" t="s">
@@ -4110,7 +4123,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="24" t="s">
@@ -4128,7 +4141,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="24" t="s">
@@ -4146,7 +4159,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="24" t="s">
@@ -4164,10 +4177,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>20</v>
@@ -4204,10 +4217,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>24</v>
@@ -4224,10 +4237,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="25" t="s">
@@ -4242,7 +4255,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="24" t="s">
@@ -4260,7 +4273,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="24" t="s">
@@ -4278,7 +4291,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="24" t="s">
@@ -4296,7 +4309,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="24" t="s">
@@ -4337,7 +4350,7 @@
         <v>146</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>36</v>
@@ -4372,7 +4385,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="24" t="s">
@@ -4390,7 +4403,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="24" t="s">
@@ -4426,10 +4439,10 @@
         <v>44</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>45</v>
@@ -4446,7 +4459,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="24" t="s">
@@ -4464,7 +4477,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="24" t="s">
@@ -4482,7 +4495,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="24" t="s">
@@ -4503,7 +4516,7 @@
         <v>388</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>52</v>
@@ -4520,7 +4533,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="24" t="s">
@@ -4538,7 +4551,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="24" t="s">
@@ -4556,7 +4569,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="24" t="s">
@@ -4574,7 +4587,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="24" t="s">
@@ -4592,7 +4605,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="24" t="s">
@@ -4628,7 +4641,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="24" t="s">
@@ -4646,7 +4659,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>389</v>
@@ -4666,7 +4679,7 @@
         <v>68</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>381</v>
@@ -4686,7 +4699,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="24" t="s">
@@ -4704,7 +4717,7 @@
         <v>72</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>390</v>
@@ -4724,7 +4737,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="24" t="s">
@@ -4760,7 +4773,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="24" t="s">
@@ -4778,7 +4791,7 @@
         <v>82</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="24" t="s">
@@ -4814,7 +4827,7 @@
         <v>86</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="24" t="s">
@@ -4832,10 +4845,10 @@
         <v>88</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>89</v>
@@ -4852,7 +4865,7 @@
         <v>90</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="24" t="s">
@@ -4906,7 +4919,7 @@
         <v>96</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="24" t="s">
@@ -4924,7 +4937,7 @@
         <v>98</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="24" t="s">
@@ -4942,7 +4955,7 @@
         <v>100</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="24" t="s">
@@ -4960,7 +4973,7 @@
         <v>103</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D51" s="29"/>
       <c r="E51" s="24" t="s">
@@ -5052,7 +5065,7 @@
         <v>114</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="24" t="s">
@@ -5106,7 +5119,7 @@
         <v>120</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="24" t="s">
@@ -5124,7 +5137,7 @@
         <v>122</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="1" t="s">
@@ -5142,7 +5155,7 @@
         <v>124</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D61" s="29"/>
       <c r="E61" s="24" t="s">
@@ -5178,7 +5191,7 @@
         <v>129</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="24" t="s">
@@ -5196,7 +5209,7 @@
         <v>131</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="24" t="s">
@@ -5232,7 +5245,7 @@
         <v>136</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>401</v>
+        <v>483</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="24" t="s">
@@ -5250,7 +5263,7 @@
         <v>138</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D67" s="25"/>
       <c r="E67" s="24" t="s">
@@ -5268,7 +5281,7 @@
         <v>140</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="24" t="s">
@@ -5286,7 +5299,7 @@
         <v>143</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="24" t="s">
@@ -5304,7 +5317,7 @@
         <v>146</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="24" t="s">
@@ -5322,7 +5335,7 @@
         <v>148</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="24" t="s">
@@ -5340,7 +5353,7 @@
         <v>150</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="24" t="s">
@@ -5358,7 +5371,7 @@
         <v>140</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D73" s="25"/>
       <c r="E73" s="24" t="s">
@@ -5376,7 +5389,7 @@
         <v>153</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="24" t="s">
@@ -5394,7 +5407,7 @@
         <v>155</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D75" s="25"/>
       <c r="E75" s="24" t="s">
@@ -5412,7 +5425,7 @@
         <v>158</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="24" t="s">
@@ -5430,10 +5443,10 @@
         <v>161</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>162</v>
@@ -5450,7 +5463,7 @@
         <v>163</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="24" t="s">
@@ -5468,10 +5481,10 @@
         <v>166</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>167</v>
@@ -5488,9 +5501,11 @@
         <v>169</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="D80" s="29"/>
+        <v>481</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>480</v>
+      </c>
       <c r="E80" s="24" t="s">
         <v>170</v>
       </c>
@@ -5506,7 +5521,7 @@
         <v>172</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="24" t="s">
@@ -5524,7 +5539,7 @@
         <v>175</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="24" t="s">
@@ -5542,7 +5557,7 @@
         <v>178</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="23" t="s">
@@ -5560,7 +5575,7 @@
         <v>181</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="23" t="s">
@@ -5578,7 +5593,7 @@
         <v>183</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D85" s="29"/>
       <c r="E85" s="1" t="s">
@@ -5596,7 +5611,7 @@
         <v>184</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="1" t="s">
@@ -5614,7 +5629,7 @@
         <v>140</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="23" t="s">
@@ -5632,7 +5647,7 @@
         <v>187</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="23" t="s">
@@ -5650,7 +5665,7 @@
         <v>189</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="23" t="s">
@@ -5668,7 +5683,7 @@
         <v>191</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="23" t="s">
@@ -5686,7 +5701,7 @@
         <v>193</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="23" t="s">
@@ -5704,7 +5719,7 @@
         <v>195</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="23" t="s">
@@ -5722,7 +5737,7 @@
         <v>198</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="23" t="s">

--- a/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
+++ b/DATA/Protest is SA   SAS rules V2 - Separated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\Sem 1\ELEN4002 Capstone Project\Code\Team-Riot\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA39F56-F4EA-4F4E-BA1B-3266A5542CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB002A3A-2171-47E0-BD29-AC221DFC3FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1491,10 +1491,10 @@
     <t xml:space="preserve">boycot,boycott, ban </t>
   </si>
   <si>
-    <t>ANC,Congress, DA , EFF ,IFP,NFP, cope,cope ,UDM,SACP,ACDP</t>
-  </si>
-  <si>
     <t>Embassy,solidarily with the people of, war ,the situation in</t>
+  </si>
+  <si>
+    <t>ANC,Congress,IFP,NFP,UDM,SACP,ACDP</t>
   </si>
 </sst>
 </file>
@@ -4026,8 +4026,8 @@
   </sheetPr>
   <dimension ref="A1:F979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4306,7 +4306,7 @@
         <v>264</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="24" t="s">
@@ -5242,7 +5242,7 @@
         <v>135</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="24" t="s">
